--- a/inst/testdata/examples_of_output/testoutput_ejamit_10pts_1miles.xlsx
+++ b/inst/testdata/examples_of_output/testoutput_ejamit_10pts_1miles.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="1188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="1015">
   <si>
     <t xml:space="preserve">Analysis Title</t>
   </si>
@@ -1883,7 +1883,7 @@
     <t xml:space="preserve">US percentile for Air Toxics Respiratory Hazard Index</t>
   </si>
   <si>
-    <t xml:space="preserve">US percentile for Air Toxics Diesel Particulate Matter  (ug/m3)</t>
+    <t xml:space="preserve">US percentile for Air Toxics Diesel Particulate Matter (ug/m3)</t>
   </si>
   <si>
     <t xml:space="preserve">US percentile for Lead Paint Indicator (% pre-1960s housing)</t>
@@ -1907,7 +1907,7 @@
     <t xml:space="preserve">US percentile for Underground Storage Tanks (UST) indicator</t>
   </si>
   <si>
-    <t xml:space="preserve">US%ile Toxic Releases to Air</t>
+    <t xml:space="preserve">US percentile for Toxic Releases to Air</t>
   </si>
   <si>
     <t xml:space="preserve">US average for Particulate Matter (PM 2.5 in ug/m3)</t>
@@ -1922,7 +1922,7 @@
     <t xml:space="preserve">US average for Air Toxics Respiratory Hazard Index</t>
   </si>
   <si>
-    <t xml:space="preserve">US average for Air Toxics Diesel Particulate Matter  (ug/m3)</t>
+    <t xml:space="preserve">US average for Air Toxics Diesel Particulate Matter (ug/m3)</t>
   </si>
   <si>
     <t xml:space="preserve">US average for Lead Paint Indicator (% pre-1960s housing)</t>
@@ -1961,7 +1961,7 @@
     <t xml:space="preserve">State percentile for Air Toxics Respiratory Hazard Index</t>
   </si>
   <si>
-    <t xml:space="preserve">State percentile for Air Toxics Diesel Particulate Matter  (ug/m3)</t>
+    <t xml:space="preserve">State percentile for Air Toxics Diesel Particulate Matter (ug/m3)</t>
   </si>
   <si>
     <t xml:space="preserve">State percentile for Lead Paint Indicator (% pre-1960s housing)</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">State percentile for Underground Storage Tanks (UST) indicator</t>
   </si>
   <si>
-    <t xml:space="preserve">State%ile Toxic Releases to Air</t>
+    <t xml:space="preserve">State percentile for Toxic Releases to Air</t>
   </si>
   <si>
     <t xml:space="preserve">State average for Particulate Matter (PM 2.5 in ug/m3)</t>
@@ -2000,7 +2000,7 @@
     <t xml:space="preserve">State average for Air Toxics Respiratory Hazard Index</t>
   </si>
   <si>
-    <t xml:space="preserve">State average for Air Toxics Diesel Particulate Matter  (ug/m3)</t>
+    <t xml:space="preserve">State average for Air Toxics Diesel Particulate Matter (ug/m3)</t>
   </si>
   <si>
     <t xml:space="preserve">State average for Lead Paint Indicator (% pre-1960s housing)</t>
@@ -2102,7 +2102,7 @@
     <t xml:space="preserve">US percentile for EJ Supplemental Index for Underground Storage Tanks (UST) indicator</t>
   </si>
   <si>
-    <t xml:space="preserve">EJ Suppl: Toxic Releases to Air (US%ile)</t>
+    <t xml:space="preserve">US Percentile for Toxic Releases to Air Supplemental Index</t>
   </si>
   <si>
     <t xml:space="preserve">State percentile for EJ Index for Particulate Matter (PM 2.5)</t>
@@ -2180,7 +2180,7 @@
     <t xml:space="preserve">State percentile for EJ Supplemental Index for Underground Storage Tanks (UST) indicator</t>
   </si>
   <si>
-    <t xml:space="preserve">EJ Suppl: Toxic Releases to Air (State%ile)</t>
+    <t xml:space="preserve">State Percentile for Toxic Releases to Air Supplemental Index</t>
   </si>
   <si>
     <t xml:space="preserve">Low income resident count</t>
@@ -2195,10 +2195,10 @@
     <t xml:space="preserve">Less Than High School Education resident count</t>
   </si>
   <si>
-    <t xml:space="preserve">Under Age 5  resident count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Over Age 64  resident count</t>
+    <t xml:space="preserve">Under Age 5 resident count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over Age 64 resident count</t>
   </si>
   <si>
     <t xml:space="preserve">People of Color resident count</t>
@@ -2336,7 +2336,7 @@
     <t xml:space="preserve">Buffer distance (miles)</t>
   </si>
   <si>
-    <t xml:space="preserve">Households  below Poverty Level</t>
+    <t xml:space="preserve">Households below Poverty Level</t>
   </si>
   <si>
     <t xml:space="preserve">Particulate Matter 2.5 EJ Index</t>
@@ -2522,247 +2522,55 @@
     <t xml:space="preserve">indicator</t>
   </si>
   <si>
-    <t xml:space="preserve">60740.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15509059004837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22719177648373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28914513788934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41143300922495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984337251886272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28660212751691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1089556870424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16012734428962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.626954735972852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04929231166424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44449315258489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.689193583478233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59835983475031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40023000842424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00981035808161786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.258834681706878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.917306992591921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974319827151174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99401340697048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.983727555630845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05103568840792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9431634087635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3914711144607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36182502257449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.844554478901931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87744645209624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39687584712197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699949839626733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000628210603019329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39103427263507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40787608918503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27725135901372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27377293644414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26533274913395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94632908931405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10252981551897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46423366271612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08767349363334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14259337011017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.587948931650003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28902428248068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83166208112301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.757185590036211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2764942177851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.821250957574415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0211175147532702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.293936140378921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.986153967802546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868787857910699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01842180129477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00086488412593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19385071165445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11372283831009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4730655391462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4162320304591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41759072867446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3335534926563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24939055579875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62072324297621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000549542391698243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40032633231994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09722551140677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.402213982301018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177292613262759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.396010488889865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0681898975535662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0571522547117061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148745029046363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.216365396112293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0642407100392984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108321822579078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.408417475712171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254705689632748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0859050745551141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0296853983269757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00884091780909874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48171806856403e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000905494375233576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0283600838323156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.591582524287829</t>
+    <t xml:space="preserve">60740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6</t>
   </si>
   <si>
     <t xml:space="preserve">64</t>
@@ -2801,211 +2609,73 @@
     <t xml:space="preserve">90</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
     <t xml:space="preserve">87</t>
   </si>
   <si>
     <t xml:space="preserve">40</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348209902986201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144470177082473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.307188443915815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0483125285492727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0580616598652403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115610743885085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19510734165523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0553738435314915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172774550320597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389231362101946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176328762221516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12464578402133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0496112817120539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00631390396999697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00151036084130344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00349835025686016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.030916676817411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.607174880159797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139057139555231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113453129174059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0232554115117608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0107651841712436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000701653620644247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00308058197289479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0287582717894555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.680928628204466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.1398429049576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.1192371456842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.186551597539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.7956299195098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.4442701139112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.8774964891513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.1824818119107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6122689548784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4961532952587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.9518359310046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.8443899684394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.6248158142123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.4492421012079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5208337792207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0040648465681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.080875464889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0783285561645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.314905894961507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139186983951542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.312969445516141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0350351325107094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.051837377916899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.101585582160735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.198924950712489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0562235977556075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184236787836466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.316842344448459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03351072702825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.6227489938755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5272363781745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.288763333872004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363496529916469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.412797814473439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.121427813334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.387259553859506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.595260375728001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35314439812251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0137032410288398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48864668363157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6492.77619759039</t>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6493</t>
   </si>
   <si>
     <t xml:space="preserve">45</t>
@@ -3023,150 +2693,87 @@
     <t xml:space="preserve">79</t>
   </si>
   <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
     <t xml:space="preserve">93</t>
   </si>
   <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
     <t xml:space="preserve">89</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08189373573191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.6255472837694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2391395180474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.306164691281415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.261231818712494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.303121038041331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">212.089844158098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134584451980812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.426136923302407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9332019546488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.813132352397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94573073547232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4611.7525877926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.7046458446863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.9071226187556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9189203872882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8888645594441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.2288711119306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.9576854246686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.6803555464823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.2009160310371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.5717143313418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.6048603645356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.5827284356514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.2040177608606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.8597487993968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88819594868734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.5703626487188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2198940949767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.259277554467825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24676195339357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.291476118033866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.356235400061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0893630491733312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.476440591747104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.834901581122311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9357305930355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91954829167459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5917.44917529842</t>
+    <t xml:space="preserve">8.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5917</t>
   </si>
   <si>
     <t xml:space="preserve">77</t>
   </si>
   <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
     <t xml:space="preserve">84</t>
   </si>
   <si>
@@ -3176,403 +2783,277 @@
     <t xml:space="preserve">82</t>
   </si>
   <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.6620003523196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.4601442534857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.5652030036072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.483092773661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.5912993515014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.7771874686164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.8473616363436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.3459696445358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.954020641979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.8064020098682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.4128412273235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.3757027871117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.2598703002784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.9170814105297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.2504910249044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.8948474077342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.9059471224212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.7541796797184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.0204575874667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.3426341325281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.5990635541807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.2369958660066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.4390626980769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.5978139719428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.4290545157004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.0386069874532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21641.3</t>
+    <t xml:space="preserve">21641</t>
   </si>
   <si>
     <t xml:space="preserve">1477</t>
   </si>
   <si>
-    <t xml:space="preserve">1737.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5487.1</t>
+    <t xml:space="preserve">1738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5487</t>
   </si>
   <si>
     <t xml:space="preserve">3902</t>
   </si>
   <si>
-    <t xml:space="preserve">6579.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24807.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15470.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5217.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1803.1</t>
+    <t xml:space="preserve">6580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1803</t>
   </si>
   <si>
     <t xml:space="preserve">537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1722.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35932.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54648.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36889.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21660.1</t>
+    <t xml:space="preserve">1723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21660</t>
   </si>
   <si>
     <t xml:space="preserve">30403</t>
   </si>
   <si>
-    <t xml:space="preserve">10184.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24671.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56838.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11330.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">707.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1152.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1367.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1120.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13015.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47725.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30954.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29785.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11126.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58670.1</t>
+    <t xml:space="preserve">10184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58670</t>
   </si>
   <si>
     <t xml:space="preserve">6852.1</t>
   </si>
   <si>
-    <t xml:space="preserve">76.4043738686003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27396.5437510437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.190479268332095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.758903182125931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121191604603927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111780636425186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00805687203791469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.214276188955274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.785725457398136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.509620466148504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.490379533851496</t>
+    <t xml:space="preserve">27397</t>
   </si>
   <si>
     <t xml:space="preserve">1152</t>
   </si>
   <si>
-    <t xml:space="preserve">4125.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7490061700825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2800525682083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9436874546867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3223520494095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3062952754009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8875691628529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6804528960566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.365844456708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8219735907916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1230826578635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2394849849795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5011294805059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8783117132121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0221926595924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38962718980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94440985667818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94890832117283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4617510865063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4839114905125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2149123924552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5003626854019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2843520085863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7895964704421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2179715338023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0783464646228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6120490276571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8063947005102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8671272361231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3994584350557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8434714599746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7322176834729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7560665816297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0334153594205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0546905974176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0837523210072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7126658844692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3782670269578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8612628660625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.690962610657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.477788252368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35761090705433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18062897652306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06911266266519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2137257751854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0076097480187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9897104046075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.316391581613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7516570875059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0145599344855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69644419262566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5242147150694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.852589104637</t>
+    <t xml:space="preserve">4126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.853</t>
   </si>
   <si>
     <t xml:space="preserve">0.018</t>
   </si>
   <si>
     <t xml:space="preserve">0.751551987007954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116790324202618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.513704922876626</t>
   </si>
   <si>
     <t xml:space="preserve">0.0124440738023481</t>
@@ -18786,7 +18267,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B12" t="s">
         <v>452</v>
@@ -18794,7 +18275,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B13" t="s">
         <v>453</v>
@@ -18802,7 +18283,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B14" t="s">
         <v>454</v>
@@ -18810,7 +18291,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>838</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>455</v>
@@ -18818,7 +18299,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B16" t="s">
         <v>456</v>
@@ -18826,7 +18307,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B17" t="s">
         <v>457</v>
@@ -18834,7 +18315,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="B18" t="s">
         <v>458</v>
@@ -18842,7 +18323,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="B19" t="s">
         <v>459</v>
@@ -18850,7 +18331,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>843</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>460</v>
@@ -18858,7 +18339,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="B21" t="s">
         <v>461</v>
@@ -18866,7 +18347,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="B22" t="s">
         <v>462</v>
@@ -18874,7 +18355,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="B23" t="s">
         <v>463</v>
@@ -18882,7 +18363,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="B24" t="s">
         <v>464</v>
@@ -18890,7 +18371,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="B25" t="s">
         <v>465</v>
@@ -18898,7 +18379,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="B26" t="s">
         <v>466</v>
@@ -18906,7 +18387,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="B27" t="s">
         <v>467</v>
@@ -18914,7 +18395,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>851</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>468</v>
@@ -18922,7 +18403,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>852</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
         <v>469</v>
@@ -18930,7 +18411,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>853</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>470</v>
@@ -18938,7 +18419,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>854</v>
+        <v>837</v>
       </c>
       <c r="B31" t="s">
         <v>471</v>
@@ -18946,7 +18427,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="B32" t="s">
         <v>472</v>
@@ -18954,7 +18435,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="B33" t="s">
         <v>473</v>
@@ -18962,7 +18443,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="B34" t="s">
         <v>474</v>
@@ -18970,7 +18451,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="B35" t="s">
         <v>475</v>
@@ -18978,7 +18459,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="B36" t="s">
         <v>476</v>
@@ -18986,7 +18467,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>860</v>
+        <v>836</v>
       </c>
       <c r="B37" t="s">
         <v>477</v>
@@ -18994,7 +18475,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>861</v>
+        <v>839</v>
       </c>
       <c r="B38" t="s">
         <v>478</v>
@@ -19002,7 +18483,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>862</v>
+        <v>840</v>
       </c>
       <c r="B39" t="s">
         <v>479</v>
@@ -19010,7 +18491,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>863</v>
+        <v>836</v>
       </c>
       <c r="B40" t="s">
         <v>480</v>
@@ -19018,7 +18499,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>864</v>
+        <v>836</v>
       </c>
       <c r="B41" t="s">
         <v>481</v>
@@ -19026,7 +18507,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>865</v>
+        <v>835</v>
       </c>
       <c r="B42" t="s">
         <v>482</v>
@@ -19034,7 +18515,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>866</v>
+        <v>835</v>
       </c>
       <c r="B43" t="s">
         <v>483</v>
@@ -19042,7 +18523,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>867</v>
+        <v>835</v>
       </c>
       <c r="B44" t="s">
         <v>484</v>
@@ -19050,7 +18531,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>868</v>
+        <v>845</v>
       </c>
       <c r="B45" t="s">
         <v>485</v>
@@ -19058,7 +18539,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>869</v>
+        <v>837</v>
       </c>
       <c r="B46" t="s">
         <v>486</v>
@@ -19066,7 +18547,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>870</v>
+        <v>846</v>
       </c>
       <c r="B47" t="s">
         <v>487</v>
@@ -19074,7 +18555,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>871</v>
+        <v>837</v>
       </c>
       <c r="B48" t="s">
         <v>488</v>
@@ -19082,7 +18563,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>872</v>
+        <v>837</v>
       </c>
       <c r="B49" t="s">
         <v>489</v>
@@ -19090,7 +18571,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>873</v>
+        <v>838</v>
       </c>
       <c r="B50" t="s">
         <v>490</v>
@@ -19098,7 +18579,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>874</v>
+        <v>835</v>
       </c>
       <c r="B51" t="s">
         <v>491</v>
@@ -19106,7 +18587,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>875</v>
+        <v>847</v>
       </c>
       <c r="B52" t="s">
         <v>492</v>
@@ -19114,7 +18595,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>876</v>
+        <v>843</v>
       </c>
       <c r="B53" t="s">
         <v>493</v>
@@ -19122,7 +18603,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>877</v>
+        <v>835</v>
       </c>
       <c r="B54" t="s">
         <v>494</v>
@@ -19130,7 +18611,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>878</v>
+        <v>843</v>
       </c>
       <c r="B55" t="s">
         <v>495</v>
@@ -19138,7 +18619,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>879</v>
+        <v>840</v>
       </c>
       <c r="B56" t="s">
         <v>496</v>
@@ -19146,7 +18627,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>880</v>
+        <v>841</v>
       </c>
       <c r="B57" t="s">
         <v>497</v>
@@ -19154,7 +18635,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>881</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
         <v>498</v>
@@ -19162,7 +18643,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>882</v>
+        <v>842</v>
       </c>
       <c r="B59" t="s">
         <v>499</v>
@@ -19170,7 +18651,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>883</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
         <v>500</v>
@@ -19178,7 +18659,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>884</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
         <v>501</v>
@@ -19186,7 +18667,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>885</v>
+        <v>834</v>
       </c>
       <c r="B62" t="s">
         <v>502</v>
@@ -19194,7 +18675,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>886</v>
+        <v>837</v>
       </c>
       <c r="B63" t="s">
         <v>503</v>
@@ -19202,7 +18683,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>887</v>
+        <v>846</v>
       </c>
       <c r="B64" t="s">
         <v>504</v>
@@ -19210,7 +18691,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>888</v>
+        <v>836</v>
       </c>
       <c r="B65" t="s">
         <v>505</v>
@@ -19218,7 +18699,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>889</v>
+        <v>836</v>
       </c>
       <c r="B66" t="s">
         <v>506</v>
@@ -19226,7 +18707,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>890</v>
+        <v>848</v>
       </c>
       <c r="B67" t="s">
         <v>507</v>
@@ -19234,7 +18715,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>891</v>
+        <v>834</v>
       </c>
       <c r="B68" t="s">
         <v>508</v>
@@ -19242,7 +18723,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>892</v>
+        <v>849</v>
       </c>
       <c r="B69" t="s">
         <v>509</v>
@@ -19250,7 +18731,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>893</v>
+        <v>840</v>
       </c>
       <c r="B70" t="s">
         <v>510</v>
@@ -19258,7 +18739,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>894</v>
+        <v>836</v>
       </c>
       <c r="B71" t="s">
         <v>511</v>
@@ -19266,7 +18747,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>895</v>
+        <v>837</v>
       </c>
       <c r="B72" t="s">
         <v>512</v>
@@ -19274,7 +18755,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>896</v>
+        <v>840</v>
       </c>
       <c r="B73" t="s">
         <v>513</v>
@@ -19282,7 +18763,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>897</v>
+        <v>840</v>
       </c>
       <c r="B74" t="s">
         <v>514</v>
@@ -19290,7 +18771,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>898</v>
+        <v>840</v>
       </c>
       <c r="B75" t="s">
         <v>515</v>
@@ -19298,7 +18779,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>899</v>
+        <v>840</v>
       </c>
       <c r="B76" t="s">
         <v>516</v>
@@ -19306,7 +18787,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>900</v>
+        <v>840</v>
       </c>
       <c r="B77" t="s">
         <v>517</v>
@@ -19314,7 +18795,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>901</v>
+        <v>840</v>
       </c>
       <c r="B78" t="s">
         <v>518</v>
@@ -19322,7 +18803,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>902</v>
+        <v>840</v>
       </c>
       <c r="B79" t="s">
         <v>519</v>
@@ -19330,7 +18811,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>903</v>
+        <v>840</v>
       </c>
       <c r="B80" t="s">
         <v>520</v>
@@ -19338,7 +18819,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>904</v>
+        <v>840</v>
       </c>
       <c r="B81" t="s">
         <v>521</v>
@@ -19346,7 +18827,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>905</v>
+        <v>840</v>
       </c>
       <c r="B82" t="s">
         <v>522</v>
@@ -19354,7 +18835,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>906</v>
+        <v>840</v>
       </c>
       <c r="B83" t="s">
         <v>523</v>
@@ -19362,7 +18843,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>907</v>
+        <v>840</v>
       </c>
       <c r="B84" t="s">
         <v>524</v>
@@ -19370,7 +18851,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>908</v>
+        <v>840</v>
       </c>
       <c r="B85" t="s">
         <v>525</v>
@@ -19378,7 +18859,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>909</v>
+        <v>840</v>
       </c>
       <c r="B86" t="s">
         <v>526</v>
@@ -19386,7 +18867,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>910</v>
+        <v>840</v>
       </c>
       <c r="B87" t="s">
         <v>527</v>
@@ -19394,7 +18875,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>911</v>
+        <v>840</v>
       </c>
       <c r="B88" t="s">
         <v>528</v>
@@ -19402,7 +18883,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>912</v>
+        <v>840</v>
       </c>
       <c r="B89" t="s">
         <v>529</v>
@@ -19410,7 +18891,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>913</v>
+        <v>7</v>
       </c>
       <c r="B90" t="s">
         <v>530</v>
@@ -19418,7 +18899,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>914</v>
+        <v>850</v>
       </c>
       <c r="B91" t="s">
         <v>531</v>
@@ -19426,7 +18907,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>915</v>
+        <v>851</v>
       </c>
       <c r="B92" t="s">
         <v>532</v>
@@ -19434,7 +18915,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>916</v>
+        <v>852</v>
       </c>
       <c r="B93" t="s">
         <v>533</v>
@@ -19442,7 +18923,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>917</v>
+        <v>853</v>
       </c>
       <c r="B94" t="s">
         <v>534</v>
@@ -19450,7 +18931,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>918</v>
+        <v>854</v>
       </c>
       <c r="B95" t="s">
         <v>535</v>
@@ -19458,7 +18939,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>919</v>
+        <v>855</v>
       </c>
       <c r="B96" t="s">
         <v>536</v>
@@ -19466,7 +18947,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>920</v>
+        <v>856</v>
       </c>
       <c r="B97" t="s">
         <v>537</v>
@@ -19474,7 +18955,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>914</v>
+        <v>850</v>
       </c>
       <c r="B98" t="s">
         <v>538</v>
@@ -19482,7 +18963,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>921</v>
+        <v>857</v>
       </c>
       <c r="B99" t="s">
         <v>539</v>
@@ -19490,7 +18971,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>922</v>
+        <v>858</v>
       </c>
       <c r="B100" t="s">
         <v>540</v>
@@ -19498,7 +18979,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>923</v>
+        <v>859</v>
       </c>
       <c r="B101" t="s">
         <v>541</v>
@@ -19506,7 +18987,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>924</v>
+        <v>860</v>
       </c>
       <c r="B102" t="s">
         <v>542</v>
@@ -19514,7 +18995,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>924</v>
+        <v>860</v>
       </c>
       <c r="B103" t="s">
         <v>543</v>
@@ -19522,7 +19003,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>925</v>
+        <v>861</v>
       </c>
       <c r="B104" t="s">
         <v>544</v>
@@ -19530,7 +19011,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>926</v>
+        <v>840</v>
       </c>
       <c r="B105" t="s">
         <v>545</v>
@@ -19538,7 +19019,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>927</v>
+        <v>862</v>
       </c>
       <c r="B106" t="s">
         <v>546</v>
@@ -19546,7 +19027,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>914</v>
+        <v>850</v>
       </c>
       <c r="B107" t="s">
         <v>547</v>
@@ -19554,7 +19035,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>928</v>
+        <v>863</v>
       </c>
       <c r="B108" t="s">
         <v>548</v>
@@ -19562,7 +19043,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>929</v>
+        <v>840</v>
       </c>
       <c r="B109" t="s">
         <v>549</v>
@@ -19570,7 +19051,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>930</v>
+        <v>840</v>
       </c>
       <c r="B110" t="s">
         <v>550</v>
@@ -19578,7 +19059,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>931</v>
+        <v>840</v>
       </c>
       <c r="B111" t="s">
         <v>551</v>
@@ -19586,7 +19067,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>932</v>
+        <v>840</v>
       </c>
       <c r="B112" t="s">
         <v>552</v>
@@ -19594,7 +19075,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>933</v>
+        <v>840</v>
       </c>
       <c r="B113" t="s">
         <v>553</v>
@@ -19602,7 +19083,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>934</v>
+        <v>840</v>
       </c>
       <c r="B114" t="s">
         <v>554</v>
@@ -19610,7 +19091,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>935</v>
+        <v>840</v>
       </c>
       <c r="B115" t="s">
         <v>555</v>
@@ -19618,7 +19099,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>936</v>
+        <v>840</v>
       </c>
       <c r="B116" t="s">
         <v>556</v>
@@ -19626,7 +19107,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>937</v>
+        <v>840</v>
       </c>
       <c r="B117" t="s">
         <v>557</v>
@@ -19634,7 +19115,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>938</v>
+        <v>840</v>
       </c>
       <c r="B118" t="s">
         <v>558</v>
@@ -19642,7 +19123,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>939</v>
+        <v>840</v>
       </c>
       <c r="B119" t="s">
         <v>559</v>
@@ -19650,7 +19131,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>940</v>
+        <v>840</v>
       </c>
       <c r="B120" t="s">
         <v>560</v>
@@ -19658,7 +19139,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>941</v>
+        <v>840</v>
       </c>
       <c r="B121" t="s">
         <v>561</v>
@@ -19666,7 +19147,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>942</v>
+        <v>840</v>
       </c>
       <c r="B122" t="s">
         <v>562</v>
@@ -19674,7 +19155,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>943</v>
+        <v>840</v>
       </c>
       <c r="B123" t="s">
         <v>563</v>
@@ -19682,7 +19163,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>944</v>
+        <v>840</v>
       </c>
       <c r="B124" t="s">
         <v>564</v>
@@ -19690,7 +19171,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>945</v>
+        <v>840</v>
       </c>
       <c r="B125" t="s">
         <v>565</v>
@@ -19698,7 +19179,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="B126" t="s">
         <v>566</v>
@@ -19706,7 +19187,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>947</v>
+        <v>840</v>
       </c>
       <c r="B127" t="s">
         <v>567</v>
@@ -19714,7 +19195,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>948</v>
+        <v>840</v>
       </c>
       <c r="B128" t="s">
         <v>568</v>
@@ -19722,7 +19203,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>949</v>
+        <v>840</v>
       </c>
       <c r="B129" t="s">
         <v>569</v>
@@ -19730,7 +19211,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>950</v>
+        <v>840</v>
       </c>
       <c r="B130" t="s">
         <v>570</v>
@@ -19738,7 +19219,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>951</v>
+        <v>840</v>
       </c>
       <c r="B131" t="s">
         <v>571</v>
@@ -19746,7 +19227,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>952</v>
+        <v>840</v>
       </c>
       <c r="B132" t="s">
         <v>572</v>
@@ -19754,7 +19235,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>953</v>
+        <v>840</v>
       </c>
       <c r="B133" t="s">
         <v>573</v>
@@ -19762,7 +19243,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>954</v>
+        <v>7</v>
       </c>
       <c r="B134" t="s">
         <v>574</v>
@@ -19770,7 +19251,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>955</v>
+        <v>852</v>
       </c>
       <c r="B135" t="s">
         <v>575</v>
@@ -19778,7 +19259,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>956</v>
+        <v>855</v>
       </c>
       <c r="B136" t="s">
         <v>576</v>
@@ -19786,7 +19267,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>957</v>
+        <v>864</v>
       </c>
       <c r="B137" t="s">
         <v>577</v>
@@ -19794,7 +19275,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>958</v>
+        <v>865</v>
       </c>
       <c r="B138" t="s">
         <v>578</v>
@@ -19802,7 +19283,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>959</v>
+        <v>866</v>
       </c>
       <c r="B139" t="s">
         <v>579</v>
@@ -19810,7 +19291,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>960</v>
+        <v>867</v>
       </c>
       <c r="B140" t="s">
         <v>580</v>
@@ -19818,7 +19299,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>961</v>
+        <v>868</v>
       </c>
       <c r="B141" t="s">
         <v>581</v>
@@ -19826,7 +19307,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>962</v>
+        <v>854</v>
       </c>
       <c r="B142" t="s">
         <v>582</v>
@@ -19834,7 +19315,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>963</v>
+        <v>869</v>
       </c>
       <c r="B143" t="s">
         <v>583</v>
@@ -19842,7 +19323,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>964</v>
+        <v>868</v>
       </c>
       <c r="B144" t="s">
         <v>584</v>
@@ -19850,7 +19331,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>965</v>
+        <v>859</v>
       </c>
       <c r="B145" t="s">
         <v>585</v>
@@ -19858,7 +19339,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>966</v>
+        <v>870</v>
       </c>
       <c r="B146" t="s">
         <v>586</v>
@@ -19866,7 +19347,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>967</v>
+        <v>871</v>
       </c>
       <c r="B147" t="s">
         <v>587</v>
@@ -19874,7 +19355,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>968</v>
+        <v>872</v>
       </c>
       <c r="B148" t="s">
         <v>588</v>
@@ -19882,7 +19363,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>926</v>
+        <v>840</v>
       </c>
       <c r="B149" t="s">
         <v>589</v>
@@ -19890,7 +19371,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>969</v>
+        <v>873</v>
       </c>
       <c r="B150" t="s">
         <v>590</v>
@@ -19898,7 +19379,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>970</v>
+        <v>858</v>
       </c>
       <c r="B151" t="s">
         <v>591</v>
@@ -19906,7 +19387,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>971</v>
+        <v>874</v>
       </c>
       <c r="B152" t="s">
         <v>592</v>
@@ -19914,7 +19395,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>972</v>
+        <v>840</v>
       </c>
       <c r="B153" t="s">
         <v>593</v>
@@ -19922,7 +19403,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>973</v>
+        <v>840</v>
       </c>
       <c r="B154" t="s">
         <v>594</v>
@@ -19930,7 +19411,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>974</v>
+        <v>840</v>
       </c>
       <c r="B155" t="s">
         <v>595</v>
@@ -19938,7 +19419,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>975</v>
+        <v>840</v>
       </c>
       <c r="B156" t="s">
         <v>596</v>
@@ -19946,7 +19427,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>976</v>
+        <v>840</v>
       </c>
       <c r="B157" t="s">
         <v>597</v>
@@ -19954,7 +19435,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>977</v>
+        <v>840</v>
       </c>
       <c r="B158" t="s">
         <v>598</v>
@@ -19962,7 +19443,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>978</v>
+        <v>840</v>
       </c>
       <c r="B159" t="s">
         <v>599</v>
@@ -19970,7 +19451,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>979</v>
+        <v>840</v>
       </c>
       <c r="B160" t="s">
         <v>600</v>
@@ -19978,7 +19459,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>980</v>
+        <v>840</v>
       </c>
       <c r="B161" t="s">
         <v>601</v>
@@ -19986,7 +19467,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>981</v>
+        <v>840</v>
       </c>
       <c r="B162" t="s">
         <v>602</v>
@@ -19994,7 +19475,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>982</v>
+        <v>875</v>
       </c>
       <c r="B163" t="s">
         <v>603</v>
@@ -20002,7 +19483,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>983</v>
+        <v>876</v>
       </c>
       <c r="B164" t="s">
         <v>604</v>
@@ -20010,7 +19491,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>984</v>
+        <v>877</v>
       </c>
       <c r="B165" t="s">
         <v>605</v>
@@ -20018,7 +19499,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>985</v>
+        <v>878</v>
       </c>
       <c r="B166" t="s">
         <v>606</v>
@@ -20026,7 +19507,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>986</v>
+        <v>879</v>
       </c>
       <c r="B167" t="s">
         <v>607</v>
@@ -20034,7 +19515,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>987</v>
+        <v>880</v>
       </c>
       <c r="B168" t="s">
         <v>608</v>
@@ -20042,7 +19523,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>988</v>
+        <v>881</v>
       </c>
       <c r="B169" t="s">
         <v>609</v>
@@ -20050,7 +19531,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>989</v>
+        <v>882</v>
       </c>
       <c r="B170" t="s">
         <v>610</v>
@@ -20058,7 +19539,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>990</v>
+        <v>838</v>
       </c>
       <c r="B171" t="s">
         <v>611</v>
@@ -20066,7 +19547,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>991</v>
+        <v>836</v>
       </c>
       <c r="B172" t="s">
         <v>612</v>
@@ -20074,7 +19555,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>992</v>
+        <v>840</v>
       </c>
       <c r="B173" t="s">
         <v>613</v>
@@ -20082,7 +19563,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>993</v>
+        <v>883</v>
       </c>
       <c r="B174" t="s">
         <v>614</v>
@@ -20090,7 +19571,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>994</v>
+        <v>884</v>
       </c>
       <c r="B175" t="s">
         <v>615</v>
@@ -20098,7 +19579,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>995</v>
+        <v>885</v>
       </c>
       <c r="B176" t="s">
         <v>616</v>
@@ -20106,7 +19587,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>996</v>
+        <v>886</v>
       </c>
       <c r="B177" t="s">
         <v>617</v>
@@ -20114,7 +19595,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>997</v>
+        <v>887</v>
       </c>
       <c r="B178" t="s">
         <v>618</v>
@@ -20122,7 +19603,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>998</v>
+        <v>888</v>
       </c>
       <c r="B179" t="s">
         <v>619</v>
@@ -20130,7 +19611,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>999</v>
+        <v>889</v>
       </c>
       <c r="B180" t="s">
         <v>620</v>
@@ -20138,7 +19619,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>1000</v>
+        <v>868</v>
       </c>
       <c r="B181" t="s">
         <v>621</v>
@@ -20146,7 +19627,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>915</v>
+        <v>851</v>
       </c>
       <c r="B182" t="s">
         <v>622</v>
@@ -20154,7 +19635,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>1001</v>
+        <v>890</v>
       </c>
       <c r="B183" t="s">
         <v>623</v>
@@ -20162,7 +19643,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>999</v>
+        <v>889</v>
       </c>
       <c r="B184" t="s">
         <v>624</v>
@@ -20170,7 +19651,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>1002</v>
+        <v>864</v>
       </c>
       <c r="B185" t="s">
         <v>625</v>
@@ -20178,7 +19659,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>920</v>
+        <v>856</v>
       </c>
       <c r="B186" t="s">
         <v>626</v>
@@ -20186,7 +19667,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>999</v>
+        <v>889</v>
       </c>
       <c r="B187" t="s">
         <v>627</v>
@@ -20194,7 +19675,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>1003</v>
+        <v>891</v>
       </c>
       <c r="B188" t="s">
         <v>628</v>
@@ -20202,7 +19683,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>1004</v>
+        <v>892</v>
       </c>
       <c r="B189" t="s">
         <v>629</v>
@@ -20210,7 +19691,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>1005</v>
+        <v>893</v>
       </c>
       <c r="B190" t="s">
         <v>630</v>
@@ -20218,7 +19699,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>1006</v>
+        <v>873</v>
       </c>
       <c r="B191" t="s">
         <v>631</v>
@@ -20226,7 +19707,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>1007</v>
+        <v>894</v>
       </c>
       <c r="B192" t="s">
         <v>632</v>
@@ -20234,7 +19715,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>1008</v>
+        <v>895</v>
       </c>
       <c r="B193" t="s">
         <v>633</v>
@@ -20242,7 +19723,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>1009</v>
+        <v>896</v>
       </c>
       <c r="B194" t="s">
         <v>634</v>
@@ -20250,7 +19731,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>1010</v>
+        <v>897</v>
       </c>
       <c r="B195" t="s">
         <v>635</v>
@@ -20258,7 +19739,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>1011</v>
+        <v>898</v>
       </c>
       <c r="B196" t="s">
         <v>636</v>
@@ -20266,7 +19747,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>1012</v>
+        <v>899</v>
       </c>
       <c r="B197" t="s">
         <v>637</v>
@@ -20274,7 +19755,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>1013</v>
+        <v>845</v>
       </c>
       <c r="B198" t="s">
         <v>638</v>
@@ -20282,7 +19763,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>1014</v>
+        <v>900</v>
       </c>
       <c r="B199" t="s">
         <v>639</v>
@@ -20290,7 +19771,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>1015</v>
+        <v>901</v>
       </c>
       <c r="B200" t="s">
         <v>640</v>
@@ -20298,7 +19779,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>1016</v>
+        <v>902</v>
       </c>
       <c r="B201" t="s">
         <v>641</v>
@@ -20306,7 +19787,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>1017</v>
+        <v>868</v>
       </c>
       <c r="B202" t="s">
         <v>642</v>
@@ -20314,7 +19795,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>1018</v>
+        <v>903</v>
       </c>
       <c r="B203" t="s">
         <v>643</v>
@@ -20322,7 +19803,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>1019</v>
+        <v>904</v>
       </c>
       <c r="B204" t="s">
         <v>644</v>
@@ -20330,7 +19811,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>1020</v>
+        <v>905</v>
       </c>
       <c r="B205" t="s">
         <v>645</v>
@@ -20338,7 +19819,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>1021</v>
+        <v>906</v>
       </c>
       <c r="B206" t="s">
         <v>646</v>
@@ -20346,7 +19827,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>1022</v>
+        <v>866</v>
       </c>
       <c r="B207" t="s">
         <v>647</v>
@@ -20354,7 +19835,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>1023</v>
+        <v>907</v>
       </c>
       <c r="B208" t="s">
         <v>648</v>
@@ -20362,7 +19843,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>1024</v>
+        <v>867</v>
       </c>
       <c r="B209" t="s">
         <v>649</v>
@@ -20370,7 +19851,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>1025</v>
+        <v>852</v>
       </c>
       <c r="B210" t="s">
         <v>650</v>
@@ -20378,7 +19859,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>1026</v>
+        <v>851</v>
       </c>
       <c r="B211" t="s">
         <v>651</v>
@@ -20386,7 +19867,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>1027</v>
+        <v>908</v>
       </c>
       <c r="B212" t="s">
         <v>652</v>
@@ -20394,7 +19875,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>1028</v>
+        <v>859</v>
       </c>
       <c r="B213" t="s">
         <v>653</v>
@@ -20402,7 +19883,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>1029</v>
+        <v>906</v>
       </c>
       <c r="B214" t="s">
         <v>654</v>
@@ -20410,7 +19891,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>1030</v>
+        <v>909</v>
       </c>
       <c r="B215" t="s">
         <v>655</v>
@@ -20418,7 +19899,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>1031</v>
+        <v>876</v>
       </c>
       <c r="B216" t="s">
         <v>656</v>
@@ -20426,7 +19907,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>1032</v>
+        <v>900</v>
       </c>
       <c r="B217" t="s">
         <v>657</v>
@@ -20434,7 +19915,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>1033</v>
+        <v>895</v>
       </c>
       <c r="B218" t="s">
         <v>658</v>
@@ -20442,7 +19923,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>1034</v>
+        <v>910</v>
       </c>
       <c r="B219" t="s">
         <v>659</v>
@@ -20450,7 +19931,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>1035</v>
+        <v>911</v>
       </c>
       <c r="B220" t="s">
         <v>660</v>
@@ -20458,7 +19939,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>1036</v>
+        <v>912</v>
       </c>
       <c r="B221" t="s">
         <v>661</v>
@@ -20466,7 +19947,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>1037</v>
+        <v>913</v>
       </c>
       <c r="B222" t="s">
         <v>662</v>
@@ -20474,7 +19955,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>1038</v>
+        <v>914</v>
       </c>
       <c r="B223" t="s">
         <v>663</v>
@@ -20482,7 +19963,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>1039</v>
+        <v>843</v>
       </c>
       <c r="B224" t="s">
         <v>664</v>
@@ -20490,7 +19971,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>1040</v>
+        <v>873</v>
       </c>
       <c r="B225" t="s">
         <v>665</v>
@@ -20498,7 +19979,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>1041</v>
+        <v>901</v>
       </c>
       <c r="B226" t="s">
         <v>666</v>
@@ -20506,7 +19987,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>1042</v>
+        <v>915</v>
       </c>
       <c r="B227" t="s">
         <v>667</v>
@@ -20514,7 +19995,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>916</v>
+        <v>852</v>
       </c>
       <c r="B228" t="s">
         <v>668</v>
@@ -20522,7 +20003,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>918</v>
+        <v>854</v>
       </c>
       <c r="B229" t="s">
         <v>669</v>
@@ -20530,7 +20011,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>919</v>
+        <v>855</v>
       </c>
       <c r="B230" t="s">
         <v>670</v>
@@ -20538,7 +20019,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>914</v>
+        <v>850</v>
       </c>
       <c r="B231" t="s">
         <v>671</v>
@@ -20546,7 +20027,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>1043</v>
+        <v>916</v>
       </c>
       <c r="B232" t="s">
         <v>672</v>
@@ -20554,7 +20035,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>920</v>
+        <v>856</v>
       </c>
       <c r="B233" t="s">
         <v>673</v>
@@ -20562,7 +20043,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>920</v>
+        <v>856</v>
       </c>
       <c r="B234" t="s">
         <v>674</v>
@@ -20570,7 +20051,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>999</v>
+        <v>889</v>
       </c>
       <c r="B235" t="s">
         <v>675</v>
@@ -20578,7 +20059,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>1043</v>
+        <v>916</v>
       </c>
       <c r="B236" t="s">
         <v>676</v>
@@ -20586,7 +20067,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>916</v>
+        <v>852</v>
       </c>
       <c r="B237" t="s">
         <v>677</v>
@@ -20594,7 +20075,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>920</v>
+        <v>856</v>
       </c>
       <c r="B238" t="s">
         <v>678</v>
@@ -20602,7 +20083,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>1044</v>
+        <v>907</v>
       </c>
       <c r="B239" t="s">
         <v>679</v>
@@ -20610,7 +20091,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>1045</v>
+        <v>865</v>
       </c>
       <c r="B240" t="s">
         <v>680</v>
@@ -20618,7 +20099,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>1046</v>
+        <v>867</v>
       </c>
       <c r="B241" t="s">
         <v>681</v>
@@ -20626,7 +20107,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>916</v>
+        <v>852</v>
       </c>
       <c r="B242" t="s">
         <v>682</v>
@@ -20634,7 +20115,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>1047</v>
+        <v>871</v>
       </c>
       <c r="B243" t="s">
         <v>683</v>
@@ -20642,7 +20123,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>1002</v>
+        <v>864</v>
       </c>
       <c r="B244" t="s">
         <v>684</v>
@@ -20650,7 +20131,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>1048</v>
+        <v>917</v>
       </c>
       <c r="B245" t="s">
         <v>685</v>
@@ -20658,7 +20139,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>1046</v>
+        <v>867</v>
       </c>
       <c r="B246" t="s">
         <v>686</v>
@@ -20666,7 +20147,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>923</v>
+        <v>859</v>
       </c>
       <c r="B247" t="s">
         <v>687</v>
@@ -20674,7 +20155,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>1049</v>
+        <v>918</v>
       </c>
       <c r="B248" t="s">
         <v>688</v>
@@ -20682,7 +20163,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>1050</v>
+        <v>919</v>
       </c>
       <c r="B249" t="s">
         <v>689</v>
@@ -20690,7 +20171,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>923</v>
+        <v>859</v>
       </c>
       <c r="B250" t="s">
         <v>690</v>
@@ -20698,7 +20179,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>1044</v>
+        <v>907</v>
       </c>
       <c r="B251" t="s">
         <v>691</v>
@@ -20706,7 +20187,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>1051</v>
+        <v>906</v>
       </c>
       <c r="B252" t="s">
         <v>692</v>
@@ -20714,7 +20195,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>1049</v>
+        <v>918</v>
       </c>
       <c r="B253" t="s">
         <v>693</v>
@@ -20722,7 +20203,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>1052</v>
+        <v>851</v>
       </c>
       <c r="B254" t="s">
         <v>694</v>
@@ -20730,7 +20211,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>1053</v>
+        <v>850</v>
       </c>
       <c r="B255" t="s">
         <v>695</v>
@@ -20738,7 +20219,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>1054</v>
+        <v>865</v>
       </c>
       <c r="B256" t="s">
         <v>696</v>
@@ -20746,7 +20227,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>1055</v>
+        <v>907</v>
       </c>
       <c r="B257" t="s">
         <v>697</v>
@@ -20754,7 +20235,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>1056</v>
+        <v>916</v>
       </c>
       <c r="B258" t="s">
         <v>698</v>
@@ -20762,7 +20243,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>1057</v>
+        <v>868</v>
       </c>
       <c r="B259" t="s">
         <v>699</v>
@@ -20770,7 +20251,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>1058</v>
+        <v>867</v>
       </c>
       <c r="B260" t="s">
         <v>700</v>
@@ -20778,7 +20259,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>1059</v>
+        <v>851</v>
       </c>
       <c r="B261" t="s">
         <v>701</v>
@@ -20786,7 +20267,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>1060</v>
+        <v>867</v>
       </c>
       <c r="B262" t="s">
         <v>702</v>
@@ -20794,7 +20275,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>1061</v>
+        <v>851</v>
       </c>
       <c r="B263" t="s">
         <v>703</v>
@@ -20802,7 +20283,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>1062</v>
+        <v>864</v>
       </c>
       <c r="B264" t="s">
         <v>704</v>
@@ -20810,7 +20291,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>1063</v>
+        <v>871</v>
       </c>
       <c r="B265" t="s">
         <v>705</v>
@@ -20818,7 +20299,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>1064</v>
+        <v>907</v>
       </c>
       <c r="B266" t="s">
         <v>706</v>
@@ -20826,7 +20307,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>1065</v>
+        <v>871</v>
       </c>
       <c r="B267" t="s">
         <v>707</v>
@@ -20834,7 +20315,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>1066</v>
+        <v>866</v>
       </c>
       <c r="B268" t="s">
         <v>708</v>
@@ -20842,7 +20323,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>1067</v>
+        <v>865</v>
       </c>
       <c r="B269" t="s">
         <v>709</v>
@@ -20850,7 +20331,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>1068</v>
+        <v>916</v>
       </c>
       <c r="B270" t="s">
         <v>710</v>
@@ -20858,7 +20339,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>1069</v>
+        <v>853</v>
       </c>
       <c r="B271" t="s">
         <v>711</v>
@@ -20866,7 +20347,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>1070</v>
+        <v>868</v>
       </c>
       <c r="B272" t="s">
         <v>712</v>
@@ -20874,7 +20355,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>1071</v>
+        <v>916</v>
       </c>
       <c r="B273" t="s">
         <v>713</v>
@@ -20882,7 +20363,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>1072</v>
+        <v>867</v>
       </c>
       <c r="B274" t="s">
         <v>714</v>
@@ -20890,7 +20371,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>1073</v>
+        <v>907</v>
       </c>
       <c r="B275" t="s">
         <v>715</v>
@@ -20898,7 +20379,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>1074</v>
+        <v>867</v>
       </c>
       <c r="B276" t="s">
         <v>716</v>
@@ -20906,7 +20387,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>1075</v>
+        <v>864</v>
       </c>
       <c r="B277" t="s">
         <v>717</v>
@@ -20914,7 +20395,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>1076</v>
+        <v>867</v>
       </c>
       <c r="B278" t="s">
         <v>718</v>
@@ -20922,7 +20403,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>1077</v>
+        <v>906</v>
       </c>
       <c r="B279" t="s">
         <v>719</v>
@@ -20930,7 +20411,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>1078</v>
+        <v>920</v>
       </c>
       <c r="B280" t="s">
         <v>720</v>
@@ -20938,7 +20419,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>1079</v>
+        <v>921</v>
       </c>
       <c r="B281" t="s">
         <v>721</v>
@@ -20946,7 +20427,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>1080</v>
+        <v>922</v>
       </c>
       <c r="B282" t="s">
         <v>722</v>
@@ -20954,7 +20435,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>1081</v>
+        <v>923</v>
       </c>
       <c r="B283" t="s">
         <v>723</v>
@@ -20962,7 +20443,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>1082</v>
+        <v>924</v>
       </c>
       <c r="B284" t="s">
         <v>724</v>
@@ -20970,7 +20451,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>1083</v>
+        <v>925</v>
       </c>
       <c r="B285" t="s">
         <v>725</v>
@@ -20978,7 +20459,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>1084</v>
+        <v>926</v>
       </c>
       <c r="B286" t="s">
         <v>726</v>
@@ -20986,7 +20467,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>1085</v>
+        <v>927</v>
       </c>
       <c r="B287" t="s">
         <v>727</v>
@@ -20994,7 +20475,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>1086</v>
+        <v>928</v>
       </c>
       <c r="B288" t="s">
         <v>728</v>
@@ -21002,7 +20483,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>1087</v>
+        <v>929</v>
       </c>
       <c r="B289" t="s">
         <v>729</v>
@@ -21010,7 +20491,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>1088</v>
+        <v>930</v>
       </c>
       <c r="B290" t="s">
         <v>730</v>
@@ -21018,7 +20499,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>1089</v>
+        <v>7</v>
       </c>
       <c r="B291" t="s">
         <v>731</v>
@@ -21026,7 +20507,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>1090</v>
+        <v>908</v>
       </c>
       <c r="B292" t="s">
         <v>732</v>
@@ -21034,7 +20515,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>1091</v>
+        <v>931</v>
       </c>
       <c r="B293" t="s">
         <v>733</v>
@@ -21042,7 +20523,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>1092</v>
+        <v>932</v>
       </c>
       <c r="B294" t="s">
         <v>734</v>
@@ -21050,7 +20531,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>1093</v>
+        <v>933</v>
       </c>
       <c r="B295" t="s">
         <v>735</v>
@@ -21058,7 +20539,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>1094</v>
+        <v>934</v>
       </c>
       <c r="B296" t="s">
         <v>736</v>
@@ -21066,7 +20547,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>1095</v>
+        <v>935</v>
       </c>
       <c r="B297" t="s">
         <v>737</v>
@@ -21074,7 +20555,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>1096</v>
+        <v>936</v>
       </c>
       <c r="B298" t="s">
         <v>738</v>
@@ -21082,7 +20563,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>1097</v>
+        <v>937</v>
       </c>
       <c r="B299" t="s">
         <v>739</v>
@@ -21090,7 +20571,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>1098</v>
+        <v>938</v>
       </c>
       <c r="B300" t="s">
         <v>740</v>
@@ -21098,7 +20579,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>1099</v>
+        <v>939</v>
       </c>
       <c r="B301" t="s">
         <v>741</v>
@@ -21106,7 +20587,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>1100</v>
+        <v>940</v>
       </c>
       <c r="B302" t="s">
         <v>742</v>
@@ -21114,7 +20595,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>1101</v>
+        <v>941</v>
       </c>
       <c r="B303" t="s">
         <v>743</v>
@@ -21122,7 +20603,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>1102</v>
+        <v>942</v>
       </c>
       <c r="B304" t="s">
         <v>744</v>
@@ -21130,7 +20611,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>1103</v>
+        <v>943</v>
       </c>
       <c r="B305" t="s">
         <v>745</v>
@@ -21138,7 +20619,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>1104</v>
+        <v>944</v>
       </c>
       <c r="B306" t="s">
         <v>746</v>
@@ -21146,7 +20627,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>1105</v>
+        <v>881</v>
       </c>
       <c r="B307" t="s">
         <v>747</v>
@@ -21154,7 +20635,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>1106</v>
+        <v>945</v>
       </c>
       <c r="B308" t="s">
         <v>748</v>
@@ -21162,7 +20643,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>1107</v>
+        <v>946</v>
       </c>
       <c r="B309" t="s">
         <v>749</v>
@@ -21170,7 +20651,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>1108</v>
+        <v>947</v>
       </c>
       <c r="B310" t="s">
         <v>750</v>
@@ -21178,7 +20659,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>1109</v>
+        <v>948</v>
       </c>
       <c r="B311" t="s">
         <v>751</v>
@@ -21186,7 +20667,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>1110</v>
+        <v>949</v>
       </c>
       <c r="B312" t="s">
         <v>752</v>
@@ -21194,7 +20675,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>1111</v>
+        <v>950</v>
       </c>
       <c r="B313" t="s">
         <v>753</v>
@@ -21202,7 +20683,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>1112</v>
+        <v>951</v>
       </c>
       <c r="B314" t="s">
         <v>754</v>
@@ -21210,7 +20691,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>1095</v>
+        <v>935</v>
       </c>
       <c r="B315" t="s">
         <v>755</v>
@@ -21218,7 +20699,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>1113</v>
+        <v>952</v>
       </c>
       <c r="B316" t="s">
         <v>756</v>
@@ -21226,7 +20707,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>1114</v>
+        <v>953</v>
       </c>
       <c r="B317" t="s">
         <v>329</v>
@@ -21234,7 +20715,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>1115</v>
+        <v>859</v>
       </c>
       <c r="B318" t="s">
         <v>757</v>
@@ -21242,7 +20723,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>1116</v>
+        <v>954</v>
       </c>
       <c r="B319" t="s">
         <v>758</v>
@@ -21250,7 +20731,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>1117</v>
+        <v>840</v>
       </c>
       <c r="B320" t="s">
         <v>759</v>
@@ -21258,7 +20739,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>1118</v>
+        <v>7</v>
       </c>
       <c r="B321" t="s">
         <v>760</v>
@@ -21266,7 +20747,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>1119</v>
+        <v>840</v>
       </c>
       <c r="B322" t="s">
         <v>761</v>
@@ -21274,7 +20755,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>1120</v>
+        <v>840</v>
       </c>
       <c r="B323" t="s">
         <v>762</v>
@@ -21282,7 +20763,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>1121</v>
+        <v>840</v>
       </c>
       <c r="B324" t="s">
         <v>763</v>
@@ -21290,7 +20771,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>1122</v>
+        <v>840</v>
       </c>
       <c r="B325" t="s">
         <v>764</v>
@@ -21298,7 +20779,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>1123</v>
+        <v>7</v>
       </c>
       <c r="B326" t="s">
         <v>765</v>
@@ -21306,7 +20787,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>1124</v>
+        <v>7</v>
       </c>
       <c r="B327" t="s">
         <v>766</v>
@@ -21314,7 +20795,7 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>1125</v>
+        <v>840</v>
       </c>
       <c r="B328" t="s">
         <v>767</v>
@@ -21322,7 +20803,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>1044</v>
+        <v>907</v>
       </c>
       <c r="B329" t="s">
         <v>768</v>
@@ -21330,7 +20811,7 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>1126</v>
+        <v>955</v>
       </c>
       <c r="B330" t="s">
         <v>769</v>
@@ -21346,7 +20827,7 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>1127</v>
+        <v>956</v>
       </c>
       <c r="B332" t="s">
         <v>771</v>
@@ -21354,7 +20835,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>1128</v>
+        <v>957</v>
       </c>
       <c r="B333" t="s">
         <v>772</v>
@@ -21362,7 +20843,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>1129</v>
+        <v>958</v>
       </c>
       <c r="B334" t="s">
         <v>773</v>
@@ -21370,7 +20851,7 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>1130</v>
+        <v>959</v>
       </c>
       <c r="B335" t="s">
         <v>774</v>
@@ -21378,7 +20859,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>1131</v>
+        <v>960</v>
       </c>
       <c r="B336" t="s">
         <v>775</v>
@@ -21386,7 +20867,7 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>1132</v>
+        <v>961</v>
       </c>
       <c r="B337" t="s">
         <v>776</v>
@@ -21394,7 +20875,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>1133</v>
+        <v>962</v>
       </c>
       <c r="B338" t="s">
         <v>777</v>
@@ -21402,7 +20883,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>1134</v>
+        <v>963</v>
       </c>
       <c r="B339" t="s">
         <v>778</v>
@@ -21410,7 +20891,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>1135</v>
+        <v>964</v>
       </c>
       <c r="B340" t="s">
         <v>779</v>
@@ -21418,7 +20899,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>1136</v>
+        <v>965</v>
       </c>
       <c r="B341" t="s">
         <v>780</v>
@@ -21426,7 +20907,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>1137</v>
+        <v>966</v>
       </c>
       <c r="B342" t="s">
         <v>781</v>
@@ -21434,7 +20915,7 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>1138</v>
+        <v>967</v>
       </c>
       <c r="B343" t="s">
         <v>782</v>
@@ -21442,7 +20923,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>1139</v>
+        <v>968</v>
       </c>
       <c r="B344" t="s">
         <v>783</v>
@@ -21450,7 +20931,7 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>1140</v>
+        <v>969</v>
       </c>
       <c r="B345" t="s">
         <v>784</v>
@@ -21458,7 +20939,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>1141</v>
+        <v>970</v>
       </c>
       <c r="B346" t="s">
         <v>785</v>
@@ -21466,7 +20947,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>1142</v>
+        <v>971</v>
       </c>
       <c r="B347" t="s">
         <v>786</v>
@@ -21474,7 +20955,7 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>1143</v>
+        <v>972</v>
       </c>
       <c r="B348" t="s">
         <v>787</v>
@@ -21482,7 +20963,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>1144</v>
+        <v>973</v>
       </c>
       <c r="B349" t="s">
         <v>788</v>
@@ -21490,7 +20971,7 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>1145</v>
+        <v>974</v>
       </c>
       <c r="B350" t="s">
         <v>789</v>
@@ -21498,7 +20979,7 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>1146</v>
+        <v>975</v>
       </c>
       <c r="B351" t="s">
         <v>790</v>
@@ -21506,7 +20987,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>1147</v>
+        <v>976</v>
       </c>
       <c r="B352" t="s">
         <v>791</v>
@@ -21514,7 +20995,7 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>1148</v>
+        <v>977</v>
       </c>
       <c r="B353" t="s">
         <v>792</v>
@@ -21522,7 +21003,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>1149</v>
+        <v>978</v>
       </c>
       <c r="B354" t="s">
         <v>793</v>
@@ -21530,7 +21011,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>1150</v>
+        <v>979</v>
       </c>
       <c r="B355" t="s">
         <v>794</v>
@@ -21538,7 +21019,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>1151</v>
+        <v>980</v>
       </c>
       <c r="B356" t="s">
         <v>795</v>
@@ -21546,7 +21027,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>1152</v>
+        <v>981</v>
       </c>
       <c r="B357" t="s">
         <v>796</v>
@@ -21554,7 +21035,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>1153</v>
+        <v>982</v>
       </c>
       <c r="B358" t="s">
         <v>797</v>
@@ -21562,7 +21043,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>1154</v>
+        <v>983</v>
       </c>
       <c r="B359" t="s">
         <v>798</v>
@@ -21570,7 +21051,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>1155</v>
+        <v>984</v>
       </c>
       <c r="B360" t="s">
         <v>799</v>
@@ -21578,7 +21059,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>1156</v>
+        <v>985</v>
       </c>
       <c r="B361" t="s">
         <v>800</v>
@@ -21586,7 +21067,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>1157</v>
+        <v>986</v>
       </c>
       <c r="B362" t="s">
         <v>801</v>
@@ -21594,7 +21075,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>1158</v>
+        <v>987</v>
       </c>
       <c r="B363" t="s">
         <v>802</v>
@@ -21602,7 +21083,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>1159</v>
+        <v>988</v>
       </c>
       <c r="B364" t="s">
         <v>803</v>
@@ -21610,7 +21091,7 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>1160</v>
+        <v>989</v>
       </c>
       <c r="B365" t="s">
         <v>804</v>
@@ -21618,7 +21099,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>1161</v>
+        <v>990</v>
       </c>
       <c r="B366" t="s">
         <v>805</v>
@@ -21626,7 +21107,7 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>1162</v>
+        <v>991</v>
       </c>
       <c r="B367" t="s">
         <v>806</v>
@@ -21634,7 +21115,7 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>1163</v>
+        <v>992</v>
       </c>
       <c r="B368" t="s">
         <v>807</v>
@@ -21642,7 +21123,7 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>1164</v>
+        <v>993</v>
       </c>
       <c r="B369" t="s">
         <v>808</v>
@@ -21650,7 +21131,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>1165</v>
+        <v>994</v>
       </c>
       <c r="B370" t="s">
         <v>809</v>
@@ -21658,7 +21139,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>1166</v>
+        <v>995</v>
       </c>
       <c r="B371" t="s">
         <v>810</v>
@@ -21666,7 +21147,7 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>1167</v>
+        <v>996</v>
       </c>
       <c r="B372" t="s">
         <v>811</v>
@@ -21674,7 +21155,7 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>1168</v>
+        <v>997</v>
       </c>
       <c r="B373" t="s">
         <v>812</v>
@@ -21682,7 +21163,7 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>1169</v>
+        <v>998</v>
       </c>
       <c r="B374" t="s">
         <v>813</v>
@@ -21690,7 +21171,7 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>1170</v>
+        <v>999</v>
       </c>
       <c r="B375" t="s">
         <v>814</v>
@@ -21698,7 +21179,7 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>1171</v>
+        <v>1000</v>
       </c>
       <c r="B376" t="s">
         <v>815</v>
@@ -21706,7 +21187,7 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>1172</v>
+        <v>1001</v>
       </c>
       <c r="B377" t="s">
         <v>816</v>
@@ -21714,7 +21195,7 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>1173</v>
+        <v>1002</v>
       </c>
       <c r="B378" t="s">
         <v>817</v>
@@ -21722,7 +21203,7 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>1174</v>
+        <v>1003</v>
       </c>
       <c r="B379" t="s">
         <v>818</v>
@@ -21730,7 +21211,7 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>1175</v>
+        <v>1004</v>
       </c>
       <c r="B380" t="s">
         <v>819</v>
@@ -21738,7 +21219,7 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>1176</v>
+        <v>1005</v>
       </c>
       <c r="B381" t="s">
         <v>820</v>
@@ -21746,7 +21227,7 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>1177</v>
+        <v>1006</v>
       </c>
       <c r="B382" t="s">
         <v>821</v>
@@ -21754,7 +21235,7 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>1178</v>
+        <v>1007</v>
       </c>
       <c r="B383" t="s">
         <v>822</v>
@@ -21762,7 +21243,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>1179</v>
+        <v>1008</v>
       </c>
       <c r="B384" t="s">
         <v>823</v>
@@ -21770,7 +21251,7 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>1180</v>
+        <v>1009</v>
       </c>
       <c r="B385" t="s">
         <v>824</v>
@@ -21778,7 +21259,7 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>1181</v>
+        <v>1010</v>
       </c>
       <c r="B386" t="s">
         <v>825</v>
@@ -21810,7 +21291,7 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>1182</v>
+        <v>840</v>
       </c>
       <c r="B390" t="s">
         <v>829</v>
@@ -21818,7 +21299,7 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>1183</v>
+        <v>7</v>
       </c>
       <c r="B391" t="s">
         <v>830</v>
@@ -21826,7 +21307,7 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>1184</v>
+        <v>1011</v>
       </c>
       <c r="B392" t="s">
         <v>404</v>
@@ -21834,7 +21315,7 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>1185</v>
+        <v>1012</v>
       </c>
       <c r="B393" t="s">
         <v>405</v>
@@ -21842,7 +21323,7 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>1186</v>
+        <v>1013</v>
       </c>
       <c r="B394" t="s">
         <v>406</v>
@@ -21850,7 +21331,7 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>1187</v>
+        <v>1014</v>
       </c>
       <c r="B395" t="s">
         <v>407</v>

--- a/inst/testdata/examples_of_output/testoutput_ejamit_10pts_1miles.xlsx
+++ b/inst/testdata/examples_of_output/testoutput_ejamit_10pts_1miles.xlsx
@@ -2342,7 +2342,7 @@
     <t xml:space="preserve">Traffic Proximity and Volume (daily traffic count/distance to road)</t>
   </si>
   <si>
-    <t xml:space="preserve">27.64</t>
+    <t xml:space="preserve">0.28</t>
   </si>
   <si>
     <t xml:space="preserve">Lead Paint Indicator (% pre-1960s housing)</t>

--- a/inst/testdata/examples_of_output/testoutput_ejamit_10pts_1miles.xlsx
+++ b/inst/testdata/examples_of_output/testoutput_ejamit_10pts_1miles.xlsx
@@ -1313,15 +1313,15 @@
     <t xml:space="preserve">state.EJ.DISPARITY.drinking.supp</t>
   </si>
   <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
     <t xml:space="preserve">https://ejscreen.epa.gov/mapper/EJscreen_SOE_report.aspx?&amp;geometry={"spatialReference":{"wkid":4326},"x":-83.368997,"y":30.977402}&amp;distance=1&amp;unit=9035&amp;areatype=&amp;areaid=&amp;namestr=&amp;f=report</t>
   </si>
   <si>
     <t xml:space="preserve">https://ejscreen.epa.gov/mapper/index.html?wherestr=30.977402,-83.368997</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve">GA</t>
   </si>
   <si>
@@ -1451,22 +1451,22 @@
     <t xml:space="preserve">1.3</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg Demog Index</t>
+    <t xml:space="preserve">Ratio to US avg Demographic Index</t>
   </si>
   <si>
     <t xml:space="preserve">1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg Suppl Demog Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to US avg % Low-inc.</t>
+    <t xml:space="preserve">Ratio to US avg Supplemental EJ Index for Supplemental Demographic Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to US avg % Low Income</t>
   </si>
   <si>
     <t xml:space="preserve">2.8</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg % Limited English</t>
+    <t xml:space="preserve">Ratio to US avg % in limited English-speaking Households</t>
   </si>
   <si>
     <t xml:space="preserve">1.2</t>
@@ -1478,16 +1478,16 @@
     <t xml:space="preserve">1.5</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg % &lt; High School</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to US avg % &lt; age 5</t>
+    <t xml:space="preserve">Ratio to US avg % with Less Than High School Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to US avg % under Age 5</t>
   </si>
   <si>
     <t xml:space="preserve">0.7</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg % &gt; age 64</t>
+    <t xml:space="preserve">Ratio to US avg % over Age 64</t>
   </si>
   <si>
     <t xml:space="preserve">1.6</t>
@@ -1499,43 +1499,43 @@
     <t xml:space="preserve">1.9</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg % Hispanic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to US avg % Black (NHA)</t>
+    <t xml:space="preserve">Ratio to US avg % Hispanic or Latino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to US avg % Black or African American (non-Hispanic, single race)</t>
   </si>
   <si>
     <t xml:space="preserve">1.7</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg % Asian (NHA)</t>
+    <t xml:space="preserve">Ratio to US avg % Asian (non-Hispanic, single race)</t>
   </si>
   <si>
     <t xml:space="preserve">0.4</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg % American Indian Alaska Native (NHA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to US avg % Native Hawaiian Pacific Islander (NHA)</t>
+    <t xml:space="preserve">Ratio to US avg % American Indian and Alaska Native (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to US avg % Native Hawaiian and Other Pacific Islander (non-Hispanic, single race)</t>
   </si>
   <si>
     <t xml:space="preserve">5.6</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg % Other single race (NHA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to US avg % Two or more race (NH)</t>
+    <t xml:space="preserve">Ratio to US avg % Other race (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to US avg % Two or more races (non-Hispanic)</t>
   </si>
   <si>
     <t xml:space="preserve">0.6</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg % White nonHispanic single race (NHA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to US avg PM2.5</t>
+    <t xml:space="preserve">Ratio to US avg % White (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to US avg Particulate Matter</t>
   </si>
   <si>
     <t xml:space="preserve">Ratio to US avg Ozone</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">2.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg Diesel PM</t>
+    <t xml:space="preserve">Ratio to US avg Diesel Particulate Matter</t>
   </si>
   <si>
     <t xml:space="preserve">Ratio to US avg Toxic Releases to Air</t>
@@ -1556,67 +1556,70 @@
     <t xml:space="preserve">2.6</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg Traffic</t>
+    <t xml:space="preserve">Ratio to US avg Traffic Proximity and Volume</t>
   </si>
   <si>
     <t xml:space="preserve">0.9</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg % built pre-1960</t>
+    <t xml:space="preserve">Ratio to US avg Lead Paint Indicator</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg NPL</t>
+    <t xml:space="preserve">Ratio to US avg Superfund Proximity</t>
   </si>
   <si>
     <t xml:space="preserve">3.5</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg RMP</t>
+    <t xml:space="preserve">Ratio to US avg RMP Proximity</t>
   </si>
   <si>
     <t xml:space="preserve">4.8</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg TSDF</t>
+    <t xml:space="preserve">Ratio to US avg Hazardous Waste Proximity</t>
   </si>
   <si>
     <t xml:space="preserve">6.5</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg UST</t>
+    <t xml:space="preserve">Ratio to US avg Underground Storage Tanks indicator</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg NPDES</t>
+    <t xml:space="preserve">Ratio to US avg Wastewater Discharge Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to US avg Drinking Water Non-Compliance</t>
   </si>
   <si>
     <t xml:space="preserve">0.8</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg Drinking Water Non-Compliance</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ratio to US avg % with Disabilities</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg Low life expectancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to State avg Suppl Demog Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to State avg % Low-inc.</t>
+    <t xml:space="preserve">Ratio to US avg %Low life expectancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to State avg Demographic Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to State avg Supplemental EJ Index for Supplemental Demographic Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to State avg % Low Income</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to State avg % Limited English</t>
+    <t xml:space="preserve">Ratio to State avg % in limited English-speaking Households</t>
   </si>
   <si>
     <t xml:space="preserve">Ratio to State avg % Unemployed</t>
@@ -1625,49 +1628,49 @@
     <t xml:space="preserve">1.4</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to State avg % &lt; High School</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to State avg % &lt; age 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to State avg % &gt; age 64</t>
+    <t xml:space="preserve">Ratio to State avg % with Less Than High School Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to State avg % under Age 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to State avg % over Age 64</t>
   </si>
   <si>
     <t xml:space="preserve">Ratio to State avg % People of Color</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to State avg % Hispanic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to State avg % Black (NHA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to State avg % Asian (NHA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to State avg % American Indian Alaska Native (NHA)</t>
+    <t xml:space="preserve">Ratio to State avg % Hispanic or Latino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to State avg % Black or African American (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to State avg % Asian (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to State avg % American Indian and Alaska Native (non-Hispanic, single race)</t>
   </si>
   <si>
     <t xml:space="preserve">0.3</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to State avg % Native Hawaiian Pacific Islander (NHA)</t>
+    <t xml:space="preserve">Ratio to State avg % Native Hawaiian and Other Pacific Islander (non-Hispanic, single race)</t>
   </si>
   <si>
     <t xml:space="preserve">4.5</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to State avg % Other single race (NHA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to State avg % Two or more race (NH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to State avg % White nonHispanic single race</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to State avg PM2.5</t>
+    <t xml:space="preserve">Ratio to State avg % Other race (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to State avg % Two or more races (non-Hispanic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to State avg % White (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to State avg Particulate Matter</t>
   </si>
   <si>
     <t xml:space="preserve">Ratio to State avg Ozone</t>
@@ -1676,43 +1679,43 @@
     <t xml:space="preserve">Ratio to State avg Nitrogen Dioxide (NO2)</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to State avg Diesel PM</t>
+    <t xml:space="preserve">Ratio to State avg Diesel Particulate Matter</t>
   </si>
   <si>
     <t xml:space="preserve">Ratio to State avg Toxic Releases to Air</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to State avg Traffic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to State avg % built pre-1960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to State avg NPL</t>
+    <t xml:space="preserve">Ratio to State avg Traffic Proximity and Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to State avg Lead Paint Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to State avg Superfund Proximity</t>
   </si>
   <si>
     <t xml:space="preserve">3.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to State avg RMP</t>
+    <t xml:space="preserve">Ratio to State avg RMP Proximity</t>
   </si>
   <si>
     <t xml:space="preserve">2.3</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to State avg TSDF</t>
+    <t xml:space="preserve">Ratio to State avg Hazardous Waste Proximity</t>
   </si>
   <si>
     <t xml:space="preserve">3.9</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to State avg UST</t>
+    <t xml:space="preserve">Ratio to State avg Underground Storage Tanks indicator</t>
   </si>
   <si>
     <t xml:space="preserve">0.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to State avg NPDES</t>
+    <t xml:space="preserve">Ratio to State avg Wastewater Discharge Indicator</t>
   </si>
   <si>
     <t xml:space="preserve">Ratio to State avg Drinking Water Non-Compliance</t>
@@ -1721,7 +1724,7 @@
     <t xml:space="preserve">Ratio to State avg % with Disabilities</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to State avg Low life expectancy</t>
+    <t xml:space="preserve">Ratio to State avg %Low life expectancy</t>
   </si>
   <si>
     <t xml:space="preserve">1.71</t>
@@ -1931,13 +1934,13 @@
     <t xml:space="preserve">11</t>
   </si>
   <si>
-    <t xml:space="preserve">Percent of population with Disabilities (as shown near top of EJScreen report)</t>
+    <t xml:space="preserve">% with Disabilities</t>
   </si>
   <si>
     <t xml:space="preserve">18</t>
   </si>
   <si>
-    <t xml:space="preserve">Low life expectancy</t>
+    <t xml:space="preserve">%Low life expectancy</t>
   </si>
   <si>
     <t xml:space="preserve">23</t>
@@ -1979,9 +1982,6 @@
     <t xml:space="preserve">Per Capita Income</t>
   </si>
   <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
     <t xml:space="preserve">Percent Owner Occupied households</t>
   </si>
   <si>
@@ -1994,7 +1994,7 @@
     <t xml:space="preserve">63</t>
   </si>
   <si>
-    <t xml:space="preserve">US percentile for Supplemental Demographic Index</t>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Supplemental Demographic Index</t>
   </si>
   <si>
     <t xml:space="preserve">US percentile for % Low Income</t>
@@ -2072,94 +2072,97 @@
     <t xml:space="preserve">38</t>
   </si>
   <si>
-    <t xml:space="preserve">National Percentile of Persons with Disabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Percentile of Low Life Expectancy</t>
+    <t xml:space="preserve">US percentile for % with Disabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for %Low life expectancy</t>
   </si>
   <si>
     <t xml:space="preserve">1.34</t>
   </si>
   <si>
-    <t xml:space="preserve">US Average of Demographic Index</t>
+    <t xml:space="preserve">US Average for Demographic Index</t>
   </si>
   <si>
     <t xml:space="preserve">1.64</t>
   </si>
   <si>
-    <t xml:space="preserve">US Average of Supplemental Demographic Index</t>
+    <t xml:space="preserve">US Average for Supplemental EJ Index for Supplemental Demographic Index</t>
   </si>
   <si>
     <t xml:space="preserve">30</t>
   </si>
   <si>
-    <t xml:space="preserve">US average for % Low Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for % in limited English-speaking Households</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for % Unemployed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for % with Less Than High School Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for % under Age 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for % over Age 64</t>
+    <t xml:space="preserve">US Average for % Low Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for % in limited English-speaking Households</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for % Unemployed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for % with Less Than High School Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for % under Age 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for % over Age 64</t>
   </si>
   <si>
     <t xml:space="preserve">40</t>
   </si>
   <si>
-    <t xml:space="preserve">US average for % People of Color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US avg % Hispanic or Latino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US avg % Black or African American (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US avg % Asian (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US avg % American Indian and Alaska Native (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US avg % Native Hawaiian and Other Pacific Islander (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US avg % Other race (non-Hispanic, single race)</t>
+    <t xml:space="preserve">US Average for % People of Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for % Hispanic or Latino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for % Black or African American (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for % Asian (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for % American Indian and Alaska Native (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for % Native Hawaiian and Other Pacific Islander (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for % Other race (non-Hispanic, single race)</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">US avg % Two or more races (non-Hispanic)</t>
+    <t xml:space="preserve">US Average for % Two or more races (non-Hispanic)</t>
   </si>
   <si>
     <t xml:space="preserve">60</t>
   </si>
   <si>
-    <t xml:space="preserve">US avg % White (non-Hispanic, single race)</t>
+    <t xml:space="preserve">US Average for % White (non-Hispanic, single race)</t>
   </si>
   <si>
     <t xml:space="preserve">13.6</t>
   </si>
   <si>
-    <t xml:space="preserve">National Average % with Disabilities</t>
+    <t xml:space="preserve">US Average for % with Disabilities</t>
   </si>
   <si>
     <t xml:space="preserve">20</t>
   </si>
   <si>
-    <t xml:space="preserve">National Average of Low Life Expectancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Supplemental Demographic Index</t>
+    <t xml:space="preserve">US Average for %Low life expectancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Demographic Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Supplemental EJ Index for Supplemental Demographic Index</t>
   </si>
   <si>
     <t xml:space="preserve">59</t>
@@ -2204,535 +2207,532 @@
     <t xml:space="preserve">State percentile for % Asian (non-Hispanic, single race)</t>
   </si>
   <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
     <t xml:space="preserve">State percentile for % American Indian and Alaska Native (non-Hispanic, single race)</t>
   </si>
   <si>
     <t xml:space="preserve">State percentile for % Native Hawaiian and Other Pacific Islander (non-Hispanic, single race)</t>
   </si>
   <si>
+    <t xml:space="preserve">State percentile for % Other race (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % Two or more races (non-Hispanic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % White (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % with Disabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for %Low life expectancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Demographic Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Supplemental EJ Index for Supplemental Demographic Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % Low Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % in limited English-speaking Households</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % Unemployed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % with Less Than High School Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % under Age 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % over Age 64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % People of Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % Hispanic or Latino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % Black or African American (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % Asian (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % American Indian and Alaska Native (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % Native Hawaiian and Other Pacific Islander (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % Other race (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % Two or more races (non-Hispanic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % White (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % with Disabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for %Low life expectancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Particulate Matter (PM 2.5 in ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ozone (ppb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen Dioxide (NO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diesel Particulate Matter (ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toxic Releases to Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4328185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traffic Proximity and Volume (daily traffic count/distance to road)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead Paint Indicator (% pre-1960s housing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superfund Proximity (site count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMP Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hazardous Waste Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Underground Storage Tanks (UST) indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drinking Water Non-Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Particulate Matter (PM 2.5 in ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Ozone (ppb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Nitrogen Dioxide (NO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Diesel Particulate Matter (ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Toxic Releases to Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Traffic Proximity and Volume (daily traffic count/distance to road)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Lead Paint Indicator (% pre-1960s housing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Superfund Proximity (site count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for RMP Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Hazardous Waste Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Underground Storage Tanks (UST) indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Drinking Water Non-Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for Particulate Matter (PM 2.5 in ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for Ozone (ppb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for Nitrogen Dioxide (NO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for Diesel Particulate Matter (ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for Toxic Releases to Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1687230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for Traffic Proximity and Volume (daily traffic count/distance to road)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for Lead Paint Indicator (% pre-1960s housing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for Superfund Proximity (site count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for RMP Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for Hazardous Waste Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for Underground Storage Tanks (UST) indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for Drinking Water Non-Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Particulate Matter (PM 2.5 in ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Ozone (ppb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Nitrogen Dioxide (NO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Diesel Particulate Matter (ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Toxic Releases to Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Traffic Proximity and Volume (daily traffic count/distance to road)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Lead Paint Indicator (% pre-1960s housing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Superfund Proximity (site count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for RMP Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Hazardous Waste Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Underground Storage Tanks (UST) indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Drinking Water Non-Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Particulate Matter (PM 2.5 in ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Ozone (ppb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Nitrogen Dioxide (NO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Diesel Particulate Matter (ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Toxic Releases to Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2603011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Traffic Proximity and Volume (daily traffic count/distance to road)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Lead Paint Indicator (% pre-1960s housing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Superfund Proximity (site count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for RMP Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Hazardous Waste Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Underground Storage Tanks (UST) indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Drinking Water Non-Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Particulate Matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Ozone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Nitrogen Dioxide (NO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Diesel Particulate Matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Toxic Releases to Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Traffic Proximity and Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Lead Paint Indicator</t>
+  </si>
+  <si>
     <t xml:space="preserve">86</t>
   </si>
   <si>
-    <t xml:space="preserve">State percentile for % Other race (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % Two or more races (non-Hispanic)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % White (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Percentile of Persons with Disabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Low life expectancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average of Supplemental Demographic Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for % Low Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for % in limited English-speaking Households</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for % Unemployed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for % with Less Than High School Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for % under Age 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for % over Age 64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for % People of Color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State avg % Hispanic or Latino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State avg % Black or African American (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State avg % Asian (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State avg % American Indian and Alaska Native (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State avg % Native Hawaiian and Other Pacific Islander (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State avg % Other race (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State avg % Two or more races (non-Hispanic)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State avg % White (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average % with Disabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Low life expectancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Particulate Matter (PM 2.5 in ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ozone (ppb)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitrogen Dioxide (NO2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air Toxics Diesel Particulate Matter (ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toxic Releases to Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4328185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traffic Proximity and Volume (daily traffic count/distance to road)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lead Paint Indicator (% pre-1960s housing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superfund Proximity (site count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMP Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hazardous Waste Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Underground Storage Tanks (UST) indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drinking Water Non-Compliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Particulate Matter (PM 2.5 in ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Ozone (ppb)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Nitrogen Dioxide (NO2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Air Toxics Diesel Particulate Matter (ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Toxic Releases to Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Traffic Proximity and Volume (daily traffic count/distance to road)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Lead Paint Indicator (% pre-1960s housing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Superfund Proximity (site count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for RMP Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Hazardous Waste Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Underground Storage Tanks (UST) indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
+    <t xml:space="preserve">US percentile for EJ Index for Superfund Proximity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for RMP Proximity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Hazardous Waste Proximity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Underground Storage Tanks (UST) indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Wastewater Discharge Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Drinking Water Non-Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Particulate Matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Ozone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Nitrogen Dioxide (NO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Diesel Particulate Matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Toxic Releases to Air</t>
   </si>
   <si>
     <t xml:space="preserve">84</t>
   </si>
   <si>
-    <t xml:space="preserve">US percentile for Drinking Water Non-Compliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Particulate Matter (PM 2.5 in ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Ozone (ppb)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Nitrogen Dioxide (NO2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Air Toxics Diesel Particulate Matter (ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US avg Toxic Releases to Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1687230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Traffic Proximity and Volume (daily traffic count/distance to road)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Lead Paint Indicator (% pre-1960s housing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Superfund Proximity (site count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for RMP Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Hazardous Waste Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Underground Storage Tanks (UST) indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">701805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Drinking Water Non-Compliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Particulate Matter (PM 2.5 in ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Ozone (ppb)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Nitrogen Dioxide (NO2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Air Toxics Diesel Particulate Matter (ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Toxic Releases to Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Traffic Proximity and Volume (daily traffic count/distance to road)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Lead Paint Indicator (% pre-1960s housing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Superfund Proximity (site count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for RMP Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Hazardous Waste Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Underground Storage Tanks (UST) indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Drinking Water Non-Compliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Particulate Matter (PM 2.5 in ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Ozone (ppb)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Nitrogen Dioxide (NO2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Air Toxics Diesel Particulate Matter (ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State avg Toxic Releases to Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2603011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Traffic Proximity and Volume (daily traffic count/distance to road)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Lead Paint Indicator (% pre-1960s housing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Superfund Proximity (site count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for RMP Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Hazardous Waste Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Underground Storage Tanks (UST) indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Drinking Water Non-Compliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Particulate Matter (PM 2.5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Ozone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Nitrogen Dioxide (NO2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Air Toxics Diesel Particulate Matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Toxic Releases to Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Traffic Proximity and Volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Lead Paint Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Superfund Proximity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for RMP Proximity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Hazardous Waste Proximity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Underground Storage Tanks (UST) indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Wastewater Discharge Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Drinking Water Non-Compliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Supplemental Index for Particulate Matter (PM 2.5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Supplemental Index for Ozone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Supplemental Index for Nitrogen Dioxide (NO2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Supplemental Index for Air Toxics Diesel Particulate Matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Percentile for Toxic Releases to Air Supplemental Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Supplemental Index for Traffic Proximity and Volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Supplemental Index for Lead Paint Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Supplemental Index for Superfund Proximity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Supplemental Index for RMP Proximity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Supplemental Index for Hazardous Waste Proximity</t>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Traffic Proximity and Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Lead Paint Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Superfund Proximity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for RMP Proximity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Hazardous Waste Proximity</t>
   </si>
   <si>
     <t xml:space="preserve">68</t>
   </si>
   <si>
-    <t xml:space="preserve">US percentile for EJ Supplemental Index for Underground Storage Tanks (UST) indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Supplemental Index for Wastewater Discharge Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Supplemental Index for Drinking Water Non-Compliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for EJ Index for Particulate Matter (PM 2.5)</t>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Underground Storage Tanks (UST) indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Wastewater Discharge Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Drinking Water Non-Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for EJ Index for Particulate Matter</t>
   </si>
   <si>
     <t xml:space="preserve">State percentile for EJ Index for Ozone</t>
@@ -2741,7 +2741,7 @@
     <t xml:space="preserve">State percentile for EJ Index for Nitrogen Dioxide (NO2)</t>
   </si>
   <si>
-    <t xml:space="preserve">State percentile for EJ Index for Air Toxics Diesel Particulate Matter</t>
+    <t xml:space="preserve">State percentile for EJ Index for Diesel Particulate Matter</t>
   </si>
   <si>
     <t xml:space="preserve">State percentile for EJ Index for Toxic Releases to Air</t>
@@ -2780,43 +2780,43 @@
     <t xml:space="preserve">State percentile for EJ Index for Drinking Water Non-Compliance</t>
   </si>
   <si>
-    <t xml:space="preserve">State percentile for EJ Supplemental Index for Particulate Matter (PM 2.5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for EJ Supplemental Index for Ozone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for EJ Supplemental Index for Nitrogen Dioxide (NO2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for EJ Supplemental Index for Air Toxics Diesel Particulate Matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Percentile for Toxic Releases to Air Supplemental Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for EJ Supplemental Index for Traffic Proximity and Volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for EJ Supplemental Index for Lead Paint Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for EJ Supplemental Index for Superfund Proximity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for EJ Supplemental Index for RMP Proximity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for EJ Supplemental Index for Hazardous Waste Proximity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for EJ Supplemental Index for Underground Storage Tanks (UST) indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for EJ Supplemental Index for Wastewater Discharge Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for EJ Supplemental Index for Drinking Water Non-Compliance</t>
+    <t xml:space="preserve">State percentile for Supplemental EJ Index for Particulate Matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Supplemental EJ Index for Ozone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Supplemental EJ Index for Nitrogen Dioxide (NO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Supplemental EJ Index for Diesel Particulate Matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Supplemental EJ Index for Toxic Releases to Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Supplemental EJ Index for Traffic Proximity and Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Supplemental EJ Index for Lead Paint Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Supplemental EJ Index for Superfund Proximity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Supplemental EJ Index for RMP Proximity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Supplemental EJ Index for Hazardous Waste Proximity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Supplemental EJ Index for Underground Storage Tanks (UST) indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Supplemental EJ Index for Wastewater Discharge Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Supplemental EJ Index for Drinking Water Non-Compliance</t>
   </si>
   <si>
     <t xml:space="preserve">52030</t>
@@ -3044,313 +3044,313 @@
     <t xml:space="preserve">117.312</t>
   </si>
   <si>
-    <t xml:space="preserve">Particulate Matter 2.5 EJ Index</t>
+    <t xml:space="preserve">US type of raw score for Particulate Matter EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">121.441</t>
   </si>
   <si>
-    <t xml:space="preserve">Ozone EJ Index</t>
+    <t xml:space="preserve">US type of raw score for Ozone EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">147.75</t>
   </si>
   <si>
-    <t xml:space="preserve">Nitrogen Dioxide (NO2) EJ Index</t>
+    <t xml:space="preserve">US type of raw score for Nitrogen Dioxide (NO2) EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">153.513</t>
   </si>
   <si>
-    <t xml:space="preserve">Diesel particulate matter EJ Index</t>
+    <t xml:space="preserve">US type of raw score for Diesel Particulate Matter EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">114.724</t>
   </si>
   <si>
-    <t xml:space="preserve">Toxic Releases to Air EJ Index</t>
+    <t xml:space="preserve">US type of raw score for Toxic Releases to Air EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">141.447</t>
   </si>
   <si>
-    <t xml:space="preserve">US raw Traffic proximity EJ Index</t>
+    <t xml:space="preserve">US type of raw score for Traffic Proximity and Volume EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">91.88</t>
   </si>
   <si>
-    <t xml:space="preserve">Lead paint EJ Index</t>
+    <t xml:space="preserve">US type of raw score for Lead Paint EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">145.606</t>
   </si>
   <si>
-    <t xml:space="preserve">US raw Superfund Proximity EJ Index</t>
+    <t xml:space="preserve">US type of raw score for Superfund Proximity EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">139.698</t>
   </si>
   <si>
-    <t xml:space="preserve">RMP Facility Proximity EJ Index</t>
+    <t xml:space="preserve">US type of raw score for RMP Proximity EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">152.021</t>
   </si>
   <si>
-    <t xml:space="preserve">Hazardous waste proximity EJ Index</t>
+    <t xml:space="preserve">US type of raw score for Hazardous Waste Proximity EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">92.452</t>
   </si>
   <si>
-    <t xml:space="preserve">US raw Underground storage tanks EJ Index</t>
+    <t xml:space="preserve">US type of raw score for Underground Storage Tanks EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">109.501</t>
   </si>
   <si>
-    <t xml:space="preserve">US raw Wastewater discharge EJ Index</t>
+    <t xml:space="preserve">US type of raw score for Wastewater Discharge EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">10.825</t>
   </si>
   <si>
-    <t xml:space="preserve">Drinking Water Non-Compliance EJ Index</t>
+    <t xml:space="preserve">US type of raw score for Drinking Water Non-Compliance EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">142.892</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Particulate Matter 2.5 EJ Index</t>
+    <t xml:space="preserve">State type of raw score for Particulate Matter EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">110.472</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Ozone EJ Index</t>
+    <t xml:space="preserve">State type of raw score for Ozone EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">154.348</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Nitrogen Dioxide (NO2) EJ Index</t>
+    <t xml:space="preserve">State type of raw score for Nitrogen Dioxide (NO2) EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">158.451</t>
   </si>
   <si>
-    <t xml:space="preserve">State Diesel particulate matter EJ Index</t>
+    <t xml:space="preserve">State type of raw score for Diesel Particulate Matter EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">149.919</t>
   </si>
   <si>
-    <t xml:space="preserve">State Toxic Releases to Air EJ Index</t>
+    <t xml:space="preserve">State type of raw score for Toxic Releases to Air EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">146.261</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Traffic proximity EJ Index</t>
+    <t xml:space="preserve">State type of raw score for Traffic Proximity and Volume EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">85.508</t>
   </si>
   <si>
-    <t xml:space="preserve">State Lead paint EJ Index</t>
+    <t xml:space="preserve">State type of raw score for Lead Paint EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">143.983</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Superfund Proximity EJ Index</t>
+    <t xml:space="preserve">State type of raw score for Superfund Proximity EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">162.213</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw RMP Facility Proximity EJ Index</t>
+    <t xml:space="preserve">State type of raw score for RMP Proximity EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">156.911</t>
   </si>
   <si>
-    <t xml:space="preserve">State Hazardous waste proximity EJ Index</t>
+    <t xml:space="preserve">State type of raw score for Hazardous Waste Proximity EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">94.797</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Underground storage tanks EJ Index</t>
+    <t xml:space="preserve">State type of raw score for Underground Storage Tanks EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">108.36</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Wastewater discharge EJ Index</t>
+    <t xml:space="preserve">State type of raw score for Wastewater Discharge EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">12.691</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Drinking Water Non-Compliance EJ Index</t>
+    <t xml:space="preserve">State type of raw score for Drinking Water Non-Compliance EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">117.153</t>
   </si>
   <si>
-    <t xml:space="preserve">Particulate Matter 2.5 Supplemental Index</t>
+    <t xml:space="preserve">US type of raw score for Particulate Matter Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">122.523</t>
   </si>
   <si>
-    <t xml:space="preserve">Ozone Supplemental Index</t>
+    <t xml:space="preserve">US type of raw score for Ozone Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">152.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Nitrogen Dioxide (NO2) Supplemental Index</t>
+    <t xml:space="preserve">US type of raw score for Nitrogen Dioxide (NO2) Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">157.202</t>
   </si>
   <si>
-    <t xml:space="preserve">Diesel Particulate Matter Supplemental Index</t>
+    <t xml:space="preserve">US type of raw score for Diesel Particulate Matter Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">119.338</t>
   </si>
   <si>
-    <t xml:space="preserve">EJ Supp: Toxic Releases to Air (raw)</t>
+    <t xml:space="preserve">US type of raw score for Toxic Releases to Air Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">144.478</t>
   </si>
   <si>
-    <t xml:space="preserve">Traffic Proximity Supplemental Index</t>
+    <t xml:space="preserve">US type of raw score for Traffic Proximity and Volume Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">95.278</t>
   </si>
   <si>
-    <t xml:space="preserve">Lead Paint Supplemental Index</t>
+    <t xml:space="preserve">US type of raw score for Lead Paint Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">147.302</t>
   </si>
   <si>
-    <t xml:space="preserve">Superfund Proximity Supplemental Index</t>
+    <t xml:space="preserve">US type of raw score for Superfund Proximity Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">142.706</t>
   </si>
   <si>
-    <t xml:space="preserve">RMP Facility Proximity Supplemental Index</t>
+    <t xml:space="preserve">US type of raw score for RMP Proximity Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">155.08</t>
   </si>
   <si>
-    <t xml:space="preserve">Hazardous Waste Proximity Supplemental Index</t>
+    <t xml:space="preserve">US type of raw score for Hazardous Waste Proximity Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">103.231</t>
   </si>
   <si>
-    <t xml:space="preserve">Underground Storage Tanks Supplemental Index</t>
+    <t xml:space="preserve">US type of raw score for Underground Storage Tanks Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">114.04</t>
   </si>
   <si>
-    <t xml:space="preserve">Wastewater Discharge Supplemental Index</t>
+    <t xml:space="preserve">US type of raw score for Wastewater Discharge Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">14.414</t>
   </si>
   <si>
-    <t xml:space="preserve">Drinking Water Non-Compliance Supplemental Index</t>
+    <t xml:space="preserve">US type of raw score for Drinking Water Non-Compliance Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">131.09</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Particulate Matter 2.5 Supplemental Index</t>
+    <t xml:space="preserve">State type of raw score for Particulate Matter Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">100.312</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Ozone Supplemental Index</t>
+    <t xml:space="preserve">State type of raw score for Ozone Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">139.762</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Nitrogen Dioxide (NO2) Supplemental Index</t>
+    <t xml:space="preserve">State type of raw score for Nitrogen Dioxide (NO2) Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">143.106</t>
   </si>
   <si>
-    <t xml:space="preserve">State Diesel particulate matter Supplemental Index</t>
+    <t xml:space="preserve">State type of raw score for Diesel Particulate Matter Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">135.386</t>
   </si>
   <si>
-    <t xml:space="preserve">State Toxic Releases to Air Supplemental Index</t>
+    <t xml:space="preserve">State type of raw score for Toxic Releases to Air Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">133.632</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Traffic proximity Supplemental Index</t>
+    <t xml:space="preserve">State type of raw score for Traffic Proximity and Volume Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">74.151</t>
   </si>
   <si>
-    <t xml:space="preserve">State Lead paint Supplemental Index</t>
+    <t xml:space="preserve">State type of raw score for Lead Paint Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">128.183</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Superfund Proximity Supplemental Index</t>
+    <t xml:space="preserve">State type of raw score for Superfund Proximity Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">144.944</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw RMP Facility Proximity Supplemental Index</t>
+    <t xml:space="preserve">State type of raw score for RMP Proximity Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">141.488</t>
   </si>
   <si>
-    <t xml:space="preserve">State Hazardous waste proximity Supplemental Index</t>
+    <t xml:space="preserve">State type of raw score for Hazardous Waste Proximity Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">98.275</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Underground storage tanks Supplemental Index</t>
+    <t xml:space="preserve">State type of raw score for Underground Storage Tanks Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">100.185</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Wastewater discharge Supplemental Index</t>
+    <t xml:space="preserve">State type of raw score for Wastewater Discharge Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">14.286</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Drinking Water Non-Compliance Supplemental Index</t>
+    <t xml:space="preserve">State type of raw score for Drinking Water Non-Compliance Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">EJScreen Report 1</t>
@@ -4003,23 +4003,134 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10" outlineLevelCol="2"/>
   <cols>
+    <col min="100" max="100" width="6.71" hidden="0" customWidth="1"/>
+    <col min="101" max="101" width="6.71" hidden="0" customWidth="1"/>
+    <col min="102" max="102" width="6.71" hidden="0" customWidth="1"/>
+    <col min="103" max="103" width="6.71" hidden="0" customWidth="1"/>
+    <col min="104" max="104" width="6.71" hidden="0" customWidth="1"/>
+    <col min="105" max="105" width="6.71" hidden="0" customWidth="1"/>
+    <col min="106" max="106" width="6.71" hidden="0" customWidth="1"/>
+    <col min="107" max="107" width="6.71" hidden="0" customWidth="1"/>
+    <col min="108" max="108" width="6.71" hidden="0" customWidth="1"/>
+    <col min="109" max="109" width="6.71" hidden="0" customWidth="1"/>
+    <col min="110" max="110" width="6.71" hidden="0" customWidth="1"/>
+    <col min="111" max="111" width="6.71" hidden="0" customWidth="1"/>
+    <col min="112" max="112" width="6.71" hidden="0" customWidth="1"/>
+    <col min="113" max="113" width="6.71" hidden="0" customWidth="1"/>
+    <col min="114" max="114" width="6.71" hidden="0" customWidth="1"/>
+    <col min="115" max="115" width="6.71" hidden="0" customWidth="1"/>
+    <col min="116" max="116" width="6.71" hidden="0" customWidth="1"/>
+    <col min="117" max="117" width="6.71" hidden="0" customWidth="1"/>
+    <col min="118" max="118" width="6.71" hidden="0" customWidth="1"/>
+    <col min="119" max="119" width="6.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="6.71" hidden="0" customWidth="1"/>
+    <col min="120" max="120" width="6.71" hidden="0" customWidth="1"/>
+    <col min="121" max="121" width="6.71" hidden="0" customWidth="1"/>
+    <col min="122" max="122" width="6.71" hidden="0" customWidth="1"/>
+    <col min="123" max="123" width="6.71" hidden="0" customWidth="1"/>
+    <col min="124" max="124" width="6.71" hidden="0" customWidth="1"/>
+    <col min="125" max="125" width="6.71" hidden="0" customWidth="1"/>
+    <col min="126" max="126" width="6.71" hidden="0" customWidth="1"/>
+    <col min="127" max="127" width="6.71" hidden="0" customWidth="1"/>
+    <col min="128" max="128" width="6.71" hidden="0" customWidth="1"/>
+    <col min="129" max="129" width="6.71" hidden="0" customWidth="1"/>
     <col min="13" max="13" width="6.71" hidden="0" customWidth="1"/>
+    <col min="130" max="130" width="6.71" hidden="0" customWidth="1"/>
+    <col min="131" max="131" width="6.71" hidden="0" customWidth="1"/>
+    <col min="132" max="132" width="6.71" hidden="0" customWidth="1"/>
+    <col min="133" max="133" width="6.71" hidden="0" customWidth="1"/>
+    <col min="134" max="134" width="6.71" hidden="0" customWidth="1"/>
+    <col min="135" max="135" width="6.71" hidden="0" customWidth="1"/>
+    <col min="136" max="136" width="6.71" hidden="0" customWidth="1"/>
+    <col min="137" max="137" width="6.71" hidden="0" customWidth="1"/>
+    <col min="138" max="138" width="6.71" hidden="0" customWidth="1"/>
+    <col min="139" max="139" width="6.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="6.71" hidden="0" customWidth="1"/>
+    <col min="140" max="140" width="6.71" hidden="0" customWidth="1"/>
+    <col min="141" max="141" width="6.71" hidden="0" customWidth="1"/>
+    <col min="142" max="142" width="6.71" hidden="0" customWidth="1"/>
+    <col min="143" max="143" width="6.71" hidden="0" customWidth="1"/>
+    <col min="144" max="144" width="6.71" hidden="0" customWidth="1"/>
+    <col min="145" max="145" width="6.71" hidden="0" customWidth="1"/>
+    <col min="146" max="146" width="6.71" hidden="0" customWidth="1"/>
+    <col min="147" max="147" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="148" max="148" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="149" max="149" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
     <col min="15" max="15" width="6.71" hidden="0" customWidth="1"/>
+    <col min="150" max="150" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="151" max="151" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="152" max="152" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="153" max="153" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="154" max="154" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="155" max="155" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="156" max="156" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="157" max="157" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="158" max="158" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="159" max="159" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
     <col min="16" max="16" width="6.71" hidden="0" customWidth="1"/>
+    <col min="160" max="160" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="161" max="161" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="162" max="162" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="163" max="163" outlineLevel="2" hidden="1"/>
+    <col min="164" max="164" outlineLevel="2" hidden="1"/>
+    <col min="165" max="165" outlineLevel="2" hidden="1"/>
     <col min="17" max="17" width="6.71" hidden="0" customWidth="1"/>
     <col min="18" max="18" width="6.71" hidden="0" customWidth="1"/>
+    <col min="185" max="185" outlineLevel="2" hidden="1"/>
+    <col min="186" max="186" outlineLevel="2" hidden="1"/>
+    <col min="187" max="187" outlineLevel="2" hidden="1"/>
+    <col min="188" max="188" outlineLevel="2" hidden="1"/>
+    <col min="189" max="189" outlineLevel="2" hidden="1"/>
     <col min="19" max="19" width="6.71" hidden="0" customWidth="1"/>
+    <col min="190" max="190" outlineLevel="2" hidden="1"/>
+    <col min="191" max="191" outlineLevel="2" hidden="1"/>
+    <col min="192" max="192" outlineLevel="2" hidden="1"/>
+    <col min="193" max="193" outlineLevel="2" hidden="1"/>
+    <col min="194" max="194" outlineLevel="2" hidden="1"/>
+    <col min="195" max="195" outlineLevel="2" hidden="1"/>
+    <col min="196" max="196" outlineLevel="2" hidden="1"/>
+    <col min="197" max="197" outlineLevel="2" hidden="1"/>
+    <col min="198" max="198" outlineLevel="2" hidden="1"/>
+    <col min="199" max="199" outlineLevel="2" hidden="1"/>
     <col min="20" max="20" width="6.71" hidden="0" customWidth="1"/>
+    <col min="200" max="200" outlineLevel="2" hidden="1"/>
+    <col min="201" max="201" outlineLevel="2" hidden="1"/>
+    <col min="202" max="202" outlineLevel="2" hidden="1"/>
+    <col min="203" max="203" outlineLevel="2" hidden="1"/>
     <col min="21" max="21" width="6.71" hidden="0" customWidth="1"/>
     <col min="22" max="22" width="6.71" hidden="0" customWidth="1"/>
     <col min="23" max="23" width="6.71" hidden="0" customWidth="1"/>
+    <col min="230" max="230" outlineLevel="2" hidden="1"/>
+    <col min="231" max="231" outlineLevel="2" hidden="1"/>
+    <col min="232" max="232" outlineLevel="2" hidden="1"/>
+    <col min="233" max="233" outlineLevel="2" hidden="1"/>
+    <col min="234" max="234" outlineLevel="2" hidden="1"/>
+    <col min="235" max="235" outlineLevel="2" hidden="1"/>
+    <col min="236" max="236" outlineLevel="2" hidden="1"/>
+    <col min="237" max="237" outlineLevel="2" hidden="1"/>
+    <col min="238" max="238" outlineLevel="2" hidden="1"/>
+    <col min="239" max="239" outlineLevel="2" hidden="1"/>
     <col min="24" max="24" width="6.71" hidden="0" customWidth="1"/>
+    <col min="240" max="240" outlineLevel="2" hidden="1"/>
+    <col min="241" max="241" outlineLevel="2" hidden="1"/>
+    <col min="242" max="242" outlineLevel="2" hidden="1"/>
     <col min="25" max="25" width="6.71" hidden="0" customWidth="1"/>
+    <col min="256" max="256" outlineLevel="2" hidden="1"/>
+    <col min="257" max="257" outlineLevel="2" hidden="1"/>
+    <col min="258" max="258" outlineLevel="2" hidden="1"/>
+    <col min="259" max="259" outlineLevel="2" hidden="1"/>
     <col min="26" max="26" width="6.71" hidden="0" customWidth="1"/>
+    <col min="260" max="260" outlineLevel="2" hidden="1"/>
+    <col min="261" max="261" outlineLevel="2" hidden="1"/>
+    <col min="262" max="262" outlineLevel="2" hidden="1"/>
+    <col min="263" max="263" outlineLevel="2" hidden="1"/>
+    <col min="264" max="264" outlineLevel="2" hidden="1"/>
+    <col min="265" max="265" outlineLevel="2" hidden="1"/>
+    <col min="266" max="266" outlineLevel="2" hidden="1"/>
+    <col min="267" max="267" outlineLevel="2" hidden="1"/>
+    <col min="268" max="268" outlineLevel="2" hidden="1"/>
     <col min="27" max="27" width="6.71" hidden="0" customWidth="1"/>
     <col min="28" max="28" width="6.71" hidden="0" customWidth="1"/>
     <col min="29" max="29" width="6.71" hidden="0" customWidth="1"/>
@@ -4093,117 +4204,6 @@
     <col min="97" max="97" width="6.71" hidden="0" customWidth="1"/>
     <col min="98" max="98" width="6.71" hidden="0" customWidth="1"/>
     <col min="99" max="99" width="6.71" hidden="0" customWidth="1"/>
-    <col min="100" max="100" width="6.71" hidden="0" customWidth="1"/>
-    <col min="101" max="101" width="6.71" hidden="0" customWidth="1"/>
-    <col min="102" max="102" width="6.71" hidden="0" customWidth="1"/>
-    <col min="103" max="103" width="6.71" hidden="0" customWidth="1"/>
-    <col min="104" max="104" width="6.71" hidden="0" customWidth="1"/>
-    <col min="105" max="105" width="6.71" hidden="0" customWidth="1"/>
-    <col min="106" max="106" width="6.71" hidden="0" customWidth="1"/>
-    <col min="107" max="107" width="6.71" hidden="0" customWidth="1"/>
-    <col min="108" max="108" width="6.71" hidden="0" customWidth="1"/>
-    <col min="109" max="109" width="6.71" hidden="0" customWidth="1"/>
-    <col min="110" max="110" width="6.71" hidden="0" customWidth="1"/>
-    <col min="111" max="111" width="6.71" hidden="0" customWidth="1"/>
-    <col min="112" max="112" width="6.71" hidden="0" customWidth="1"/>
-    <col min="113" max="113" width="6.71" hidden="0" customWidth="1"/>
-    <col min="114" max="114" width="6.71" hidden="0" customWidth="1"/>
-    <col min="115" max="115" width="6.71" hidden="0" customWidth="1"/>
-    <col min="116" max="116" width="6.71" hidden="0" customWidth="1"/>
-    <col min="117" max="117" width="6.71" hidden="0" customWidth="1"/>
-    <col min="118" max="118" width="6.71" hidden="0" customWidth="1"/>
-    <col min="119" max="119" width="6.71" hidden="0" customWidth="1"/>
-    <col min="120" max="120" width="6.71" hidden="0" customWidth="1"/>
-    <col min="121" max="121" width="6.71" hidden="0" customWidth="1"/>
-    <col min="122" max="122" width="6.71" hidden="0" customWidth="1"/>
-    <col min="123" max="123" width="6.71" hidden="0" customWidth="1"/>
-    <col min="124" max="124" width="6.71" hidden="0" customWidth="1"/>
-    <col min="125" max="125" width="6.71" hidden="0" customWidth="1"/>
-    <col min="126" max="126" width="6.71" hidden="0" customWidth="1"/>
-    <col min="127" max="127" width="6.71" hidden="0" customWidth="1"/>
-    <col min="128" max="128" width="6.71" hidden="0" customWidth="1"/>
-    <col min="129" max="129" width="6.71" hidden="0" customWidth="1"/>
-    <col min="130" max="130" width="6.71" hidden="0" customWidth="1"/>
-    <col min="131" max="131" width="6.71" hidden="0" customWidth="1"/>
-    <col min="132" max="132" width="6.71" hidden="0" customWidth="1"/>
-    <col min="133" max="133" width="6.71" hidden="0" customWidth="1"/>
-    <col min="134" max="134" width="6.71" hidden="0" customWidth="1"/>
-    <col min="135" max="135" width="6.71" hidden="0" customWidth="1"/>
-    <col min="136" max="136" width="6.71" hidden="0" customWidth="1"/>
-    <col min="137" max="137" width="6.71" hidden="0" customWidth="1"/>
-    <col min="138" max="138" width="6.71" hidden="0" customWidth="1"/>
-    <col min="139" max="139" width="6.71" hidden="0" customWidth="1"/>
-    <col min="140" max="140" width="6.71" hidden="0" customWidth="1"/>
-    <col min="141" max="141" width="6.71" hidden="0" customWidth="1"/>
-    <col min="142" max="142" width="6.71" hidden="0" customWidth="1"/>
-    <col min="143" max="143" width="6.71" hidden="0" customWidth="1"/>
-    <col min="144" max="144" width="6.71" hidden="0" customWidth="1"/>
-    <col min="145" max="145" width="6.71" hidden="0" customWidth="1"/>
-    <col min="146" max="146" width="6.71" hidden="0" customWidth="1"/>
-    <col min="147" max="147" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="148" max="148" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="149" max="149" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="150" max="150" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="151" max="151" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="152" max="152" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="153" max="153" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="154" max="154" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="155" max="155" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="156" max="156" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="157" max="157" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="158" max="158" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="159" max="159" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="160" max="160" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="161" max="161" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="162" max="162" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="163" max="163" outlineLevel="1" hidden="1"/>
-    <col min="164" max="164" outlineLevel="1" hidden="1"/>
-    <col min="165" max="165" outlineLevel="1" hidden="1"/>
-    <col min="185" max="185" outlineLevel="1" hidden="1"/>
-    <col min="186" max="186" outlineLevel="1" hidden="1"/>
-    <col min="187" max="187" outlineLevel="1" hidden="1"/>
-    <col min="188" max="188" outlineLevel="1" hidden="1"/>
-    <col min="189" max="189" outlineLevel="1" hidden="1"/>
-    <col min="190" max="190" outlineLevel="1" hidden="1"/>
-    <col min="191" max="191" outlineLevel="1" hidden="1"/>
-    <col min="192" max="192" outlineLevel="1" hidden="1"/>
-    <col min="193" max="193" outlineLevel="1" hidden="1"/>
-    <col min="194" max="194" outlineLevel="1" hidden="1"/>
-    <col min="195" max="195" outlineLevel="1" hidden="1"/>
-    <col min="196" max="196" outlineLevel="1" hidden="1"/>
-    <col min="197" max="197" outlineLevel="1" hidden="1"/>
-    <col min="198" max="198" outlineLevel="1" hidden="1"/>
-    <col min="199" max="199" outlineLevel="1" hidden="1"/>
-    <col min="200" max="200" outlineLevel="1" hidden="1"/>
-    <col min="201" max="201" outlineLevel="1" hidden="1"/>
-    <col min="202" max="202" outlineLevel="1" hidden="1"/>
-    <col min="203" max="203" outlineLevel="1" hidden="1"/>
-    <col min="230" max="230" outlineLevel="1" hidden="1"/>
-    <col min="231" max="231" outlineLevel="1" hidden="1"/>
-    <col min="232" max="232" outlineLevel="1" hidden="1"/>
-    <col min="233" max="233" outlineLevel="1" hidden="1"/>
-    <col min="234" max="234" outlineLevel="1" hidden="1"/>
-    <col min="235" max="235" outlineLevel="1" hidden="1"/>
-    <col min="236" max="236" outlineLevel="1" hidden="1"/>
-    <col min="237" max="237" outlineLevel="1" hidden="1"/>
-    <col min="238" max="238" outlineLevel="1" hidden="1"/>
-    <col min="239" max="239" outlineLevel="1" hidden="1"/>
-    <col min="240" max="240" outlineLevel="1" hidden="1"/>
-    <col min="241" max="241" outlineLevel="1" hidden="1"/>
-    <col min="242" max="242" outlineLevel="1" hidden="1"/>
-    <col min="256" max="256" outlineLevel="1" hidden="1"/>
-    <col min="257" max="257" outlineLevel="1" hidden="1"/>
-    <col min="258" max="258" outlineLevel="1" hidden="1"/>
-    <col min="259" max="259" outlineLevel="1" hidden="1"/>
-    <col min="260" max="260" outlineLevel="1" hidden="1"/>
-    <col min="261" max="261" outlineLevel="1" hidden="1"/>
-    <col min="262" max="262" outlineLevel="1" hidden="1"/>
-    <col min="263" max="263" outlineLevel="1" hidden="1"/>
-    <col min="264" max="264" outlineLevel="1" hidden="1"/>
-    <col min="265" max="265" outlineLevel="1" hidden="1"/>
-    <col min="266" max="266" outlineLevel="1" hidden="1"/>
-    <col min="267" max="267" outlineLevel="1" hidden="1"/>
-    <col min="268" max="268" outlineLevel="1" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="175" customHeight="1">
@@ -4334,7 +4334,7 @@
         <v>523</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AR1" s="4" t="s">
         <v>526</v>
@@ -4346,244 +4346,244 @@
         <v>528</v>
       </c>
       <c r="AU1" s="6" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AV1" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AW1" s="6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AX1" s="6" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AY1" s="6" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AZ1" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="BA1" s="6" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="BB1" s="6" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="BC1" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="BD1" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="BE1" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="BF1" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="BG1" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="BH1" s="6" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="BI1" s="6" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="BJ1" s="6" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="BK1" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="BL1" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="BM1" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="BN1" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="BO1" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="BP1" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="BQ1" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="BR1" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="BS1" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="BT1" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="BU1" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="BV1" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="BW1" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="BX1" s="6" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="BY1" s="6" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="BZ1" s="8" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="CA1" s="8" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="CB1" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="CC1" s="8" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CD1" s="8" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="CE1" s="8" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="CF1" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="CG1" s="8" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="CH1" s="8" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="CI1" s="8" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="CJ1" s="8" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="CK1" s="8" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="CL1" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="CM1" s="8" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="CN1" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="CO1" s="8" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="CP1" s="8" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="CQ1" s="8" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="CR1" s="8" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="CS1" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="CT1" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="CU1" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="CV1" s="9" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="CW1" s="9" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="CX1" s="8" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="CY1" s="8" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="CZ1" s="8" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="DA1" s="8" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="DB1" s="8" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="DC1" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="DD1" s="8" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="DE1" s="8" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="DF1" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="DG1" s="8" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="DH1" s="8" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="DI1" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="DJ1" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="DK1" s="8" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="DL1" s="8" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="DM1" s="8" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="DN1" s="8" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="DO1" s="8" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="DP1" s="9" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="DQ1" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="DR1" s="8" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="DS1" s="9" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="DT1" s="9" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="DU1" s="9" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="DV1" s="9" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="DW1" s="8" t="s">
         <v>653</v>
@@ -4706,151 +4706,151 @@
         <v>712</v>
       </c>
       <c r="FK1" s="12" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="FL1" s="12" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="FM1" s="12" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="FN1" s="12" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="FO1" s="12" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="FP1" s="12" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="FQ1" s="12" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="FR1" s="12" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="FS1" s="12" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="FT1" s="12" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="FU1" s="12" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="FV1" s="12" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="FW1" s="12" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="FX1" s="12" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="FY1" s="12" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="FZ1" s="12" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="GA1" s="12" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="GB1" s="12" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="GC1" s="8" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="GD1" s="8" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="GE1" s="8" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="GF1" s="8" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="GG1" s="8" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="GH1" s="8" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="GI1" s="8" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="GJ1" s="8" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="GK1" s="8" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="GL1" s="8" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="GM1" s="8" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="GN1" s="8" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="GO1" s="8" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="GP1" s="8" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="GQ1" s="8" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="GR1" s="8" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="GS1" s="8" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="GT1" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="GU1" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="GV1" s="13" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="GW1" s="13" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="GX1" s="13" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="GY1" s="13" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="GZ1" s="13" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="HA1" s="13" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="HB1" s="13" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="HC1" s="13" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="HD1" s="13" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="HE1" s="13" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="HF1" s="13" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="HG1" s="13" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="HH1" s="13" t="s">
         <v>784</v>
@@ -4892,178 +4892,178 @@
         <v>801</v>
       </c>
       <c r="HU1" s="14" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="HV1" s="15" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="HW1" s="15" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="HX1" s="15" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="HY1" s="15" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="HZ1" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="IA1" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="IB1" s="15" t="s">
         <v>815</v>
       </c>
-      <c r="IB1" s="15" t="s">
-        <v>816</v>
-      </c>
       <c r="IC1" s="15" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="ID1" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="IE1" s="15" t="s">
         <v>820</v>
       </c>
-      <c r="IE1" s="15" t="s">
-        <v>821</v>
-      </c>
       <c r="IF1" s="15" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="IG1" s="15" t="s">
+        <v>824</v>
+      </c>
+      <c r="IH1" s="15" t="s">
         <v>825</v>
       </c>
-      <c r="IH1" s="15" t="s">
+      <c r="II1" s="16" t="s">
         <v>826</v>
       </c>
-      <c r="II1" s="16" t="s">
-        <v>827</v>
-      </c>
       <c r="IJ1" s="16" t="s">
+        <v>828</v>
+      </c>
+      <c r="IK1" s="16" t="s">
         <v>829</v>
       </c>
-      <c r="IK1" s="16" t="s">
+      <c r="IL1" s="16" t="s">
         <v>830</v>
       </c>
-      <c r="IL1" s="16" t="s">
+      <c r="IM1" s="16" t="s">
         <v>831</v>
       </c>
-      <c r="IM1" s="16" t="s">
+      <c r="IN1" s="16" t="s">
         <v>832</v>
       </c>
-      <c r="IN1" s="16" t="s">
-        <v>833</v>
-      </c>
       <c r="IO1" s="16" t="s">
+        <v>834</v>
+      </c>
+      <c r="IP1" s="16" t="s">
         <v>835</v>
       </c>
-      <c r="IP1" s="16" t="s">
+      <c r="IQ1" s="16" t="s">
         <v>836</v>
       </c>
-      <c r="IQ1" s="16" t="s">
-        <v>838</v>
-      </c>
       <c r="IR1" s="16" t="s">
+        <v>837</v>
+      </c>
+      <c r="IS1" s="16" t="s">
         <v>839</v>
       </c>
-      <c r="IS1" s="16" t="s">
+      <c r="IT1" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="IU1" s="16" t="s">
         <v>841</v>
       </c>
-      <c r="IT1" s="16" t="s">
-        <v>842</v>
-      </c>
-      <c r="IU1" s="16" t="s">
-        <v>844</v>
-      </c>
       <c r="IV1" s="15" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="IW1" s="15" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="IX1" s="15" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="IY1" s="15" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="IZ1" s="15" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="JA1" s="15" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="JB1" s="15" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="JC1" s="15" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="JD1" s="15" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="JE1" s="15" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="JF1" s="15" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="JG1" s="15" t="s">
+        <v>865</v>
+      </c>
+      <c r="JH1" s="15" t="s">
+        <v>867</v>
+      </c>
+      <c r="JI1" s="17" t="s">
         <v>868</v>
       </c>
-      <c r="JH1" s="15" t="s">
+      <c r="JJ1" s="17" t="s">
+        <v>869</v>
+      </c>
+      <c r="JK1" s="17" t="s">
         <v>870</v>
       </c>
-      <c r="JI1" s="17" t="s">
+      <c r="JL1" s="17" t="s">
         <v>871</v>
       </c>
-      <c r="JJ1" s="17" t="s">
-        <v>872</v>
-      </c>
-      <c r="JK1" s="17" t="s">
+      <c r="JM1" s="17" t="s">
         <v>873</v>
       </c>
-      <c r="JL1" s="17" t="s">
-        <v>874</v>
-      </c>
-      <c r="JM1" s="17" t="s">
-        <v>876</v>
-      </c>
       <c r="JN1" s="17" t="s">
+        <v>875</v>
+      </c>
+      <c r="JO1" s="17" t="s">
         <v>877</v>
       </c>
-      <c r="JO1" s="17" t="s">
+      <c r="JP1" s="17" t="s">
         <v>879</v>
       </c>
-      <c r="JP1" s="17" t="s">
+      <c r="JQ1" s="17" t="s">
         <v>880</v>
       </c>
-      <c r="JQ1" s="17" t="s">
+      <c r="JR1" s="17" t="s">
         <v>881</v>
       </c>
-      <c r="JR1" s="17" t="s">
+      <c r="JS1" s="17" t="s">
         <v>882</v>
       </c>
-      <c r="JS1" s="17" t="s">
+      <c r="JT1" s="17" t="s">
         <v>883</v>
       </c>
-      <c r="JT1" s="17" t="s">
+      <c r="JU1" s="17" t="s">
         <v>884</v>
       </c>
-      <c r="JU1" s="17" t="s">
-        <v>885</v>
-      </c>
       <c r="JV1" s="17" t="s">
+        <v>886</v>
+      </c>
+      <c r="JW1" s="17" t="s">
         <v>887</v>
       </c>
-      <c r="JW1" s="17" t="s">
+      <c r="JX1" s="17" t="s">
         <v>888</v>
       </c>
-      <c r="JX1" s="17" t="s">
-        <v>889</v>
-      </c>
       <c r="JY1" s="17" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="JZ1" s="17" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="KA1" s="17" t="s">
         <v>894</v>
@@ -5471,7 +5471,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G2" s="29" t="n">
         <v>2136.6</v>
@@ -5581,9 +5581,7 @@
       <c r="AP2" s="26" t="n">
         <v>0.0000000385911116568389</v>
       </c>
-      <c r="AQ2" s="26" t="n">
-        <v>29.1014502371242</v>
-      </c>
+      <c r="AQ2" s="26"/>
       <c r="AR2" s="26" t="n">
         <v>0.787973355829243</v>
       </c>
@@ -5677,9 +5675,7 @@
       <c r="BV2" s="26" t="n">
         <v>0.0000203630217217608</v>
       </c>
-      <c r="BW2" s="26" t="n">
-        <v>107.514166160269</v>
-      </c>
+      <c r="BW2" s="26"/>
       <c r="BX2" s="26" t="n">
         <v>0.803123256198129</v>
       </c>
@@ -5825,9 +5821,7 @@
       <c r="DV2" s="20" t="n">
         <v>26469.8518813813</v>
       </c>
-      <c r="DW2" s="28" t="n">
-        <v>0.851452134064213</v>
-      </c>
+      <c r="DW2" s="28"/>
       <c r="DX2" s="27" t="n">
         <v>51</v>
       </c>
@@ -6092,9 +6086,7 @@
       <c r="HG2" s="20" t="n">
         <v>0.0270834514570844</v>
       </c>
-      <c r="HH2" s="21" t="n">
-        <v>64.4506595202897</v>
-      </c>
+      <c r="HH2" s="21"/>
       <c r="HI2" s="27" t="n">
         <v>65</v>
       </c>
@@ -6123,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="HR2" s="27" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="HS2" s="27" t="n">
         <v>59</v>
@@ -6131,9 +6123,7 @@
       <c r="HT2" s="27" t="n">
         <v>12</v>
       </c>
-      <c r="HU2" s="27" t="n">
-        <v>99</v>
-      </c>
+      <c r="HU2" s="27"/>
       <c r="HV2" s="22" t="n">
         <v>8.4472588489961</v>
       </c>
@@ -6201,17 +6191,15 @@
         <v>0</v>
       </c>
       <c r="IR2" s="27" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="IS2" s="27" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="IT2" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="IU2" s="27" t="n">
-        <v>99</v>
-      </c>
+      <c r="IU2" s="27"/>
       <c r="IV2" s="22" t="n">
         <v>8.91010390906329</v>
       </c>
@@ -6279,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="JR2" s="27" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="JS2" s="27" t="n">
         <v>64</v>
@@ -6318,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="KE2" s="27" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="KF2" s="27" t="n">
         <v>56</v>
@@ -6711,7 +6699,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G3" s="29" t="n">
         <v>4306</v>
@@ -6821,9 +6809,7 @@
       <c r="AP3" s="26" t="n">
         <v>0.000390029270835048</v>
       </c>
-      <c r="AQ3" s="26" t="n">
-        <v>12.5901919620964</v>
-      </c>
+      <c r="AQ3" s="26"/>
       <c r="AR3" s="26" t="n">
         <v>1.05767187036324</v>
       </c>
@@ -6917,9 +6903,7 @@
       <c r="BV3" s="26" t="n">
         <v>0.0119443517218195</v>
       </c>
-      <c r="BW3" s="26" t="n">
-        <v>6.78840087937214</v>
-      </c>
+      <c r="BW3" s="26"/>
       <c r="BX3" s="26" t="n">
         <v>0.838980319108742</v>
       </c>
@@ -7073,9 +7057,7 @@
       <c r="DV3" s="20" t="n">
         <v>27717.8793913183</v>
       </c>
-      <c r="DW3" s="28" t="n">
-        <v>0.513078130242561</v>
-      </c>
+      <c r="DW3" s="28"/>
       <c r="DX3" s="27" t="n">
         <v>65</v>
       </c>
@@ -7119,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="EL3" s="27" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="EM3" s="27" t="n">
         <v>51</v>
@@ -7227,13 +7209,13 @@
         <v>82</v>
       </c>
       <c r="FV3" s="27" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="FW3" s="27" t="n">
         <v>0</v>
       </c>
       <c r="FX3" s="27" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="FY3" s="27" t="n">
         <v>61</v>
@@ -7340,9 +7322,7 @@
       <c r="HG3" s="20" t="n">
         <v>273.72465756972</v>
       </c>
-      <c r="HH3" s="21" t="n">
-        <v>27.8833586928604</v>
-      </c>
+      <c r="HH3" s="21"/>
       <c r="HI3" s="27" t="n">
         <v>74</v>
       </c>
@@ -7379,9 +7359,7 @@
       <c r="HT3" s="27" t="n">
         <v>64</v>
       </c>
-      <c r="HU3" s="27" t="n">
-        <v>98</v>
-      </c>
+      <c r="HU3" s="27"/>
       <c r="HV3" s="22" t="n">
         <v>8.4472588489961</v>
       </c>
@@ -7446,20 +7424,18 @@
         <v>0</v>
       </c>
       <c r="IQ3" s="27" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="IR3" s="27" t="n">
         <v>0</v>
       </c>
       <c r="IS3" s="27" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="IT3" s="27" t="n">
         <v>65</v>
       </c>
-      <c r="IU3" s="27" t="n">
-        <v>94</v>
-      </c>
+      <c r="IU3" s="27"/>
       <c r="IV3" s="22" t="n">
         <v>8.73939602199018</v>
       </c>
@@ -7959,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G4" s="29" t="n">
         <v>4277.3</v>
@@ -8069,9 +8045,7 @@
       <c r="AP4" s="26" t="n">
         <v>0.000419949699299063</v>
       </c>
-      <c r="AQ4" s="26" t="n">
-        <v>0.00203563747305418</v>
-      </c>
+      <c r="AQ4" s="26"/>
       <c r="AR4" s="26" t="n">
         <v>0.626257698191656</v>
       </c>
@@ -8165,9 +8139,7 @@
       <c r="BV4" s="26" t="n">
         <v>0.00963517488913335</v>
       </c>
-      <c r="BW4" s="26" t="n">
-        <v>0.0121480413324904</v>
-      </c>
+      <c r="BW4" s="26"/>
       <c r="BX4" s="26" t="n">
         <v>0.686093643330078</v>
       </c>
@@ -8321,9 +8293,7 @@
       <c r="DV4" s="20" t="n">
         <v>45247.5792544538</v>
       </c>
-      <c r="DW4" s="28" t="n">
-        <v>0.694338991781743</v>
-      </c>
+      <c r="DW4" s="28"/>
       <c r="DX4" s="27" t="n">
         <v>23</v>
       </c>
@@ -8361,7 +8331,7 @@
         <v>66</v>
       </c>
       <c r="EJ4" s="27" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="EK4" s="27" t="n">
         <v>0</v>
@@ -8588,9 +8558,7 @@
       <c r="HG4" s="20" t="n">
         <v>294.72297653721</v>
       </c>
-      <c r="HH4" s="21" t="n">
-        <v>0.00450830376539759</v>
-      </c>
+      <c r="HH4" s="21"/>
       <c r="HI4" s="27" t="n">
         <v>71</v>
       </c>
@@ -8613,7 +8581,7 @@
         <v>53</v>
       </c>
       <c r="HP4" s="27" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="HQ4" s="27" t="n">
         <v>40</v>
@@ -8627,9 +8595,7 @@
       <c r="HT4" s="27" t="n">
         <v>65</v>
       </c>
-      <c r="HU4" s="27" t="n">
-        <v>0</v>
-      </c>
+      <c r="HU4" s="27"/>
       <c r="HV4" s="22" t="n">
         <v>8.4472588489961</v>
       </c>
@@ -8691,7 +8657,7 @@
         <v>32</v>
       </c>
       <c r="IP4" s="27" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="IQ4" s="27" t="n">
         <v>15</v>
@@ -8700,14 +8666,12 @@
         <v>55</v>
       </c>
       <c r="IS4" s="27" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="IT4" s="27" t="n">
         <v>21</v>
       </c>
-      <c r="IU4" s="27" t="n">
-        <v>86</v>
-      </c>
+      <c r="IU4" s="27"/>
       <c r="IV4" s="22" t="n">
         <v>8.96099571358181</v>
       </c>
@@ -8769,7 +8733,7 @@
         <v>38</v>
       </c>
       <c r="JP4" s="27" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="JQ4" s="27" t="n">
         <v>39</v>
@@ -8784,7 +8748,7 @@
         <v>46</v>
       </c>
       <c r="JU4" s="27" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="JV4" s="27" t="n">
         <v>55</v>
@@ -8808,7 +8772,7 @@
         <v>38</v>
       </c>
       <c r="KC4" s="27" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="KD4" s="27" t="n">
         <v>36</v>
@@ -8823,7 +8787,7 @@
         <v>52</v>
       </c>
       <c r="KH4" s="27" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="KI4" s="27" t="n">
         <v>1</v>
@@ -9207,7 +9171,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G5" s="29" t="n">
         <v>45013.8</v>
@@ -9317,9 +9281,7 @@
       <c r="AP5" s="26" t="n">
         <v>0.000503854809620127</v>
       </c>
-      <c r="AQ5" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="AQ5" s="26"/>
       <c r="AR5" s="26" t="n">
         <v>0.433314397203002</v>
       </c>
@@ -9413,9 +9375,7 @@
       <c r="BV5" s="26" t="n">
         <v>0.0321524784064006</v>
       </c>
-      <c r="BW5" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="BW5" s="26"/>
       <c r="BX5" s="26" t="n">
         <v>0.524090716325584</v>
       </c>
@@ -9569,9 +9529,7 @@
       <c r="DV5" s="20" t="n">
         <v>78181.5232928303</v>
       </c>
-      <c r="DW5" s="28" t="n">
-        <v>0.570038295433618</v>
-      </c>
+      <c r="DW5" s="28"/>
       <c r="DX5" s="27" t="n">
         <v>38</v>
       </c>
@@ -9612,7 +9570,7 @@
         <v>85</v>
       </c>
       <c r="EK5" s="27" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="EL5" s="27" t="n">
         <v>88</v>
@@ -9723,13 +9681,13 @@
         <v>74</v>
       </c>
       <c r="FV5" s="27" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="FW5" s="27" t="n">
         <v>0</v>
       </c>
       <c r="FX5" s="27" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="FY5" s="27" t="n">
         <v>82</v>
@@ -9836,9 +9794,7 @@
       <c r="HG5" s="20" t="n">
         <v>353.608038014291</v>
       </c>
-      <c r="HH5" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="HH5" s="21"/>
       <c r="HI5" s="27" t="n">
         <v>94</v>
       </c>
@@ -9875,9 +9831,7 @@
       <c r="HT5" s="27" t="n">
         <v>66</v>
       </c>
-      <c r="HU5" s="27" t="n">
-        <v>0</v>
-      </c>
+      <c r="HU5" s="27"/>
       <c r="HV5" s="22" t="n">
         <v>8.4472588489961</v>
       </c>
@@ -9939,10 +9893,10 @@
         <v>54</v>
       </c>
       <c r="IP5" s="27" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="IQ5" s="27" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="IR5" s="27" t="n">
         <v>89</v>
@@ -9953,9 +9907,7 @@
       <c r="IT5" s="27" t="n">
         <v>47</v>
       </c>
-      <c r="IU5" s="27" t="n">
-        <v>0</v>
-      </c>
+      <c r="IU5" s="27"/>
       <c r="IV5" s="22" t="n">
         <v>12.3057217864917</v>
       </c>
@@ -10455,7 +10407,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G6" s="29" t="n">
         <v>17725.9</v>
@@ -10565,9 +10517,7 @@
       <c r="AP6" s="26" t="n">
         <v>0.00868087267876925</v>
       </c>
-      <c r="AQ6" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="AQ6" s="26"/>
       <c r="AR6" s="26" t="n">
         <v>0.808330758734756</v>
       </c>
@@ -10661,9 +10611,7 @@
       <c r="BV6" s="26" t="n">
         <v>0.553952380772692</v>
       </c>
-      <c r="BW6" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="BW6" s="26"/>
       <c r="BX6" s="26" t="n">
         <v>0.977670368461893</v>
       </c>
@@ -10817,9 +10765,7 @@
       <c r="DV6" s="20" t="n">
         <v>17647.8256381353</v>
       </c>
-      <c r="DW6" s="28" t="n">
-        <v>0.217327899777291</v>
-      </c>
+      <c r="DW6" s="28"/>
       <c r="DX6" s="27" t="n">
         <v>94</v>
       </c>
@@ -10857,10 +10803,10 @@
         <v>51</v>
       </c>
       <c r="EJ6" s="27" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="EK6" s="27" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="EL6" s="27" t="n">
         <v>87</v>
@@ -11084,9 +11030,7 @@
       <c r="HG6" s="20" t="n">
         <v>6092.28352609306</v>
       </c>
-      <c r="HH6" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="HH6" s="21"/>
       <c r="HI6" s="27" t="n">
         <v>96</v>
       </c>
@@ -11123,9 +11067,7 @@
       <c r="HT6" s="27" t="n">
         <v>86</v>
       </c>
-      <c r="HU6" s="27" t="n">
-        <v>0</v>
-      </c>
+      <c r="HU6" s="27"/>
       <c r="HV6" s="22" t="n">
         <v>8.4472588489961</v>
       </c>
@@ -11187,7 +11129,7 @@
         <v>87</v>
       </c>
       <c r="IP6" s="27" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="IQ6" s="27" t="n">
         <v>99</v>
@@ -11201,9 +11143,7 @@
       <c r="IT6" s="27" t="n">
         <v>75</v>
       </c>
-      <c r="IU6" s="27" t="n">
-        <v>0</v>
-      </c>
+      <c r="IU6" s="27"/>
       <c r="IV6" s="22" t="n">
         <v>12.3057217864917</v>
       </c>
@@ -11703,7 +11643,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G7" s="29" t="n">
         <v>59689.2</v>
@@ -11813,9 +11753,7 @@
       <c r="AP7" s="26" t="n">
         <v>0.000436355248532326</v>
       </c>
-      <c r="AQ7" s="26" t="n">
-        <v>0.00622286789969474</v>
-      </c>
+      <c r="AQ7" s="26"/>
       <c r="AR7" s="26" t="n">
         <v>1.16411412096828</v>
       </c>
@@ -11909,9 +11847,7 @@
       <c r="BV7" s="26" t="n">
         <v>0.0905303353279273</v>
       </c>
-      <c r="BW7" s="26" t="n">
-        <v>0.00503941005613082</v>
-      </c>
+      <c r="BW7" s="26"/>
       <c r="BX7" s="26" t="n">
         <v>1.47255609670349</v>
       </c>
@@ -12065,9 +12001,7 @@
       <c r="DV7" s="20" t="n">
         <v>26796.2011477966</v>
       </c>
-      <c r="DW7" s="28" t="n">
-        <v>0.133918814627673</v>
-      </c>
+      <c r="DW7" s="28"/>
       <c r="DX7" s="27" t="n">
         <v>85</v>
       </c>
@@ -12219,13 +12153,13 @@
         <v>52</v>
       </c>
       <c r="FV7" s="27" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="FW7" s="27" t="n">
         <v>0</v>
       </c>
       <c r="FX7" s="27" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="FY7" s="27" t="n">
         <v>82</v>
@@ -12332,9 +12266,7 @@
       <c r="HG7" s="20" t="n">
         <v>306.236479963514</v>
       </c>
-      <c r="HH7" s="21" t="n">
-        <v>0.0137817166146356</v>
-      </c>
+      <c r="HH7" s="21"/>
       <c r="HI7" s="27" t="n">
         <v>50</v>
       </c>
@@ -12371,9 +12303,7 @@
       <c r="HT7" s="27" t="n">
         <v>65</v>
       </c>
-      <c r="HU7" s="27" t="n">
-        <v>0</v>
-      </c>
+      <c r="HU7" s="27"/>
       <c r="HV7" s="22" t="n">
         <v>8.4472588489961</v>
       </c>
@@ -12435,10 +12365,10 @@
         <v>31</v>
       </c>
       <c r="IP7" s="27" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="IQ7" s="27" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="IR7" s="27" t="n">
         <v>93</v>
@@ -12449,9 +12379,7 @@
       <c r="IT7" s="27" t="n">
         <v>64</v>
       </c>
-      <c r="IU7" s="27" t="n">
-        <v>0</v>
-      </c>
+      <c r="IU7" s="27"/>
       <c r="IV7" s="22" t="n">
         <v>7.63995881566755</v>
       </c>
@@ -12528,7 +12456,7 @@
         <v>86</v>
       </c>
       <c r="JU7" s="27" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="JV7" s="27" t="n">
         <v>79</v>
@@ -12567,7 +12495,7 @@
         <v>87</v>
       </c>
       <c r="KH7" s="27" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="KI7" s="27" t="n">
         <v>2</v>
@@ -12951,7 +12879,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G8" s="29" t="n">
         <v>11765</v>
@@ -13061,9 +12989,7 @@
       <c r="AP8" s="26" t="n">
         <v>0.00141713409442646</v>
       </c>
-      <c r="AQ8" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="AQ8" s="26"/>
       <c r="AR8" s="26" t="n">
         <v>0.598963522675061</v>
       </c>
@@ -13157,9 +13083,7 @@
       <c r="BV8" s="26" t="n">
         <v>0.0904315538922277</v>
       </c>
-      <c r="BW8" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="BW8" s="26"/>
       <c r="BX8" s="26" t="n">
         <v>0.724442168729984</v>
       </c>
@@ -13313,9 +13237,7 @@
       <c r="DV8" s="20" t="n">
         <v>30048.337068096</v>
       </c>
-      <c r="DW8" s="28" t="n">
-        <v>0.754079671532098</v>
-      </c>
+      <c r="DW8" s="28"/>
       <c r="DX8" s="27" t="n">
         <v>76</v>
       </c>
@@ -13580,9 +13502,7 @@
       <c r="HG8" s="20" t="n">
         <v>994.552393200536</v>
       </c>
-      <c r="HH8" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="HH8" s="21"/>
       <c r="HI8" s="27" t="n">
         <v>98</v>
       </c>
@@ -13619,9 +13539,7 @@
       <c r="HT8" s="27" t="n">
         <v>73</v>
       </c>
-      <c r="HU8" s="27" t="n">
-        <v>0</v>
-      </c>
+      <c r="HU8" s="27"/>
       <c r="HV8" s="22" t="n">
         <v>8.4472588489961</v>
       </c>
@@ -13683,7 +13601,7 @@
         <v>25</v>
       </c>
       <c r="IP8" s="27" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="IQ8" s="27" t="n">
         <v>93</v>
@@ -13697,9 +13615,7 @@
       <c r="IT8" s="27" t="n">
         <v>53</v>
       </c>
-      <c r="IU8" s="27" t="n">
-        <v>0</v>
-      </c>
+      <c r="IU8" s="27"/>
       <c r="IV8" s="22" t="n">
         <v>12.3057217864917</v>
       </c>
@@ -14199,7 +14115,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G9" s="29" t="n">
         <v>7692.5</v>
@@ -14309,9 +14225,7 @@
       <c r="AP9" s="26" t="n">
         <v>0.000887571275404455</v>
       </c>
-      <c r="AQ9" s="26" t="n">
-        <v>2.09093824288668</v>
-      </c>
+      <c r="AQ9" s="26"/>
       <c r="AR9" s="26" t="n">
         <v>0.963394724089408</v>
       </c>
@@ -14405,9 +14319,7 @@
       <c r="BV9" s="26" t="n">
         <v>0.85763341290785</v>
       </c>
-      <c r="BW9" s="26" t="n">
-        <v>5.71225509831866</v>
-      </c>
+      <c r="BW9" s="26"/>
       <c r="BX9" s="26" t="n">
         <v>1.13147756068488</v>
       </c>
@@ -14561,9 +14473,7 @@
       <c r="DV9" s="20" t="n">
         <v>47912.2359227668</v>
       </c>
-      <c r="DW9" s="28" t="n">
-        <v>0.764153426100977</v>
-      </c>
+      <c r="DW9" s="28"/>
       <c r="DX9" s="27" t="n">
         <v>23</v>
       </c>
@@ -14601,7 +14511,7 @@
         <v>67</v>
       </c>
       <c r="EJ9" s="27" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="EK9" s="27" t="n">
         <v>0</v>
@@ -14828,9 +14738,7 @@
       <c r="HG9" s="20" t="n">
         <v>622.902334762339</v>
       </c>
-      <c r="HH9" s="21" t="n">
-        <v>4.63077776784912</v>
-      </c>
+      <c r="HH9" s="21"/>
       <c r="HI9" s="27" t="n">
         <v>32</v>
       </c>
@@ -14867,9 +14775,7 @@
       <c r="HT9" s="27" t="n">
         <v>70</v>
       </c>
-      <c r="HU9" s="27" t="n">
-        <v>89</v>
-      </c>
+      <c r="HU9" s="27"/>
       <c r="HV9" s="22" t="n">
         <v>8.4472588489961</v>
       </c>
@@ -14945,9 +14851,7 @@
       <c r="IT9" s="27" t="n">
         <v>93</v>
       </c>
-      <c r="IU9" s="27" t="n">
-        <v>91</v>
-      </c>
+      <c r="IU9" s="27"/>
       <c r="IV9" s="22" t="n">
         <v>6.63359798685088</v>
       </c>
@@ -15447,7 +15351,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G10" s="29" t="n">
         <v>11096.4</v>
@@ -15557,9 +15461,7 @@
       <c r="AP10" s="26" t="n">
         <v>0.0174599841032236</v>
       </c>
-      <c r="AQ10" s="26" t="n">
-        <v>0.309428850228623</v>
-      </c>
+      <c r="AQ10" s="26"/>
       <c r="AR10" s="26" t="n">
         <v>0.843989090299306</v>
       </c>
@@ -15653,9 +15555,7 @@
       <c r="BV10" s="26" t="n">
         <v>0.139618819597715</v>
       </c>
-      <c r="BW10" s="26" t="n">
-        <v>0.43809421260056</v>
-      </c>
+      <c r="BW10" s="26"/>
       <c r="BX10" s="26" t="n">
         <v>1.10007717347245</v>
       </c>
@@ -15809,9 +15709,7 @@
       <c r="DV10" s="20" t="n">
         <v>41106.5778205061</v>
       </c>
-      <c r="DW10" s="28" t="n">
-        <v>0.630529575993296</v>
-      </c>
+      <c r="DW10" s="28"/>
       <c r="DX10" s="27" t="n">
         <v>44</v>
       </c>
@@ -15852,7 +15750,7 @@
         <v>89</v>
       </c>
       <c r="EK10" s="27" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="EL10" s="27" t="n">
         <v>87</v>
@@ -16076,9 +15974,7 @@
       <c r="HG10" s="20" t="n">
         <v>12253.5115366992</v>
       </c>
-      <c r="HH10" s="21" t="n">
-        <v>0.685288647450255</v>
-      </c>
+      <c r="HH10" s="21"/>
       <c r="HI10" s="27" t="n">
         <v>33</v>
       </c>
@@ -16115,9 +16011,7 @@
       <c r="HT10" s="27" t="n">
         <v>89</v>
       </c>
-      <c r="HU10" s="27" t="n">
-        <v>76</v>
-      </c>
+      <c r="HU10" s="27"/>
       <c r="HV10" s="22" t="n">
         <v>8.4472588489961</v>
       </c>
@@ -16193,9 +16087,7 @@
       <c r="IT10" s="27" t="n">
         <v>71</v>
       </c>
-      <c r="IU10" s="27" t="n">
-        <v>86</v>
-      </c>
+      <c r="IU10" s="27"/>
       <c r="IV10" s="22" t="n">
         <v>7.55988471860629</v>
       </c>
@@ -16311,7 +16203,7 @@
         <v>74</v>
       </c>
       <c r="KH10" s="27" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="KI10" s="27" t="n">
         <v>1</v>
@@ -16695,7 +16587,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G11" s="29" t="n">
         <v>4083.9</v>
@@ -16805,9 +16697,7 @@
       <c r="AP11" s="26" t="n">
         <v>0.00153318592106951</v>
       </c>
-      <c r="AQ11" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="AQ11" s="26"/>
       <c r="AR11" s="26" t="n">
         <v>0.310220761801734</v>
       </c>
@@ -16901,9 +16791,7 @@
       <c r="BV11" s="26" t="n">
         <v>0.318089070823213</v>
       </c>
-      <c r="BW11" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="BW11" s="26"/>
       <c r="BX11" s="26" t="n">
         <v>0.392416401353481</v>
       </c>
@@ -17057,9 +16945,7 @@
       <c r="DV11" s="20" t="n">
         <v>85137.4892325996</v>
       </c>
-      <c r="DW11" s="28" t="n">
-        <v>0.835318928511225</v>
-      </c>
+      <c r="DW11" s="28"/>
       <c r="DX11" s="27" t="n">
         <v>12</v>
       </c>
@@ -17324,9 +17210,7 @@
       <c r="HG11" s="20" t="n">
         <v>1075.99819453796</v>
       </c>
-      <c r="HH11" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="HH11" s="21"/>
       <c r="HI11" s="27" t="n">
         <v>25</v>
       </c>
@@ -17349,7 +17233,7 @@
         <v>69</v>
       </c>
       <c r="HP11" s="27" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="HQ11" s="27" t="n">
         <v>0</v>
@@ -17363,9 +17247,7 @@
       <c r="HT11" s="27" t="n">
         <v>74</v>
       </c>
-      <c r="HU11" s="27" t="n">
-        <v>0</v>
-      </c>
+      <c r="HU11" s="27"/>
       <c r="HV11" s="22" t="n">
         <v>8.4472588489961</v>
       </c>
@@ -17427,7 +17309,7 @@
         <v>49</v>
       </c>
       <c r="IP11" s="27" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="IQ11" s="27" t="n">
         <v>0</v>
@@ -17441,9 +17323,7 @@
       <c r="IT11" s="27" t="n">
         <v>76</v>
       </c>
-      <c r="IU11" s="27" t="n">
-        <v>0</v>
-      </c>
+      <c r="IU11" s="27"/>
       <c r="IV11" s="22" t="n">
         <v>7.63995881566755</v>
       </c>
@@ -17544,7 +17424,7 @@
         <v>40</v>
       </c>
       <c r="KC11" s="27" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="KD11" s="27" t="n">
         <v>0</v>
@@ -18386,7 +18266,7 @@
         <v>523</v>
       </c>
       <c r="AO1" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AP1" s="5" t="s">
         <v>526</v>
@@ -18398,244 +18278,244 @@
         <v>528</v>
       </c>
       <c r="AS1" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AT1" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AU1" s="6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AV1" s="6" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AW1" s="6" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AX1" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AY1" s="6" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AZ1" s="6" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="BA1" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="BB1" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="BC1" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="BD1" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="BE1" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="BF1" s="6" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="BG1" s="6" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="BH1" s="6" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="BI1" s="6" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="BJ1" s="6" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="BK1" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="BL1" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="BM1" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="BN1" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="BO1" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="BP1" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="BQ1" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="BR1" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="BS1" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="BT1" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="BU1" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="BV1" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="BW1" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="BX1" s="6" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="BY1" s="6" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="BZ1" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="CA1" s="8" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CB1" s="8" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="CC1" s="8" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="CD1" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="CE1" s="8" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="CF1" s="8" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="CG1" s="8" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="CH1" s="8" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="CI1" s="8" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="CJ1" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="CK1" s="8" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="CL1" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="CM1" s="8" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="CN1" s="8" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="CO1" s="8" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="CP1" s="8" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="CQ1" s="8" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="CR1" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="CS1" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="CT1" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="CU1" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="CV1" s="9" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="CW1" s="9" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="CX1" s="8" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="CY1" s="8" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="CZ1" s="8" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="DA1" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="DB1" s="8" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="DC1" s="8" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="DD1" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="DE1" s="8" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="DF1" s="8" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="DG1" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="DH1" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="DI1" s="8" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="DJ1" s="8" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="DK1" s="8" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="DL1" s="8" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="DM1" s="8" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="DN1" s="8" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="DO1" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="DP1" s="9" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="DQ1" s="9" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="DR1" s="8" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="DS1" s="9" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="DT1" s="9" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="DU1" s="9" t="s">
         <v>653</v>
@@ -18758,151 +18638,151 @@
         <v>712</v>
       </c>
       <c r="FI1" s="11" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="FJ1" s="12" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="FK1" s="12" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="FL1" s="12" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="FM1" s="12" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="FN1" s="12" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="FO1" s="12" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="FP1" s="12" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="FQ1" s="12" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="FR1" s="12" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="FS1" s="12" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="FT1" s="12" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="FU1" s="12" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="FV1" s="12" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="FW1" s="12" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="FX1" s="12" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="FY1" s="12" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="FZ1" s="12" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="GA1" s="12" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="GB1" s="12" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="GC1" s="8" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="GD1" s="8" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="GE1" s="8" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="GF1" s="8" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="GG1" s="8" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="GH1" s="8" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="GI1" s="8" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="GJ1" s="8" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="GK1" s="8" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="GL1" s="8" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="GM1" s="8" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="GN1" s="8" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="GO1" s="8" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="GP1" s="8" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="GQ1" s="8" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="GR1" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="GS1" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="GT1" s="8" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="GU1" s="8" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="GV1" s="13" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="GW1" s="13" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="GX1" s="13" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="GY1" s="13" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="GZ1" s="13" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="HA1" s="13" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="HB1" s="13" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="HC1" s="13" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="HD1" s="13" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="HE1" s="13" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="HF1" s="13" t="s">
         <v>784</v>
@@ -18944,178 +18824,178 @@
         <v>801</v>
       </c>
       <c r="HS1" s="14" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="HT1" s="14" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="HU1" s="14" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="HV1" s="15" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="HW1" s="15" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="HX1" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="HY1" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="HZ1" s="15" t="s">
         <v>815</v>
       </c>
-      <c r="HZ1" s="15" t="s">
-        <v>816</v>
-      </c>
       <c r="IA1" s="15" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="IB1" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="IC1" s="15" t="s">
         <v>820</v>
       </c>
-      <c r="IC1" s="15" t="s">
-        <v>821</v>
-      </c>
       <c r="ID1" s="15" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="IE1" s="15" t="s">
+        <v>824</v>
+      </c>
+      <c r="IF1" s="15" t="s">
         <v>825</v>
       </c>
-      <c r="IF1" s="15" t="s">
+      <c r="IG1" s="15" t="s">
         <v>826</v>
       </c>
-      <c r="IG1" s="15" t="s">
-        <v>827</v>
-      </c>
       <c r="IH1" s="15" t="s">
+        <v>828</v>
+      </c>
+      <c r="II1" s="16" t="s">
         <v>829</v>
       </c>
-      <c r="II1" s="16" t="s">
+      <c r="IJ1" s="16" t="s">
         <v>830</v>
       </c>
-      <c r="IJ1" s="16" t="s">
+      <c r="IK1" s="16" t="s">
         <v>831</v>
       </c>
-      <c r="IK1" s="16" t="s">
+      <c r="IL1" s="16" t="s">
         <v>832</v>
       </c>
-      <c r="IL1" s="16" t="s">
-        <v>833</v>
-      </c>
       <c r="IM1" s="16" t="s">
+        <v>834</v>
+      </c>
+      <c r="IN1" s="16" t="s">
         <v>835</v>
       </c>
-      <c r="IN1" s="16" t="s">
+      <c r="IO1" s="16" t="s">
         <v>836</v>
       </c>
-      <c r="IO1" s="16" t="s">
-        <v>838</v>
-      </c>
       <c r="IP1" s="16" t="s">
+        <v>837</v>
+      </c>
+      <c r="IQ1" s="16" t="s">
         <v>839</v>
       </c>
-      <c r="IQ1" s="16" t="s">
+      <c r="IR1" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="IS1" s="16" t="s">
         <v>841</v>
       </c>
-      <c r="IR1" s="16" t="s">
-        <v>842</v>
-      </c>
-      <c r="IS1" s="16" t="s">
-        <v>844</v>
-      </c>
       <c r="IT1" s="16" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="IU1" s="16" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="IV1" s="15" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="IW1" s="15" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="IX1" s="15" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="IY1" s="15" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="IZ1" s="15" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="JA1" s="15" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="JB1" s="15" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="JC1" s="15" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="JD1" s="15" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="JE1" s="15" t="s">
+        <v>865</v>
+      </c>
+      <c r="JF1" s="15" t="s">
+        <v>867</v>
+      </c>
+      <c r="JG1" s="15" t="s">
         <v>868</v>
       </c>
-      <c r="JF1" s="15" t="s">
+      <c r="JH1" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="JI1" s="17" t="s">
         <v>870</v>
       </c>
-      <c r="JG1" s="15" t="s">
+      <c r="JJ1" s="17" t="s">
         <v>871</v>
       </c>
-      <c r="JH1" s="15" t="s">
-        <v>872</v>
-      </c>
-      <c r="JI1" s="17" t="s">
+      <c r="JK1" s="17" t="s">
         <v>873</v>
       </c>
-      <c r="JJ1" s="17" t="s">
-        <v>874</v>
-      </c>
-      <c r="JK1" s="17" t="s">
-        <v>876</v>
-      </c>
       <c r="JL1" s="17" t="s">
+        <v>875</v>
+      </c>
+      <c r="JM1" s="17" t="s">
         <v>877</v>
       </c>
-      <c r="JM1" s="17" t="s">
+      <c r="JN1" s="17" t="s">
         <v>879</v>
       </c>
-      <c r="JN1" s="17" t="s">
+      <c r="JO1" s="17" t="s">
         <v>880</v>
       </c>
-      <c r="JO1" s="17" t="s">
+      <c r="JP1" s="17" t="s">
         <v>881</v>
       </c>
-      <c r="JP1" s="17" t="s">
+      <c r="JQ1" s="17" t="s">
         <v>882</v>
       </c>
-      <c r="JQ1" s="17" t="s">
+      <c r="JR1" s="17" t="s">
         <v>883</v>
       </c>
-      <c r="JR1" s="17" t="s">
+      <c r="JS1" s="17" t="s">
         <v>884</v>
       </c>
-      <c r="JS1" s="17" t="s">
-        <v>885</v>
-      </c>
       <c r="JT1" s="17" t="s">
+        <v>886</v>
+      </c>
+      <c r="JU1" s="17" t="s">
         <v>887</v>
       </c>
-      <c r="JU1" s="17" t="s">
+      <c r="JV1" s="17" t="s">
         <v>888</v>
       </c>
-      <c r="JV1" s="17" t="s">
-        <v>889</v>
-      </c>
       <c r="JW1" s="17" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="JX1" s="17" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="JY1" s="17" t="s">
         <v>894</v>
@@ -19519,8 +19399,12 @@
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>430</v>
+      </c>
       <c r="G2" s="29" t="n">
         <v>167786.6</v>
       </c>
@@ -19619,9 +19503,7 @@
       <c r="AP2" s="26" t="n">
         <v>0.00256029341158546</v>
       </c>
-      <c r="AQ2" s="26" t="n">
-        <v>0.812284925754853</v>
-      </c>
+      <c r="AQ2" s="26"/>
       <c r="AR2" s="26" t="n">
         <v>0.819317927505898</v>
       </c>
@@ -19715,9 +19597,7 @@
       <c r="BV2" s="26" t="n">
         <v>0.134176149667439</v>
       </c>
-      <c r="BW2" s="26" t="n">
-        <v>1.17989444001946</v>
-      </c>
+      <c r="BW2" s="26"/>
       <c r="BX2" s="26" t="n">
         <v>0.992516278560708</v>
       </c>
@@ -19871,9 +19751,7 @@
       <c r="DV2" s="20" t="n">
         <v>43667.8118611728</v>
       </c>
-      <c r="DW2" s="28" t="n">
-        <v>0.405385554234062</v>
-      </c>
+      <c r="DW2" s="28"/>
       <c r="DX2" s="27" t="n">
         <v>70</v>
       </c>
@@ -20025,13 +19903,13 @@
         <v>57.6216050626212</v>
       </c>
       <c r="FV2" s="27" t="n">
-        <v>84.9423601169581</v>
+        <v>26.0844119852241</v>
       </c>
       <c r="FW2" s="27" t="n">
         <v>5.02618445096331</v>
       </c>
       <c r="FX2" s="27" t="n">
-        <v>85.612347469941</v>
+        <v>26.3473274981435</v>
       </c>
       <c r="FY2" s="27" t="n">
         <v>68.8657580521925</v>
@@ -20138,9 +20016,7 @@
       <c r="HG2" s="20" t="n">
         <v>1796.82780183088</v>
       </c>
-      <c r="HH2" s="21" t="n">
-        <v>1.79895842841897</v>
-      </c>
+      <c r="HH2" s="21"/>
       <c r="HI2" s="27" t="n">
         <v>89</v>
       </c>
@@ -20177,9 +20053,7 @@
       <c r="HT2" s="27" t="n">
         <v>78</v>
       </c>
-      <c r="HU2" s="27" t="n">
-        <v>84</v>
-      </c>
+      <c r="HU2" s="27"/>
       <c r="HV2" s="22" t="n">
         <v>8.4472588489961</v>
       </c>
@@ -20241,23 +20115,21 @@
         <v>46.4249874543021</v>
       </c>
       <c r="IP2" s="27" t="n">
-        <v>69.7121730817598</v>
+        <v>3.76963833822248</v>
       </c>
       <c r="IQ2" s="27" t="n">
-        <v>82.3314591272486</v>
+        <v>26.6169908681623</v>
       </c>
       <c r="IR2" s="27" t="n">
-        <v>79.1870584420925</v>
+        <v>78.9323777941743</v>
       </c>
       <c r="IS2" s="27" t="n">
-        <v>47.1976415279885</v>
+        <v>43.5815947161454</v>
       </c>
       <c r="IT2" s="27" t="n">
         <v>60.1564576670604</v>
       </c>
-      <c r="IU2" s="27" t="n">
-        <v>15.7249929374575</v>
-      </c>
+      <c r="IU2" s="27"/>
       <c r="IV2" s="22" t="n">
         <v>9.73839662456579</v>
       </c>
@@ -21228,16 +21100,14 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s">
+      <c r="A44"/>
+      <c r="B44" t="s">
         <v>524</v>
-      </c>
-      <c r="B44" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B45" t="s">
         <v>526</v>
@@ -21264,7 +21134,7 @@
         <v>482</v>
       </c>
       <c r="B48" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="49">
@@ -21272,15 +21142,15 @@
         <v>475</v>
       </c>
       <c r="B49" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B50" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="51">
@@ -21288,15 +21158,15 @@
         <v>477</v>
       </c>
       <c r="B51" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B52" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="53">
@@ -21304,7 +21174,7 @@
         <v>477</v>
       </c>
       <c r="B53" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="54">
@@ -21312,7 +21182,7 @@
         <v>487</v>
       </c>
       <c r="B54" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="55">
@@ -21320,7 +21190,7 @@
         <v>482</v>
       </c>
       <c r="B55" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="56">
@@ -21328,23 +21198,23 @@
         <v>475</v>
       </c>
       <c r="B56" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B57" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B58" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="59">
@@ -21352,39 +21222,39 @@
         <v>512</v>
       </c>
       <c r="B59" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B60" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B61" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B62" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B63" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="64">
@@ -21392,7 +21262,7 @@
         <v>477</v>
       </c>
       <c r="B64" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="65">
@@ -21400,15 +21270,15 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B66" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="67">
@@ -21416,7 +21286,7 @@
         <v>489</v>
       </c>
       <c r="B67" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="68">
@@ -21424,7 +21294,7 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="69">
@@ -21432,15 +21302,15 @@
         <v>494</v>
       </c>
       <c r="B69" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B70" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="71">
@@ -21448,47 +21318,45 @@
         <v>489</v>
       </c>
       <c r="B71" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B72" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B73" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B74" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B75" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s">
-        <v>482</v>
-      </c>
+      <c r="A76"/>
       <c r="B76" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="77">
@@ -21496,7 +21364,7 @@
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="78">
@@ -21504,39 +21372,39 @@
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B79" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B80" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B81" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B82" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="83">
@@ -21544,63 +21412,63 @@
         <v>473</v>
       </c>
       <c r="B83" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B84" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B85" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B86" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B87" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B88" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B89" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B90" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="91">
@@ -21608,7 +21476,7 @@
         <v>522</v>
       </c>
       <c r="B91" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="92">
@@ -21616,63 +21484,63 @@
         <v>522</v>
       </c>
       <c r="B92" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B93" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B94" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B95" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B96" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B97" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B98" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B99" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="100">
@@ -21680,95 +21548,95 @@
         <v>514</v>
       </c>
       <c r="B100" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B101" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B102" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B103" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B104" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B105" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B106" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B107" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B108" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B109" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B110" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B111" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="112">
@@ -21776,7 +21644,7 @@
         <v>473</v>
       </c>
       <c r="B112" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="113">
@@ -21784,125 +21652,123 @@
         <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B114" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B115" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B116" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B117" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B118" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B119" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B120" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B121" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B122" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B123" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B124" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B125" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B126" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B127" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s">
-        <v>652</v>
-      </c>
+      <c r="A128"/>
       <c r="B128" t="s">
         <v>653</v>
       </c>
@@ -21925,7 +21791,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B131" t="s">
         <v>658</v>
@@ -21949,7 +21815,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B134" t="s">
         <v>662</v>
@@ -21965,7 +21831,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B136" t="s">
         <v>665</v>
@@ -22037,7 +21903,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B145" t="s">
         <v>681</v>
@@ -22053,7 +21919,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B147" t="s">
         <v>684</v>
@@ -22085,7 +21951,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B151" t="s">
         <v>691</v>
@@ -22093,7 +21959,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B152" t="s">
         <v>692</v>
@@ -22101,7 +21967,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B153" t="s">
         <v>693</v>
@@ -22109,7 +21975,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B154" t="s">
         <v>694</v>
@@ -22117,7 +21983,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B155" t="s">
         <v>695</v>
@@ -22133,7 +21999,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B157" t="s">
         <v>698</v>
@@ -22141,7 +22007,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B158" t="s">
         <v>699</v>
@@ -22149,7 +22015,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B159" t="s">
         <v>700</v>
@@ -22221,26 +22087,26 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B168" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B169" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B170" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="171">
@@ -22248,7 +22114,7 @@
         <v>663</v>
       </c>
       <c r="B171" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="172">
@@ -22256,87 +22122,87 @@
         <v>663</v>
       </c>
       <c r="B172" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B173" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B174" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B175" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B176" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B177" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B178" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>673</v>
+        <v>728</v>
       </c>
       <c r="B179" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B180" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B181" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B182" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="183">
@@ -22344,47 +22210,47 @@
         <v>682</v>
       </c>
       <c r="B183" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B184" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B185" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B186" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B187" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B188" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="189">
@@ -22392,63 +22258,63 @@
         <v>473</v>
       </c>
       <c r="B189" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B190" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B191" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B192" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B193" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B194" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>748</v>
+        <v>728</v>
       </c>
       <c r="B195" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B196" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="197">
@@ -22456,7 +22322,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="198">
@@ -22464,7 +22330,7 @@
         <v>522</v>
       </c>
       <c r="B198" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="199">
@@ -22472,7 +22338,7 @@
         <v>522</v>
       </c>
       <c r="B199" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="200">
@@ -22480,7 +22346,7 @@
         <v>7</v>
       </c>
       <c r="B200" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="201">
@@ -22488,133 +22354,131 @@
         <v>704</v>
       </c>
       <c r="B201" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B202" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B203" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B204" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B205" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B206" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B207" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B208" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B209" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B210" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B211" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B212" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B213" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B214" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B215" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B216" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s">
-        <v>783</v>
-      </c>
+      <c r="A217"/>
       <c r="B217" t="s">
         <v>784</v>
       </c>
@@ -22709,90 +22573,88 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B229" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s">
+      <c r="A230"/>
+      <c r="B230" t="s">
         <v>802</v>
-      </c>
-      <c r="B230" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
+        <v>803</v>
+      </c>
+      <c r="B231" t="s">
         <v>804</v>
-      </c>
-      <c r="B231" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
+        <v>805</v>
+      </c>
+      <c r="B232" t="s">
         <v>806</v>
-      </c>
-      <c r="B232" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
+        <v>807</v>
+      </c>
+      <c r="B233" t="s">
         <v>808</v>
-      </c>
-      <c r="B233" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
+        <v>809</v>
+      </c>
+      <c r="B234" t="s">
         <v>810</v>
-      </c>
-      <c r="B234" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
+        <v>811</v>
+      </c>
+      <c r="B235" t="s">
         <v>812</v>
-      </c>
-      <c r="B235" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
+        <v>813</v>
+      </c>
+      <c r="B236" t="s">
         <v>814</v>
-      </c>
-      <c r="B236" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B237" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
+        <v>816</v>
+      </c>
+      <c r="B238" t="s">
         <v>817</v>
-      </c>
-      <c r="B238" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
+        <v>818</v>
+      </c>
+      <c r="B239" t="s">
         <v>819</v>
-      </c>
-      <c r="B239" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="240">
@@ -22800,23 +22662,23 @@
         <v>516</v>
       </c>
       <c r="B240" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
+        <v>821</v>
+      </c>
+      <c r="B241" t="s">
         <v>822</v>
-      </c>
-      <c r="B241" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
+        <v>823</v>
+      </c>
+      <c r="B242" t="s">
         <v>824</v>
-      </c>
-      <c r="B242" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="243">
@@ -22824,7 +22686,7 @@
         <v>507</v>
       </c>
       <c r="B243" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="244">
@@ -22832,23 +22694,23 @@
         <v>654</v>
       </c>
       <c r="B244" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
+        <v>827</v>
+      </c>
+      <c r="B245" t="s">
         <v>828</v>
-      </c>
-      <c r="B245" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B246" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="247">
@@ -22856,15 +22718,15 @@
         <v>786</v>
       </c>
       <c r="B247" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B248" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="249">
@@ -22872,31 +22734,31 @@
         <v>654</v>
       </c>
       <c r="B249" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
+        <v>833</v>
+      </c>
+      <c r="B250" t="s">
         <v>834</v>
-      </c>
-      <c r="B250" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>654</v>
+        <v>514</v>
       </c>
       <c r="B251" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>837</v>
+        <v>604</v>
       </c>
       <c r="B252" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="253">
@@ -22904,15 +22766,15 @@
         <v>786</v>
       </c>
       <c r="B253" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B254" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="255">
@@ -22920,127 +22782,125 @@
         <v>706</v>
       </c>
       <c r="B255" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s">
-        <v>843</v>
-      </c>
+      <c r="A256"/>
       <c r="B256" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B257" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B258" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B259" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B260" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B261" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B262" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B263" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B264" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B265" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B266" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B267" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B268" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B269" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B270" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="271">
@@ -23048,7 +22908,7 @@
         <v>668</v>
       </c>
       <c r="B271" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="272">
@@ -23056,7 +22916,7 @@
         <v>671</v>
       </c>
       <c r="B272" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="273">
@@ -23064,39 +22924,39 @@
         <v>673</v>
       </c>
       <c r="B273" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B274" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>837</v>
+        <v>874</v>
       </c>
       <c r="B275" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B276" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>729</v>
+        <v>878</v>
       </c>
       <c r="B277" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="278">
@@ -23104,7 +22964,7 @@
         <v>671</v>
       </c>
       <c r="B278" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="279">
@@ -23112,23 +22972,23 @@
         <v>673</v>
       </c>
       <c r="B279" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B280" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B281" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="282">
@@ -23136,15 +22996,15 @@
         <v>666</v>
       </c>
       <c r="B282" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
+        <v>885</v>
+      </c>
+      <c r="B283" t="s">
         <v>886</v>
-      </c>
-      <c r="B283" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="284">
@@ -23152,7 +23012,7 @@
         <v>786</v>
       </c>
       <c r="B284" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="285">
@@ -23160,28 +23020,28 @@
         <v>673</v>
       </c>
       <c r="B285" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
+        <v>889</v>
+      </c>
+      <c r="B286" t="s">
         <v>890</v>
-      </c>
-      <c r="B286" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
+        <v>891</v>
+      </c>
+      <c r="B287" t="s">
         <v>892</v>
-      </c>
-      <c r="B287" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>802</v>
+        <v>893</v>
       </c>
       <c r="B288" t="s">
         <v>894</v>
@@ -23189,7 +23049,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B289" t="s">
         <v>895</v>
@@ -23197,7 +23057,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>729</v>
+        <v>878</v>
       </c>
       <c r="B290" t="s">
         <v>896</v>
@@ -23205,7 +23065,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>837</v>
+        <v>874</v>
       </c>
       <c r="B291" t="s">
         <v>897</v>
@@ -23213,7 +23073,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>729</v>
+        <v>878</v>
       </c>
       <c r="B292" t="s">
         <v>898</v>
@@ -23293,7 +23153,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B302" t="s">
         <v>909</v>
@@ -23317,7 +23177,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B305" t="s">
         <v>914</v>
@@ -23333,7 +23193,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B307" t="s">
         <v>917</v>
@@ -23341,7 +23201,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B308" t="s">
         <v>918</v>
@@ -23397,7 +23257,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B315" t="s">
         <v>925</v>
@@ -23405,7 +23265,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B316" t="s">
         <v>926</v>
@@ -23413,7 +23273,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B317" t="s">
         <v>927</v>
@@ -23421,7 +23281,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B318" t="s">
         <v>928</v>
@@ -23429,7 +23289,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B319" t="s">
         <v>929</v>
@@ -23445,7 +23305,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B321" t="s">
         <v>931</v>
@@ -23581,7 +23441,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B338" t="s">
         <v>963</v>
@@ -23749,7 +23609,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B359" t="s">
         <v>998</v>
@@ -23757,7 +23617,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B360" t="s">
         <v>999</v>
@@ -23781,7 +23641,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B363" t="s">
         <v>1002</v>
@@ -23789,7 +23649,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B364" t="s">
         <v>1003</v>

--- a/inst/testdata/examples_of_output/testoutput_ejamit_10pts_1miles.xlsx
+++ b/inst/testdata/examples_of_output/testoutput_ejamit_10pts_1miles.xlsx
@@ -2630,6 +2630,9 @@
     <t xml:space="preserve">US percentile for EJ Index for Particulate Matter</t>
   </si>
   <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
     <t xml:space="preserve">US percentile for EJ Index for Ozone</t>
   </si>
   <si>
@@ -2696,9 +2699,6 @@
     <t xml:space="preserve">US percentile for Supplemental EJ Index for Diesel Particulate Matter</t>
   </si>
   <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
     <t xml:space="preserve">US percentile for Supplemental EJ Index for Toxic Releases to Air</t>
   </si>
   <si>
@@ -3047,7 +3047,7 @@
     <t xml:space="preserve">US type of raw score for Particulate Matter EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">121.441</t>
+    <t xml:space="preserve">102.211</t>
   </si>
   <si>
     <t xml:space="preserve">US type of raw score for Ozone EJ Index</t>
@@ -3113,7 +3113,7 @@
     <t xml:space="preserve">US type of raw score for Wastewater Discharge EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">10.825</t>
+    <t xml:space="preserve">10.821</t>
   </si>
   <si>
     <t xml:space="preserve">US type of raw score for Drinking Water Non-Compliance EJ Index</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">State type of raw score for Particulate Matter EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">110.472</t>
+    <t xml:space="preserve">71.549</t>
   </si>
   <si>
     <t xml:space="preserve">State type of raw score for Ozone EJ Index</t>
@@ -3161,7 +3161,7 @@
     <t xml:space="preserve">State type of raw score for Lead Paint EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">143.983</t>
+    <t xml:space="preserve">143.981</t>
   </si>
   <si>
     <t xml:space="preserve">State type of raw score for Superfund Proximity EJ Index</t>
@@ -3191,7 +3191,7 @@
     <t xml:space="preserve">State type of raw score for Wastewater Discharge EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">12.691</t>
+    <t xml:space="preserve">12.69</t>
   </si>
   <si>
     <t xml:space="preserve">State type of raw score for Drinking Water Non-Compliance EJ Index</t>
@@ -3203,7 +3203,7 @@
     <t xml:space="preserve">US type of raw score for Particulate Matter Supplemental EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">122.523</t>
+    <t xml:space="preserve">103.974</t>
   </si>
   <si>
     <t xml:space="preserve">US type of raw score for Ozone Supplemental EJ Index</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">US type of raw score for Wastewater Discharge Supplemental EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">14.414</t>
+    <t xml:space="preserve">14.408</t>
   </si>
   <si>
     <t xml:space="preserve">US type of raw score for Drinking Water Non-Compliance Supplemental EJ Index</t>
@@ -3281,7 +3281,7 @@
     <t xml:space="preserve">State type of raw score for Particulate Matter Supplemental EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">100.312</t>
+    <t xml:space="preserve">63.229</t>
   </si>
   <si>
     <t xml:space="preserve">State type of raw score for Ozone Supplemental EJ Index</t>
@@ -3317,7 +3317,7 @@
     <t xml:space="preserve">State type of raw score for Lead Paint Supplemental EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">128.183</t>
+    <t xml:space="preserve">128.182</t>
   </si>
   <si>
     <t xml:space="preserve">State type of raw score for Superfund Proximity Supplemental EJ Index</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">State type of raw score for Wastewater Discharge Supplemental EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">14.286</t>
+    <t xml:space="preserve">14.285</t>
   </si>
   <si>
     <t xml:space="preserve">State type of raw score for Drinking Water Non-Compliance Supplemental EJ Index</t>
@@ -5015,52 +5015,52 @@
         <v>868</v>
       </c>
       <c r="JJ1" s="17" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="JK1" s="17" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="JL1" s="17" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="JM1" s="17" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="JN1" s="17" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="JO1" s="17" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="JP1" s="17" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="JQ1" s="17" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="JR1" s="17" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="JS1" s="17" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="JT1" s="17" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="JU1" s="17" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="JV1" s="17" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="JW1" s="17" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="JX1" s="17" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="JY1" s="17" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="JZ1" s="17" t="s">
         <v>892</v>
@@ -6243,7 +6243,7 @@
         <v>65</v>
       </c>
       <c r="JJ2" s="27" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="JK2" s="27" t="n">
         <v>45</v>
@@ -6282,7 +6282,7 @@
         <v>61</v>
       </c>
       <c r="JW2" s="27" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="JX2" s="27" t="n">
         <v>35</v>
@@ -6531,7 +6531,7 @@
         <v>76.952104370838</v>
       </c>
       <c r="NB2" s="23" t="n">
-        <v>22.4936920468603</v>
+        <v>7.10327117269274</v>
       </c>
       <c r="NC2" s="23" t="n">
         <v>40.0868661456388</v>
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="NJ2" s="23" t="n">
-        <v>0.112202606408331</v>
+        <v>0.11220260640833</v>
       </c>
       <c r="NK2" s="23" t="n">
         <v>69.4594241523752</v>
@@ -6570,7 +6570,7 @@
         <v>32.5272085203054</v>
       </c>
       <c r="NO2" s="23" t="n">
-        <v>48.7908127804582</v>
+        <v>4.64674407432935</v>
       </c>
       <c r="NP2" s="23" t="n">
         <v>67.1034011881344</v>
@@ -6609,7 +6609,7 @@
         <v>88.2876496374691</v>
       </c>
       <c r="OB2" s="23" t="n">
-        <v>25.8071591247987</v>
+        <v>8.14962919730484</v>
       </c>
       <c r="OC2" s="23" t="n">
         <v>45.5515987340029</v>
@@ -6648,7 +6648,7 @@
         <v>29.6120790719457</v>
       </c>
       <c r="OO2" s="23" t="n">
-        <v>44.4181186079186</v>
+        <v>4.23029701027796</v>
       </c>
       <c r="OP2" s="23" t="n">
         <v>60.5340087444893</v>
@@ -7479,7 +7479,7 @@
         <v>78</v>
       </c>
       <c r="JJ3" s="27" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="JK3" s="27" t="n">
         <v>54</v>
@@ -7518,7 +7518,7 @@
         <v>83</v>
       </c>
       <c r="JW3" s="27" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="JX3" s="27" t="n">
         <v>48</v>
@@ -7767,7 +7767,7 @@
         <v>117.323328112055</v>
       </c>
       <c r="NB3" s="23" t="n">
-        <v>3.14198123056293</v>
+        <v>17.011654439911</v>
       </c>
       <c r="NC3" s="23" t="n">
         <v>55.4040107256464</v>
@@ -7806,7 +7806,7 @@
         <v>100.1875317907</v>
       </c>
       <c r="NO3" s="23" t="n">
-        <v>9.08260253494678</v>
+        <v>21.6245670015017</v>
       </c>
       <c r="NP3" s="23" t="n">
         <v>107.773014854969</v>
@@ -7845,7 +7845,7 @@
         <v>137.704563137612</v>
       </c>
       <c r="OB3" s="23" t="n">
-        <v>3.69086287583923</v>
+        <v>19.9724899609038</v>
       </c>
       <c r="OC3" s="23" t="n">
         <v>63.8425278565321</v>
@@ -7884,7 +7884,7 @@
         <v>116.075166654765</v>
       </c>
       <c r="OO3" s="23" t="n">
-        <v>10.5269105847758</v>
+        <v>24.9473534986623</v>
       </c>
       <c r="OP3" s="23" t="n">
         <v>123.809912115067</v>
@@ -8715,7 +8715,7 @@
         <v>49</v>
       </c>
       <c r="JJ4" s="27" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="JK4" s="27" t="n">
         <v>45</v>
@@ -8754,7 +8754,7 @@
         <v>55</v>
       </c>
       <c r="JW4" s="27" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="JX4" s="27" t="n">
         <v>51</v>
@@ -9003,7 +9003,7 @@
         <v>46.2569024602887</v>
       </c>
       <c r="NB4" s="23" t="n">
-        <v>57.7881992700524</v>
+        <v>53.1939097284581</v>
       </c>
       <c r="NC4" s="23" t="n">
         <v>40.6174315726002</v>
@@ -9015,7 +9015,7 @@
         <v>50.5458394252474</v>
       </c>
       <c r="NF4" s="23" t="n">
-        <v>25.6727508551649</v>
+        <v>25.6727508551648</v>
       </c>
       <c r="NG4" s="23" t="n">
         <v>32.4640947364053</v>
@@ -9042,7 +9042,7 @@
         <v>28.9204926360807</v>
       </c>
       <c r="NO4" s="23" t="n">
-        <v>30.1242536215768</v>
+        <v>32.4176693416491</v>
       </c>
       <c r="NP4" s="23" t="n">
         <v>25.5731126250819</v>
@@ -9081,13 +9081,13 @@
         <v>78.7006513591159</v>
       </c>
       <c r="OB4" s="23" t="n">
-        <v>98.2919233098529</v>
+        <v>90.4794216105559</v>
       </c>
       <c r="OC4" s="23" t="n">
         <v>68.6958772623984</v>
       </c>
       <c r="OD4" s="23" t="n">
-        <v>62.5362827891599</v>
+        <v>62.53628278916</v>
       </c>
       <c r="OE4" s="23" t="n">
         <v>85.95796252536</v>
@@ -9099,7 +9099,7 @@
         <v>54.3079386002305</v>
       </c>
       <c r="OH4" s="23" t="n">
-        <v>0.340712220215132</v>
+        <v>0.340712220215133</v>
       </c>
       <c r="OI4" s="23" t="n">
         <v>44.7075980646423</v>
@@ -9120,7 +9120,7 @@
         <v>40.0105653644774</v>
       </c>
       <c r="OO4" s="23" t="n">
-        <v>41.5311198776367</v>
+        <v>44.7470796119325</v>
       </c>
       <c r="OP4" s="23" t="n">
         <v>35.036702621778</v>
@@ -9951,7 +9951,7 @@
         <v>68</v>
       </c>
       <c r="JJ5" s="27" t="n">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="JK5" s="27" t="n">
         <v>64</v>
@@ -9990,7 +9990,7 @@
         <v>56</v>
       </c>
       <c r="JW5" s="27" t="n">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="JX5" s="27" t="n">
         <v>53</v>
@@ -10239,7 +10239,7 @@
         <v>85.7940962185773</v>
       </c>
       <c r="NB5" s="23" t="n">
-        <v>78.1608849503045</v>
+        <v>37.3024409358371</v>
       </c>
       <c r="NC5" s="23" t="n">
         <v>77.9065108076848</v>
@@ -10278,7 +10278,7 @@
         <v>58.3104575189475</v>
       </c>
       <c r="NO5" s="23" t="n">
-        <v>39.3662659394878</v>
+        <v>24.285683048698</v>
       </c>
       <c r="NP5" s="23" t="n">
         <v>83.7855642707251</v>
@@ -10314,10 +10314,10 @@
         <v>0</v>
       </c>
       <c r="OA5" s="23" t="n">
-        <v>79.2572403521154</v>
+        <v>79.2572403521155</v>
       </c>
       <c r="OB5" s="23" t="n">
-        <v>72.1947359100883</v>
+        <v>34.4713706018905</v>
       </c>
       <c r="OC5" s="23" t="n">
         <v>71.9788398868712</v>
@@ -10356,7 +10356,7 @@
         <v>41.0599362977923</v>
       </c>
       <c r="OO5" s="23" t="n">
-        <v>27.7031552536311</v>
+        <v>17.0860637170125</v>
       </c>
       <c r="OP5" s="23" t="n">
         <v>59.061514477926</v>
@@ -11187,7 +11187,7 @@
         <v>99</v>
       </c>
       <c r="JJ6" s="27" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="JK6" s="27" t="n">
         <v>98</v>
@@ -11475,7 +11475,7 @@
         <v>281.358733659431</v>
       </c>
       <c r="NB6" s="23" t="n">
-        <v>282.909022125377</v>
+        <v>262.406396881789</v>
       </c>
       <c r="NC6" s="23" t="n">
         <v>274.812565316584</v>
@@ -11514,7 +11514,7 @@
         <v>247.397482759081</v>
       </c>
       <c r="NO6" s="23" t="n">
-        <v>240.32600179043</v>
+        <v>197.755366389805</v>
       </c>
       <c r="NP6" s="23" t="n">
         <v>318.831826463656</v>
@@ -11553,7 +11553,7 @@
         <v>253.679355736826</v>
       </c>
       <c r="OB6" s="23" t="n">
-        <v>254.985590802148</v>
+        <v>236.501124771856</v>
       </c>
       <c r="OC6" s="23" t="n">
         <v>247.683878413021</v>
@@ -11592,7 +11592,7 @@
         <v>184.897571963874</v>
       </c>
       <c r="OO6" s="23" t="n">
-        <v>179.344973662782</v>
+        <v>147.672115001314</v>
       </c>
       <c r="OP6" s="23" t="n">
         <v>238.072938604179</v>
@@ -12423,7 +12423,7 @@
         <v>79</v>
       </c>
       <c r="JJ7" s="27" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="JK7" s="27" t="n">
         <v>94</v>
@@ -12462,7 +12462,7 @@
         <v>79</v>
       </c>
       <c r="JW7" s="27" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="JX7" s="27" t="n">
         <v>96</v>
@@ -12711,7 +12711,7 @@
         <v>119.342934038794</v>
       </c>
       <c r="NB7" s="23" t="n">
-        <v>140.47556642207</v>
+        <v>120.693151951277</v>
       </c>
       <c r="NC7" s="23" t="n">
         <v>226.881109944851</v>
@@ -12750,7 +12750,7 @@
         <v>214.490657324609</v>
       </c>
       <c r="NO7" s="23" t="n">
-        <v>166.375481097491</v>
+        <v>82.2969344855926</v>
       </c>
       <c r="NP7" s="23" t="n">
         <v>225.534652280655</v>
@@ -12789,7 +12789,7 @@
         <v>127.628782669497</v>
       </c>
       <c r="OB7" s="23" t="n">
-        <v>150.258028876184</v>
+        <v>128.905833428549</v>
       </c>
       <c r="OC7" s="23" t="n">
         <v>242.29122138924</v>
@@ -12828,7 +12828,7 @@
         <v>217.968064111516</v>
       </c>
       <c r="OO7" s="23" t="n">
-        <v>169.56437602125</v>
+        <v>83.5408998486035</v>
       </c>
       <c r="OP7" s="23" t="n">
         <v>228.543558431621</v>
@@ -13659,7 +13659,7 @@
         <v>92</v>
       </c>
       <c r="JJ8" s="27" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="JK8" s="27" t="n">
         <v>74</v>
@@ -13698,7 +13698,7 @@
         <v>90</v>
       </c>
       <c r="JW8" s="27" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="JX8" s="27" t="n">
         <v>67</v>
@@ -13947,7 +13947,7 @@
         <v>191.205018898703</v>
       </c>
       <c r="NB8" s="23" t="n">
-        <v>165.841087820304</v>
+        <v>171.69430268455</v>
       </c>
       <c r="NC8" s="23" t="n">
         <v>109.078326055277</v>
@@ -13986,7 +13986,7 @@
         <v>188.475055226975</v>
       </c>
       <c r="NO8" s="23" t="n">
-        <v>81.9311902905521</v>
+        <v>119.830003902458</v>
       </c>
       <c r="NP8" s="23" t="n">
         <v>81.229156086671</v>
@@ -14025,7 +14025,7 @@
         <v>167.951669108002</v>
       </c>
       <c r="OB8" s="23" t="n">
-        <v>145.672366063063</v>
+        <v>150.813743688819</v>
       </c>
       <c r="OC8" s="23" t="n">
         <v>99.0898348698581</v>
@@ -14064,7 +14064,7 @@
         <v>134.005453297153</v>
       </c>
       <c r="OO8" s="23" t="n">
-        <v>58.2491742039815</v>
+        <v>85.2020911262495</v>
       </c>
       <c r="OP8" s="23" t="n">
         <v>61.4445824420369</v>
@@ -14895,7 +14895,7 @@
         <v>27</v>
       </c>
       <c r="JJ9" s="27" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="JK9" s="27" t="n">
         <v>45</v>
@@ -14934,7 +14934,7 @@
         <v>30</v>
       </c>
       <c r="JW9" s="27" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="JX9" s="27" t="n">
         <v>57</v>
@@ -15183,7 +15183,7 @@
         <v>20.8338240073862</v>
       </c>
       <c r="NB9" s="23" t="n">
-        <v>13.6192087208813</v>
+        <v>16.2577007736515</v>
       </c>
       <c r="NC9" s="23" t="n">
         <v>41.5031106420557</v>
@@ -15216,13 +15216,13 @@
         <v>45.8075326573284</v>
       </c>
       <c r="NM9" s="23" t="n">
-        <v>54.4287172669241</v>
+        <v>54.3401515905647</v>
       </c>
       <c r="NN9" s="23" t="n">
         <v>76.8200246924354</v>
       </c>
       <c r="NO9" s="23" t="n">
-        <v>26.3966354599835</v>
+        <v>35.0423787864745</v>
       </c>
       <c r="NP9" s="23" t="n">
         <v>45.7650865975849</v>
@@ -15255,13 +15255,13 @@
         <v>83.4038301585497</v>
       </c>
       <c r="NZ9" s="23" t="n">
-        <v>76.0498181113261</v>
+        <v>76.027772567431</v>
       </c>
       <c r="OA9" s="23" t="n">
         <v>40.4442430955068</v>
       </c>
       <c r="OB9" s="23" t="n">
-        <v>26.2845715001041</v>
+        <v>31.4279734183963</v>
       </c>
       <c r="OC9" s="23" t="n">
         <v>78.3111587834872</v>
@@ -15294,13 +15294,13 @@
         <v>87.848543965725</v>
       </c>
       <c r="OM9" s="23" t="n">
-        <v>103.948171527145</v>
+        <v>103.836739761746</v>
       </c>
       <c r="ON9" s="23" t="n">
         <v>116.478675223817</v>
       </c>
       <c r="OO9" s="23" t="n">
-        <v>39.326312655874</v>
+        <v>52.0940114253976</v>
       </c>
       <c r="OP9" s="23" t="n">
         <v>67.140584360414</v>
@@ -15333,7 +15333,7 @@
         <v>125.494524497692</v>
       </c>
       <c r="OZ9" s="23" t="n">
-        <v>111.986479534127</v>
+        <v>111.953235707364</v>
       </c>
     </row>
     <row r="10">
@@ -16131,7 +16131,7 @@
         <v>40</v>
       </c>
       <c r="JJ10" s="27" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="JK10" s="27" t="n">
         <v>58</v>
@@ -16170,7 +16170,7 @@
         <v>32</v>
       </c>
       <c r="JW10" s="27" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="JX10" s="27" t="n">
         <v>57</v>
@@ -16419,7 +16419,7 @@
         <v>34.8367384887128</v>
       </c>
       <c r="NB10" s="23" t="n">
-        <v>91.7717841289426</v>
+        <v>95.4344294722853</v>
       </c>
       <c r="NC10" s="23" t="n">
         <v>63.5086082415396</v>
@@ -16431,7 +16431,7 @@
         <v>64.6306849495215</v>
       </c>
       <c r="NF10" s="23" t="n">
-        <v>56.9191126054964</v>
+        <v>56.9191126054963</v>
       </c>
       <c r="NG10" s="23" t="n">
         <v>65.9516507044135</v>
@@ -16452,13 +16452,13 @@
         <v>92.4504852183565</v>
       </c>
       <c r="NM10" s="23" t="n">
-        <v>32.1273648370011</v>
+        <v>32.127364837001</v>
       </c>
       <c r="NN10" s="23" t="n">
         <v>61.5902989919776</v>
       </c>
       <c r="NO10" s="23" t="n">
-        <v>100.32684917476</v>
+        <v>46.2678173554966</v>
       </c>
       <c r="NP10" s="23" t="n">
         <v>83.5823939937704</v>
@@ -16497,7 +16497,7 @@
         <v>43.3702089976161</v>
       </c>
       <c r="OB10" s="23" t="n">
-        <v>114.544771853045</v>
+        <v>119.179945169641</v>
       </c>
       <c r="OC10" s="23" t="n">
         <v>78.6296145938071</v>
@@ -16536,7 +16536,7 @@
         <v>52.5782117517509</v>
       </c>
       <c r="OO10" s="23" t="n">
-        <v>85.404451684061</v>
+        <v>39.3051110813093</v>
       </c>
       <c r="OP10" s="23" t="n">
         <v>71.0640541730264</v>
@@ -17367,7 +17367,7 @@
         <v>17</v>
       </c>
       <c r="JJ11" s="27" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="JK11" s="27" t="n">
         <v>23</v>
@@ -17406,7 +17406,7 @@
         <v>16</v>
       </c>
       <c r="JW11" s="27" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="JX11" s="27" t="n">
         <v>23</v>
@@ -17655,13 +17655,13 @@
         <v>11.4719784442551</v>
       </c>
       <c r="NB11" s="23" t="n">
-        <v>18.4020240303908</v>
+        <v>23.2810038753656</v>
       </c>
       <c r="NC11" s="23" t="n">
         <v>15.8294281365048</v>
       </c>
       <c r="ND11" s="23" t="n">
-        <v>27.2152039828164</v>
+        <v>27.2152039828163</v>
       </c>
       <c r="NE11" s="23" t="n">
         <v>22.7679456305678</v>
@@ -17670,7 +17670,7 @@
         <v>16.1729271888802</v>
       </c>
       <c r="NG11" s="23" t="n">
-        <v>30.8399700593178</v>
+        <v>30.8399700593177</v>
       </c>
       <c r="NH11" s="23" t="n">
         <v>12.8527927032356</v>
@@ -17682,10 +17682,10 @@
         <v>13.5146949461143</v>
       </c>
       <c r="NK11" s="23" t="n">
-        <v>33.3544873713658</v>
+        <v>33.3544873713657</v>
       </c>
       <c r="NL11" s="23" t="n">
-        <v>33.5890640983318</v>
+        <v>33.5890640983317</v>
       </c>
       <c r="NM11" s="23" t="n">
         <v>0</v>
@@ -17694,7 +17694,7 @@
         <v>11.2713427288303</v>
       </c>
       <c r="NO11" s="23" t="n">
-        <v>4.98471721830082</v>
+        <v>14.6021639810745</v>
       </c>
       <c r="NP11" s="23" t="n">
         <v>14.811463835389</v>
@@ -17712,7 +17712,7 @@
         <v>23.8865001827917</v>
       </c>
       <c r="NU11" s="23" t="n">
-        <v>2.17222936511013</v>
+        <v>2.12321394730008</v>
       </c>
       <c r="NV11" s="23" t="n">
         <v>0</v>
@@ -17733,7 +17733,7 @@
         <v>21.501400215027</v>
       </c>
       <c r="OB11" s="23" t="n">
-        <v>34.4809184087645</v>
+        <v>43.6582934703797</v>
       </c>
       <c r="OC11" s="23" t="n">
         <v>29.6242163063856</v>
@@ -17772,7 +17772,7 @@
         <v>16.8355873424264</v>
       </c>
       <c r="OO11" s="23" t="n">
-        <v>7.43027680185661</v>
+        <v>21.6983442716179</v>
       </c>
       <c r="OP11" s="23" t="n">
         <v>21.9720961019736</v>
@@ -17790,7 +17790,7 @@
         <v>35.6567565348414</v>
       </c>
       <c r="OU11" s="23" t="n">
-        <v>2.96472008395307</v>
+        <v>2.91339148915049</v>
       </c>
       <c r="OV11" s="23" t="n">
         <v>0</v>
@@ -18947,52 +18947,52 @@
         <v>868</v>
       </c>
       <c r="JH1" s="15" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="JI1" s="17" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="JJ1" s="17" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="JK1" s="17" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="JL1" s="17" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="JM1" s="17" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="JN1" s="17" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="JO1" s="17" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="JP1" s="17" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="JQ1" s="17" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="JR1" s="17" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="JS1" s="17" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="JT1" s="17" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="JU1" s="17" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="JV1" s="17" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="JW1" s="17" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="JX1" s="17" t="s">
         <v>892</v>
@@ -20173,7 +20173,7 @@
         <v>78</v>
       </c>
       <c r="JJ2" s="27" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="JK2" s="27" t="n">
         <v>83</v>
@@ -20212,7 +20212,7 @@
         <v>75</v>
       </c>
       <c r="JW2" s="27" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="JX2" s="27" t="n">
         <v>85</v>
@@ -20461,7 +20461,7 @@
         <v>117.312116899188</v>
       </c>
       <c r="NB2" s="23" t="n">
-        <v>121.440843085412</v>
+        <v>102.211035118237</v>
       </c>
       <c r="NC2" s="23" t="n">
         <v>147.749566513762</v>
@@ -20494,13 +20494,13 @@
         <v>109.501365093349</v>
       </c>
       <c r="NM2" s="23" t="n">
-        <v>10.8253658009493</v>
+        <v>10.8213053345218</v>
       </c>
       <c r="NN2" s="23" t="n">
         <v>142.891623579944</v>
       </c>
       <c r="NO2" s="23" t="n">
-        <v>110.471533216608</v>
+        <v>71.5487559652744</v>
       </c>
       <c r="NP2" s="23" t="n">
         <v>154.348158200293</v>
@@ -20518,7 +20518,7 @@
         <v>85.5078660379096</v>
       </c>
       <c r="NU2" s="23" t="n">
-        <v>143.982618644189</v>
+        <v>143.981425622932</v>
       </c>
       <c r="NV2" s="23" t="n">
         <v>162.213263447858</v>
@@ -20533,13 +20533,13 @@
         <v>108.36046751482</v>
       </c>
       <c r="NZ2" s="23" t="n">
-        <v>12.6906321431065</v>
+        <v>12.6896214220852</v>
       </c>
       <c r="OA2" s="23" t="n">
         <v>117.153378985886</v>
       </c>
       <c r="OB2" s="23" t="n">
-        <v>122.523033390055</v>
+        <v>103.973930253546</v>
       </c>
       <c r="OC2" s="23" t="n">
         <v>152.100205832046</v>
@@ -20554,7 +20554,7 @@
         <v>144.477633800058</v>
       </c>
       <c r="OG2" s="23" t="n">
-        <v>95.2776509351119</v>
+        <v>95.2776509351118</v>
       </c>
       <c r="OH2" s="23" t="n">
         <v>147.302056163125</v>
@@ -20572,13 +20572,13 @@
         <v>114.040127496428</v>
       </c>
       <c r="OM2" s="23" t="n">
-        <v>14.4135113863263</v>
+        <v>14.4084025793826</v>
       </c>
       <c r="ON2" s="23" t="n">
         <v>131.089527021018</v>
       </c>
       <c r="OO2" s="23" t="n">
-        <v>100.311668071496</v>
+        <v>63.2289343780677</v>
       </c>
       <c r="OP2" s="23" t="n">
         <v>139.762065830411</v>
@@ -20596,7 +20596,7 @@
         <v>74.1512036392973</v>
       </c>
       <c r="OU2" s="23" t="n">
-        <v>128.182861498486</v>
+        <v>128.181612175162</v>
       </c>
       <c r="OV2" s="23" t="n">
         <v>144.944179701337</v>
@@ -20611,7 +20611,7 @@
         <v>100.185422723694</v>
       </c>
       <c r="OZ2" s="23" t="n">
-        <v>14.2861597371721</v>
+        <v>14.2846356089992</v>
       </c>
     </row>
   </sheetData>
@@ -22905,10 +22905,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>668</v>
+        <v>869</v>
       </c>
       <c r="B271" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="272">
@@ -22916,7 +22916,7 @@
         <v>671</v>
       </c>
       <c r="B272" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="273">
@@ -22924,39 +22924,39 @@
         <v>673</v>
       </c>
       <c r="B273" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B274" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B275" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B276" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B277" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="278">
@@ -22964,7 +22964,7 @@
         <v>671</v>
       </c>
       <c r="B278" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="279">
@@ -22972,15 +22972,15 @@
         <v>673</v>
       </c>
       <c r="B279" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B280" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="281">
@@ -22988,7 +22988,7 @@
         <v>642</v>
       </c>
       <c r="B281" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="282">
@@ -22996,23 +22996,23 @@
         <v>666</v>
       </c>
       <c r="B282" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B283" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>786</v>
+        <v>877</v>
       </c>
       <c r="B284" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="285">
@@ -23020,20 +23020,20 @@
         <v>673</v>
       </c>
       <c r="B285" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B286" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>891</v>
+        <v>869</v>
       </c>
       <c r="B287" t="s">
         <v>892</v>
@@ -23057,7 +23057,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B290" t="s">
         <v>896</v>
@@ -23065,7 +23065,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B291" t="s">
         <v>897</v>
@@ -23073,7 +23073,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B292" t="s">
         <v>898</v>

--- a/inst/testdata/examples_of_output/testoutput_ejamit_10pts_1miles.xlsx
+++ b/inst/testdata/examples_of_output/testoutput_ejamit_10pts_1miles.xlsx
@@ -2630,75 +2630,75 @@
     <t xml:space="preserve">US percentile for EJ Index for Particulate Matter</t>
   </si>
   <si>
+    <t xml:space="preserve">US percentile for EJ Index for Ozone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Nitrogen Dioxide (NO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Diesel Particulate Matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Toxic Releases to Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Traffic Proximity and Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Lead Paint Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Superfund Proximity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for RMP Proximity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Hazardous Waste Proximity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Underground Storage Tanks (UST) indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Wastewater Discharge Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Drinking Water Non-Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Particulate Matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Ozone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Nitrogen Dioxide (NO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Diesel Particulate Matter</t>
+  </si>
+  <si>
     <t xml:space="preserve">76</t>
   </si>
   <si>
-    <t xml:space="preserve">US percentile for EJ Index for Ozone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Nitrogen Dioxide (NO2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Diesel Particulate Matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Toxic Releases to Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Traffic Proximity and Volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Lead Paint Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Superfund Proximity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for RMP Proximity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Hazardous Waste Proximity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Underground Storage Tanks (UST) indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Wastewater Discharge Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Drinking Water Non-Compliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Supplemental EJ Index for Particulate Matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Supplemental EJ Index for Ozone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Supplemental EJ Index for Nitrogen Dioxide (NO2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Supplemental EJ Index for Diesel Particulate Matter</t>
-  </si>
-  <si>
     <t xml:space="preserve">US percentile for Supplemental EJ Index for Toxic Releases to Air</t>
   </si>
   <si>
@@ -3047,7 +3047,7 @@
     <t xml:space="preserve">US type of raw score for Particulate Matter EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">102.211</t>
+    <t xml:space="preserve">121.441</t>
   </si>
   <si>
     <t xml:space="preserve">US type of raw score for Ozone EJ Index</t>
@@ -3113,7 +3113,7 @@
     <t xml:space="preserve">US type of raw score for Wastewater Discharge EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">10.821</t>
+    <t xml:space="preserve">10.825</t>
   </si>
   <si>
     <t xml:space="preserve">US type of raw score for Drinking Water Non-Compliance EJ Index</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">State type of raw score for Particulate Matter EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">71.549</t>
+    <t xml:space="preserve">110.472</t>
   </si>
   <si>
     <t xml:space="preserve">State type of raw score for Ozone EJ Index</t>
@@ -3161,7 +3161,7 @@
     <t xml:space="preserve">State type of raw score for Lead Paint EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">143.981</t>
+    <t xml:space="preserve">143.983</t>
   </si>
   <si>
     <t xml:space="preserve">State type of raw score for Superfund Proximity EJ Index</t>
@@ -3191,7 +3191,7 @@
     <t xml:space="preserve">State type of raw score for Wastewater Discharge EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">12.69</t>
+    <t xml:space="preserve">12.691</t>
   </si>
   <si>
     <t xml:space="preserve">State type of raw score for Drinking Water Non-Compliance EJ Index</t>
@@ -3203,7 +3203,7 @@
     <t xml:space="preserve">US type of raw score for Particulate Matter Supplemental EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">103.974</t>
+    <t xml:space="preserve">122.523</t>
   </si>
   <si>
     <t xml:space="preserve">US type of raw score for Ozone Supplemental EJ Index</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">US type of raw score for Wastewater Discharge Supplemental EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">14.408</t>
+    <t xml:space="preserve">14.414</t>
   </si>
   <si>
     <t xml:space="preserve">US type of raw score for Drinking Water Non-Compliance Supplemental EJ Index</t>
@@ -3281,7 +3281,7 @@
     <t xml:space="preserve">State type of raw score for Particulate Matter Supplemental EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">63.229</t>
+    <t xml:space="preserve">100.312</t>
   </si>
   <si>
     <t xml:space="preserve">State type of raw score for Ozone Supplemental EJ Index</t>
@@ -3317,7 +3317,7 @@
     <t xml:space="preserve">State type of raw score for Lead Paint Supplemental EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">128.182</t>
+    <t xml:space="preserve">128.183</t>
   </si>
   <si>
     <t xml:space="preserve">State type of raw score for Superfund Proximity Supplemental EJ Index</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">State type of raw score for Wastewater Discharge Supplemental EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">14.285</t>
+    <t xml:space="preserve">14.286</t>
   </si>
   <si>
     <t xml:space="preserve">State type of raw score for Drinking Water Non-Compliance Supplemental EJ Index</t>
@@ -5015,52 +5015,52 @@
         <v>868</v>
       </c>
       <c r="JJ1" s="17" t="s">
+        <v>869</v>
+      </c>
+      <c r="JK1" s="17" t="s">
         <v>870</v>
       </c>
-      <c r="JK1" s="17" t="s">
+      <c r="JL1" s="17" t="s">
         <v>871</v>
       </c>
-      <c r="JL1" s="17" t="s">
-        <v>872</v>
-      </c>
       <c r="JM1" s="17" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="JN1" s="17" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="JO1" s="17" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="JP1" s="17" t="s">
+        <v>879</v>
+      </c>
+      <c r="JQ1" s="17" t="s">
         <v>880</v>
       </c>
-      <c r="JQ1" s="17" t="s">
+      <c r="JR1" s="17" t="s">
         <v>881</v>
       </c>
-      <c r="JR1" s="17" t="s">
+      <c r="JS1" s="17" t="s">
         <v>882</v>
       </c>
-      <c r="JS1" s="17" t="s">
+      <c r="JT1" s="17" t="s">
         <v>883</v>
       </c>
-      <c r="JT1" s="17" t="s">
+      <c r="JU1" s="17" t="s">
         <v>884</v>
       </c>
-      <c r="JU1" s="17" t="s">
-        <v>885</v>
-      </c>
       <c r="JV1" s="17" t="s">
+        <v>886</v>
+      </c>
+      <c r="JW1" s="17" t="s">
         <v>887</v>
       </c>
-      <c r="JW1" s="17" t="s">
+      <c r="JX1" s="17" t="s">
         <v>888</v>
       </c>
-      <c r="JX1" s="17" t="s">
-        <v>889</v>
-      </c>
       <c r="JY1" s="17" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="JZ1" s="17" t="s">
         <v>892</v>
@@ -6243,7 +6243,7 @@
         <v>65</v>
       </c>
       <c r="JJ2" s="27" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="JK2" s="27" t="n">
         <v>45</v>
@@ -6282,7 +6282,7 @@
         <v>61</v>
       </c>
       <c r="JW2" s="27" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="JX2" s="27" t="n">
         <v>35</v>
@@ -6531,7 +6531,7 @@
         <v>76.952104370838</v>
       </c>
       <c r="NB2" s="23" t="n">
-        <v>7.10327117269274</v>
+        <v>22.4936920468603</v>
       </c>
       <c r="NC2" s="23" t="n">
         <v>40.0868661456388</v>
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="NJ2" s="23" t="n">
-        <v>0.11220260640833</v>
+        <v>0.112202606408331</v>
       </c>
       <c r="NK2" s="23" t="n">
         <v>69.4594241523752</v>
@@ -6570,7 +6570,7 @@
         <v>32.5272085203054</v>
       </c>
       <c r="NO2" s="23" t="n">
-        <v>4.64674407432935</v>
+        <v>48.7908127804582</v>
       </c>
       <c r="NP2" s="23" t="n">
         <v>67.1034011881344</v>
@@ -6609,7 +6609,7 @@
         <v>88.2876496374691</v>
       </c>
       <c r="OB2" s="23" t="n">
-        <v>8.14962919730484</v>
+        <v>25.8071591247987</v>
       </c>
       <c r="OC2" s="23" t="n">
         <v>45.5515987340029</v>
@@ -6648,7 +6648,7 @@
         <v>29.6120790719457</v>
       </c>
       <c r="OO2" s="23" t="n">
-        <v>4.23029701027796</v>
+        <v>44.4181186079186</v>
       </c>
       <c r="OP2" s="23" t="n">
         <v>60.5340087444893</v>
@@ -7479,7 +7479,7 @@
         <v>78</v>
       </c>
       <c r="JJ3" s="27" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="JK3" s="27" t="n">
         <v>54</v>
@@ -7518,7 +7518,7 @@
         <v>83</v>
       </c>
       <c r="JW3" s="27" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="JX3" s="27" t="n">
         <v>48</v>
@@ -7767,7 +7767,7 @@
         <v>117.323328112055</v>
       </c>
       <c r="NB3" s="23" t="n">
-        <v>17.011654439911</v>
+        <v>3.14198123056293</v>
       </c>
       <c r="NC3" s="23" t="n">
         <v>55.4040107256464</v>
@@ -7806,7 +7806,7 @@
         <v>100.1875317907</v>
       </c>
       <c r="NO3" s="23" t="n">
-        <v>21.6245670015017</v>
+        <v>9.08260253494678</v>
       </c>
       <c r="NP3" s="23" t="n">
         <v>107.773014854969</v>
@@ -7845,7 +7845,7 @@
         <v>137.704563137612</v>
       </c>
       <c r="OB3" s="23" t="n">
-        <v>19.9724899609038</v>
+        <v>3.69086287583923</v>
       </c>
       <c r="OC3" s="23" t="n">
         <v>63.8425278565321</v>
@@ -7884,7 +7884,7 @@
         <v>116.075166654765</v>
       </c>
       <c r="OO3" s="23" t="n">
-        <v>24.9473534986623</v>
+        <v>10.5269105847758</v>
       </c>
       <c r="OP3" s="23" t="n">
         <v>123.809912115067</v>
@@ -8715,7 +8715,7 @@
         <v>49</v>
       </c>
       <c r="JJ4" s="27" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="JK4" s="27" t="n">
         <v>45</v>
@@ -8754,7 +8754,7 @@
         <v>55</v>
       </c>
       <c r="JW4" s="27" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="JX4" s="27" t="n">
         <v>51</v>
@@ -9003,7 +9003,7 @@
         <v>46.2569024602887</v>
       </c>
       <c r="NB4" s="23" t="n">
-        <v>53.1939097284581</v>
+        <v>57.7881992700524</v>
       </c>
       <c r="NC4" s="23" t="n">
         <v>40.6174315726002</v>
@@ -9015,7 +9015,7 @@
         <v>50.5458394252474</v>
       </c>
       <c r="NF4" s="23" t="n">
-        <v>25.6727508551648</v>
+        <v>25.6727508551649</v>
       </c>
       <c r="NG4" s="23" t="n">
         <v>32.4640947364053</v>
@@ -9042,7 +9042,7 @@
         <v>28.9204926360807</v>
       </c>
       <c r="NO4" s="23" t="n">
-        <v>32.4176693416491</v>
+        <v>30.1242536215768</v>
       </c>
       <c r="NP4" s="23" t="n">
         <v>25.5731126250819</v>
@@ -9081,13 +9081,13 @@
         <v>78.7006513591159</v>
       </c>
       <c r="OB4" s="23" t="n">
-        <v>90.4794216105559</v>
+        <v>98.2919233098529</v>
       </c>
       <c r="OC4" s="23" t="n">
         <v>68.6958772623984</v>
       </c>
       <c r="OD4" s="23" t="n">
-        <v>62.53628278916</v>
+        <v>62.5362827891599</v>
       </c>
       <c r="OE4" s="23" t="n">
         <v>85.95796252536</v>
@@ -9099,7 +9099,7 @@
         <v>54.3079386002305</v>
       </c>
       <c r="OH4" s="23" t="n">
-        <v>0.340712220215133</v>
+        <v>0.340712220215132</v>
       </c>
       <c r="OI4" s="23" t="n">
         <v>44.7075980646423</v>
@@ -9120,7 +9120,7 @@
         <v>40.0105653644774</v>
       </c>
       <c r="OO4" s="23" t="n">
-        <v>44.7470796119325</v>
+        <v>41.5311198776367</v>
       </c>
       <c r="OP4" s="23" t="n">
         <v>35.036702621778</v>
@@ -9951,7 +9951,7 @@
         <v>68</v>
       </c>
       <c r="JJ5" s="27" t="n">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="JK5" s="27" t="n">
         <v>64</v>
@@ -9990,7 +9990,7 @@
         <v>56</v>
       </c>
       <c r="JW5" s="27" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="JX5" s="27" t="n">
         <v>53</v>
@@ -10239,7 +10239,7 @@
         <v>85.7940962185773</v>
       </c>
       <c r="NB5" s="23" t="n">
-        <v>37.3024409358371</v>
+        <v>78.1608849503045</v>
       </c>
       <c r="NC5" s="23" t="n">
         <v>77.9065108076848</v>
@@ -10278,7 +10278,7 @@
         <v>58.3104575189475</v>
       </c>
       <c r="NO5" s="23" t="n">
-        <v>24.285683048698</v>
+        <v>39.3662659394878</v>
       </c>
       <c r="NP5" s="23" t="n">
         <v>83.7855642707251</v>
@@ -10314,10 +10314,10 @@
         <v>0</v>
       </c>
       <c r="OA5" s="23" t="n">
-        <v>79.2572403521155</v>
+        <v>79.2572403521154</v>
       </c>
       <c r="OB5" s="23" t="n">
-        <v>34.4713706018905</v>
+        <v>72.1947359100883</v>
       </c>
       <c r="OC5" s="23" t="n">
         <v>71.9788398868712</v>
@@ -10356,7 +10356,7 @@
         <v>41.0599362977923</v>
       </c>
       <c r="OO5" s="23" t="n">
-        <v>17.0860637170125</v>
+        <v>27.7031552536311</v>
       </c>
       <c r="OP5" s="23" t="n">
         <v>59.061514477926</v>
@@ -11187,7 +11187,7 @@
         <v>99</v>
       </c>
       <c r="JJ6" s="27" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="JK6" s="27" t="n">
         <v>98</v>
@@ -11475,7 +11475,7 @@
         <v>281.358733659431</v>
       </c>
       <c r="NB6" s="23" t="n">
-        <v>262.406396881789</v>
+        <v>282.909022125377</v>
       </c>
       <c r="NC6" s="23" t="n">
         <v>274.812565316584</v>
@@ -11514,7 +11514,7 @@
         <v>247.397482759081</v>
       </c>
       <c r="NO6" s="23" t="n">
-        <v>197.755366389805</v>
+        <v>240.32600179043</v>
       </c>
       <c r="NP6" s="23" t="n">
         <v>318.831826463656</v>
@@ -11553,7 +11553,7 @@
         <v>253.679355736826</v>
       </c>
       <c r="OB6" s="23" t="n">
-        <v>236.501124771856</v>
+        <v>254.985590802148</v>
       </c>
       <c r="OC6" s="23" t="n">
         <v>247.683878413021</v>
@@ -11592,7 +11592,7 @@
         <v>184.897571963874</v>
       </c>
       <c r="OO6" s="23" t="n">
-        <v>147.672115001314</v>
+        <v>179.344973662782</v>
       </c>
       <c r="OP6" s="23" t="n">
         <v>238.072938604179</v>
@@ -12423,7 +12423,7 @@
         <v>79</v>
       </c>
       <c r="JJ7" s="27" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="JK7" s="27" t="n">
         <v>94</v>
@@ -12462,7 +12462,7 @@
         <v>79</v>
       </c>
       <c r="JW7" s="27" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="JX7" s="27" t="n">
         <v>96</v>
@@ -12711,7 +12711,7 @@
         <v>119.342934038794</v>
       </c>
       <c r="NB7" s="23" t="n">
-        <v>120.693151951277</v>
+        <v>140.47556642207</v>
       </c>
       <c r="NC7" s="23" t="n">
         <v>226.881109944851</v>
@@ -12750,7 +12750,7 @@
         <v>214.490657324609</v>
       </c>
       <c r="NO7" s="23" t="n">
-        <v>82.2969344855926</v>
+        <v>166.375481097491</v>
       </c>
       <c r="NP7" s="23" t="n">
         <v>225.534652280655</v>
@@ -12789,7 +12789,7 @@
         <v>127.628782669497</v>
       </c>
       <c r="OB7" s="23" t="n">
-        <v>128.905833428549</v>
+        <v>150.258028876184</v>
       </c>
       <c r="OC7" s="23" t="n">
         <v>242.29122138924</v>
@@ -12828,7 +12828,7 @@
         <v>217.968064111516</v>
       </c>
       <c r="OO7" s="23" t="n">
-        <v>83.5408998486035</v>
+        <v>169.56437602125</v>
       </c>
       <c r="OP7" s="23" t="n">
         <v>228.543558431621</v>
@@ -13659,7 +13659,7 @@
         <v>92</v>
       </c>
       <c r="JJ8" s="27" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="JK8" s="27" t="n">
         <v>74</v>
@@ -13698,7 +13698,7 @@
         <v>90</v>
       </c>
       <c r="JW8" s="27" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="JX8" s="27" t="n">
         <v>67</v>
@@ -13947,7 +13947,7 @@
         <v>191.205018898703</v>
       </c>
       <c r="NB8" s="23" t="n">
-        <v>171.69430268455</v>
+        <v>165.841087820304</v>
       </c>
       <c r="NC8" s="23" t="n">
         <v>109.078326055277</v>
@@ -13986,7 +13986,7 @@
         <v>188.475055226975</v>
       </c>
       <c r="NO8" s="23" t="n">
-        <v>119.830003902458</v>
+        <v>81.9311902905521</v>
       </c>
       <c r="NP8" s="23" t="n">
         <v>81.229156086671</v>
@@ -14025,7 +14025,7 @@
         <v>167.951669108002</v>
       </c>
       <c r="OB8" s="23" t="n">
-        <v>150.813743688819</v>
+        <v>145.672366063063</v>
       </c>
       <c r="OC8" s="23" t="n">
         <v>99.0898348698581</v>
@@ -14064,7 +14064,7 @@
         <v>134.005453297153</v>
       </c>
       <c r="OO8" s="23" t="n">
-        <v>85.2020911262495</v>
+        <v>58.2491742039815</v>
       </c>
       <c r="OP8" s="23" t="n">
         <v>61.4445824420369</v>
@@ -14895,7 +14895,7 @@
         <v>27</v>
       </c>
       <c r="JJ9" s="27" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="JK9" s="27" t="n">
         <v>45</v>
@@ -14934,7 +14934,7 @@
         <v>30</v>
       </c>
       <c r="JW9" s="27" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="JX9" s="27" t="n">
         <v>57</v>
@@ -15183,7 +15183,7 @@
         <v>20.8338240073862</v>
       </c>
       <c r="NB9" s="23" t="n">
-        <v>16.2577007736515</v>
+        <v>13.6192087208813</v>
       </c>
       <c r="NC9" s="23" t="n">
         <v>41.5031106420557</v>
@@ -15216,13 +15216,13 @@
         <v>45.8075326573284</v>
       </c>
       <c r="NM9" s="23" t="n">
-        <v>54.3401515905647</v>
+        <v>54.4287172669241</v>
       </c>
       <c r="NN9" s="23" t="n">
         <v>76.8200246924354</v>
       </c>
       <c r="NO9" s="23" t="n">
-        <v>35.0423787864745</v>
+        <v>26.3966354599835</v>
       </c>
       <c r="NP9" s="23" t="n">
         <v>45.7650865975849</v>
@@ -15255,13 +15255,13 @@
         <v>83.4038301585497</v>
       </c>
       <c r="NZ9" s="23" t="n">
-        <v>76.027772567431</v>
+        <v>76.0498181113261</v>
       </c>
       <c r="OA9" s="23" t="n">
         <v>40.4442430955068</v>
       </c>
       <c r="OB9" s="23" t="n">
-        <v>31.4279734183963</v>
+        <v>26.2845715001041</v>
       </c>
       <c r="OC9" s="23" t="n">
         <v>78.3111587834872</v>
@@ -15294,13 +15294,13 @@
         <v>87.848543965725</v>
       </c>
       <c r="OM9" s="23" t="n">
-        <v>103.836739761746</v>
+        <v>103.948171527145</v>
       </c>
       <c r="ON9" s="23" t="n">
         <v>116.478675223817</v>
       </c>
       <c r="OO9" s="23" t="n">
-        <v>52.0940114253976</v>
+        <v>39.326312655874</v>
       </c>
       <c r="OP9" s="23" t="n">
         <v>67.140584360414</v>
@@ -15333,7 +15333,7 @@
         <v>125.494524497692</v>
       </c>
       <c r="OZ9" s="23" t="n">
-        <v>111.953235707364</v>
+        <v>111.986479534127</v>
       </c>
     </row>
     <row r="10">
@@ -16131,7 +16131,7 @@
         <v>40</v>
       </c>
       <c r="JJ10" s="27" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="JK10" s="27" t="n">
         <v>58</v>
@@ -16170,7 +16170,7 @@
         <v>32</v>
       </c>
       <c r="JW10" s="27" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="JX10" s="27" t="n">
         <v>57</v>
@@ -16419,7 +16419,7 @@
         <v>34.8367384887128</v>
       </c>
       <c r="NB10" s="23" t="n">
-        <v>95.4344294722853</v>
+        <v>91.7717841289426</v>
       </c>
       <c r="NC10" s="23" t="n">
         <v>63.5086082415396</v>
@@ -16431,7 +16431,7 @@
         <v>64.6306849495215</v>
       </c>
       <c r="NF10" s="23" t="n">
-        <v>56.9191126054963</v>
+        <v>56.9191126054964</v>
       </c>
       <c r="NG10" s="23" t="n">
         <v>65.9516507044135</v>
@@ -16452,13 +16452,13 @@
         <v>92.4504852183565</v>
       </c>
       <c r="NM10" s="23" t="n">
-        <v>32.127364837001</v>
+        <v>32.1273648370011</v>
       </c>
       <c r="NN10" s="23" t="n">
         <v>61.5902989919776</v>
       </c>
       <c r="NO10" s="23" t="n">
-        <v>46.2678173554966</v>
+        <v>100.32684917476</v>
       </c>
       <c r="NP10" s="23" t="n">
         <v>83.5823939937704</v>
@@ -16497,7 +16497,7 @@
         <v>43.3702089976161</v>
       </c>
       <c r="OB10" s="23" t="n">
-        <v>119.179945169641</v>
+        <v>114.544771853045</v>
       </c>
       <c r="OC10" s="23" t="n">
         <v>78.6296145938071</v>
@@ -16536,7 +16536,7 @@
         <v>52.5782117517509</v>
       </c>
       <c r="OO10" s="23" t="n">
-        <v>39.3051110813093</v>
+        <v>85.404451684061</v>
       </c>
       <c r="OP10" s="23" t="n">
         <v>71.0640541730264</v>
@@ -17367,7 +17367,7 @@
         <v>17</v>
       </c>
       <c r="JJ11" s="27" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="JK11" s="27" t="n">
         <v>23</v>
@@ -17406,7 +17406,7 @@
         <v>16</v>
       </c>
       <c r="JW11" s="27" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="JX11" s="27" t="n">
         <v>23</v>
@@ -17655,13 +17655,13 @@
         <v>11.4719784442551</v>
       </c>
       <c r="NB11" s="23" t="n">
-        <v>23.2810038753656</v>
+        <v>18.4020240303908</v>
       </c>
       <c r="NC11" s="23" t="n">
         <v>15.8294281365048</v>
       </c>
       <c r="ND11" s="23" t="n">
-        <v>27.2152039828163</v>
+        <v>27.2152039828164</v>
       </c>
       <c r="NE11" s="23" t="n">
         <v>22.7679456305678</v>
@@ -17670,7 +17670,7 @@
         <v>16.1729271888802</v>
       </c>
       <c r="NG11" s="23" t="n">
-        <v>30.8399700593177</v>
+        <v>30.8399700593178</v>
       </c>
       <c r="NH11" s="23" t="n">
         <v>12.8527927032356</v>
@@ -17682,10 +17682,10 @@
         <v>13.5146949461143</v>
       </c>
       <c r="NK11" s="23" t="n">
-        <v>33.3544873713657</v>
+        <v>33.3544873713658</v>
       </c>
       <c r="NL11" s="23" t="n">
-        <v>33.5890640983317</v>
+        <v>33.5890640983318</v>
       </c>
       <c r="NM11" s="23" t="n">
         <v>0</v>
@@ -17694,7 +17694,7 @@
         <v>11.2713427288303</v>
       </c>
       <c r="NO11" s="23" t="n">
-        <v>14.6021639810745</v>
+        <v>4.98471721830082</v>
       </c>
       <c r="NP11" s="23" t="n">
         <v>14.811463835389</v>
@@ -17712,7 +17712,7 @@
         <v>23.8865001827917</v>
       </c>
       <c r="NU11" s="23" t="n">
-        <v>2.12321394730008</v>
+        <v>2.17222936511013</v>
       </c>
       <c r="NV11" s="23" t="n">
         <v>0</v>
@@ -17733,7 +17733,7 @@
         <v>21.501400215027</v>
       </c>
       <c r="OB11" s="23" t="n">
-        <v>43.6582934703797</v>
+        <v>34.4809184087645</v>
       </c>
       <c r="OC11" s="23" t="n">
         <v>29.6242163063856</v>
@@ -17772,7 +17772,7 @@
         <v>16.8355873424264</v>
       </c>
       <c r="OO11" s="23" t="n">
-        <v>21.6983442716179</v>
+        <v>7.43027680185661</v>
       </c>
       <c r="OP11" s="23" t="n">
         <v>21.9720961019736</v>
@@ -17790,7 +17790,7 @@
         <v>35.6567565348414</v>
       </c>
       <c r="OU11" s="23" t="n">
-        <v>2.91339148915049</v>
+        <v>2.96472008395307</v>
       </c>
       <c r="OV11" s="23" t="n">
         <v>0</v>
@@ -18947,52 +18947,52 @@
         <v>868</v>
       </c>
       <c r="JH1" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="JI1" s="17" t="s">
         <v>870</v>
       </c>
-      <c r="JI1" s="17" t="s">
+      <c r="JJ1" s="17" t="s">
         <v>871</v>
       </c>
-      <c r="JJ1" s="17" t="s">
-        <v>872</v>
-      </c>
       <c r="JK1" s="17" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="JL1" s="17" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="JM1" s="17" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="JN1" s="17" t="s">
+        <v>879</v>
+      </c>
+      <c r="JO1" s="17" t="s">
         <v>880</v>
       </c>
-      <c r="JO1" s="17" t="s">
+      <c r="JP1" s="17" t="s">
         <v>881</v>
       </c>
-      <c r="JP1" s="17" t="s">
+      <c r="JQ1" s="17" t="s">
         <v>882</v>
       </c>
-      <c r="JQ1" s="17" t="s">
+      <c r="JR1" s="17" t="s">
         <v>883</v>
       </c>
-      <c r="JR1" s="17" t="s">
+      <c r="JS1" s="17" t="s">
         <v>884</v>
       </c>
-      <c r="JS1" s="17" t="s">
-        <v>885</v>
-      </c>
       <c r="JT1" s="17" t="s">
+        <v>886</v>
+      </c>
+      <c r="JU1" s="17" t="s">
         <v>887</v>
       </c>
-      <c r="JU1" s="17" t="s">
+      <c r="JV1" s="17" t="s">
         <v>888</v>
       </c>
-      <c r="JV1" s="17" t="s">
-        <v>889</v>
-      </c>
       <c r="JW1" s="17" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="JX1" s="17" t="s">
         <v>892</v>
@@ -20173,7 +20173,7 @@
         <v>78</v>
       </c>
       <c r="JJ2" s="27" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="JK2" s="27" t="n">
         <v>83</v>
@@ -20212,7 +20212,7 @@
         <v>75</v>
       </c>
       <c r="JW2" s="27" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="JX2" s="27" t="n">
         <v>85</v>
@@ -20461,7 +20461,7 @@
         <v>117.312116899188</v>
       </c>
       <c r="NB2" s="23" t="n">
-        <v>102.211035118237</v>
+        <v>121.440843085412</v>
       </c>
       <c r="NC2" s="23" t="n">
         <v>147.749566513762</v>
@@ -20494,13 +20494,13 @@
         <v>109.501365093349</v>
       </c>
       <c r="NM2" s="23" t="n">
-        <v>10.8213053345218</v>
+        <v>10.8253658009493</v>
       </c>
       <c r="NN2" s="23" t="n">
         <v>142.891623579944</v>
       </c>
       <c r="NO2" s="23" t="n">
-        <v>71.5487559652744</v>
+        <v>110.471533216608</v>
       </c>
       <c r="NP2" s="23" t="n">
         <v>154.348158200293</v>
@@ -20518,7 +20518,7 @@
         <v>85.5078660379096</v>
       </c>
       <c r="NU2" s="23" t="n">
-        <v>143.981425622932</v>
+        <v>143.982618644189</v>
       </c>
       <c r="NV2" s="23" t="n">
         <v>162.213263447858</v>
@@ -20533,13 +20533,13 @@
         <v>108.36046751482</v>
       </c>
       <c r="NZ2" s="23" t="n">
-        <v>12.6896214220852</v>
+        <v>12.6906321431065</v>
       </c>
       <c r="OA2" s="23" t="n">
         <v>117.153378985886</v>
       </c>
       <c r="OB2" s="23" t="n">
-        <v>103.973930253546</v>
+        <v>122.523033390055</v>
       </c>
       <c r="OC2" s="23" t="n">
         <v>152.100205832046</v>
@@ -20554,7 +20554,7 @@
         <v>144.477633800058</v>
       </c>
       <c r="OG2" s="23" t="n">
-        <v>95.2776509351118</v>
+        <v>95.2776509351119</v>
       </c>
       <c r="OH2" s="23" t="n">
         <v>147.302056163125</v>
@@ -20572,13 +20572,13 @@
         <v>114.040127496428</v>
       </c>
       <c r="OM2" s="23" t="n">
-        <v>14.4084025793826</v>
+        <v>14.4135113863263</v>
       </c>
       <c r="ON2" s="23" t="n">
         <v>131.089527021018</v>
       </c>
       <c r="OO2" s="23" t="n">
-        <v>63.2289343780677</v>
+        <v>100.311668071496</v>
       </c>
       <c r="OP2" s="23" t="n">
         <v>139.762065830411</v>
@@ -20596,7 +20596,7 @@
         <v>74.1512036392973</v>
       </c>
       <c r="OU2" s="23" t="n">
-        <v>128.181612175162</v>
+        <v>128.182861498486</v>
       </c>
       <c r="OV2" s="23" t="n">
         <v>144.944179701337</v>
@@ -20611,7 +20611,7 @@
         <v>100.185422723694</v>
       </c>
       <c r="OZ2" s="23" t="n">
-        <v>14.2846356089992</v>
+        <v>14.2861597371721</v>
       </c>
     </row>
   </sheetData>
@@ -22905,10 +22905,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
+        <v>668</v>
+      </c>
+      <c r="B271" t="s">
         <v>869</v>
-      </c>
-      <c r="B271" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="272">
@@ -22916,7 +22916,7 @@
         <v>671</v>
       </c>
       <c r="B272" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="273">
@@ -22924,39 +22924,39 @@
         <v>673</v>
       </c>
       <c r="B273" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
+        <v>872</v>
+      </c>
+      <c r="B274" t="s">
         <v>873</v>
-      </c>
-      <c r="B274" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
+        <v>874</v>
+      </c>
+      <c r="B275" t="s">
         <v>875</v>
-      </c>
-      <c r="B275" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
+        <v>876</v>
+      </c>
+      <c r="B276" t="s">
         <v>877</v>
-      </c>
-      <c r="B276" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
+        <v>878</v>
+      </c>
+      <c r="B277" t="s">
         <v>879</v>
-      </c>
-      <c r="B277" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="278">
@@ -22964,7 +22964,7 @@
         <v>671</v>
       </c>
       <c r="B278" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="279">
@@ -22972,15 +22972,15 @@
         <v>673</v>
       </c>
       <c r="B279" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B280" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="281">
@@ -22988,7 +22988,7 @@
         <v>642</v>
       </c>
       <c r="B281" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="282">
@@ -22996,23 +22996,23 @@
         <v>666</v>
       </c>
       <c r="B282" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
+        <v>885</v>
+      </c>
+      <c r="B283" t="s">
         <v>886</v>
-      </c>
-      <c r="B283" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>877</v>
+        <v>786</v>
       </c>
       <c r="B284" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="285">
@@ -23020,20 +23020,20 @@
         <v>673</v>
       </c>
       <c r="B285" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
+        <v>889</v>
+      </c>
+      <c r="B286" t="s">
         <v>890</v>
-      </c>
-      <c r="B286" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>869</v>
+        <v>891</v>
       </c>
       <c r="B287" t="s">
         <v>892</v>
@@ -23057,7 +23057,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B290" t="s">
         <v>896</v>
@@ -23065,7 +23065,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B291" t="s">
         <v>897</v>
@@ -23073,7 +23073,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B292" t="s">
         <v>898</v>

--- a/inst/testdata/examples_of_output/testoutput_ejamit_10pts_1miles.xlsx
+++ b/inst/testdata/examples_of_output/testoutput_ejamit_10pts_1miles.xlsx
@@ -2207,72 +2207,75 @@
     <t xml:space="preserve">State percentile for % Asian (non-Hispanic, single race)</t>
   </si>
   <si>
+    <t xml:space="preserve">State percentile for % American Indian and Alaska Native (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % Native Hawaiian and Other Pacific Islander (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % Other race (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % Two or more races (non-Hispanic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % White (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % with Disabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for %Low life expectancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Demographic Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Supplemental EJ Index for Supplemental Demographic Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % Low Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % in limited English-speaking Households</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % Unemployed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % with Less Than High School Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % under Age 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % over Age 64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % People of Color</t>
+  </si>
+  <si>
     <t xml:space="preserve">26</t>
   </si>
   <si>
-    <t xml:space="preserve">State percentile for % American Indian and Alaska Native (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % Native Hawaiian and Other Pacific Islander (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % Other race (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % Two or more races (non-Hispanic)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % White (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % with Disabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for %Low life expectancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average for Demographic Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average for Supplemental EJ Index for Supplemental Demographic Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average for % Low Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average for % in limited English-speaking Households</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average for % Unemployed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average for % with Less Than High School Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average for % under Age 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average for % over Age 64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average for % People of Color</t>
-  </si>
-  <si>
     <t xml:space="preserve">State Average for % Hispanic or Latino</t>
   </si>
   <si>
@@ -2531,13 +2534,16 @@
     <t xml:space="preserve">State percentile for Superfund Proximity (site count/km distance)</t>
   </si>
   <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
     <t xml:space="preserve">State percentile for RMP Proximity (facility count/km distance)</t>
   </si>
   <si>
     <t xml:space="preserve">State percentile for Hazardous Waste Proximity (facility count/km distance)</t>
   </si>
   <si>
-    <t xml:space="preserve">44</t>
+    <t xml:space="preserve">47</t>
   </si>
   <si>
     <t xml:space="preserve">State percentile for Underground Storage Tanks (UST) indicator</t>
@@ -2630,75 +2636,69 @@
     <t xml:space="preserve">US percentile for EJ Index for Particulate Matter</t>
   </si>
   <si>
+    <t xml:space="preserve">US percentile for EJ Index for Ozone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Nitrogen Dioxide (NO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Diesel Particulate Matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Toxic Releases to Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Traffic Proximity and Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Lead Paint Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Superfund Proximity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for RMP Proximity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Hazardous Waste Proximity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Underground Storage Tanks (UST) indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Wastewater Discharge Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Drinking Water Non-Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Particulate Matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Ozone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Nitrogen Dioxide (NO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Diesel Particulate Matter</t>
+  </si>
+  <si>
     <t xml:space="preserve">76</t>
   </si>
   <si>
-    <t xml:space="preserve">US percentile for EJ Index for Ozone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Nitrogen Dioxide (NO2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Diesel Particulate Matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Toxic Releases to Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Traffic Proximity and Volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Lead Paint Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Superfund Proximity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for RMP Proximity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Hazardous Waste Proximity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Underground Storage Tanks (UST) indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Wastewater Discharge Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Drinking Water Non-Compliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Supplemental EJ Index for Particulate Matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Supplemental EJ Index for Ozone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Supplemental EJ Index for Nitrogen Dioxide (NO2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Supplemental EJ Index for Diesel Particulate Matter</t>
-  </si>
-  <si>
     <t xml:space="preserve">US percentile for Supplemental EJ Index for Toxic Releases to Air</t>
   </si>
   <si>
@@ -3047,7 +3047,7 @@
     <t xml:space="preserve">US type of raw score for Particulate Matter EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">102.211</t>
+    <t xml:space="preserve">121.441</t>
   </si>
   <si>
     <t xml:space="preserve">US type of raw score for Ozone EJ Index</t>
@@ -3113,7 +3113,7 @@
     <t xml:space="preserve">US type of raw score for Wastewater Discharge EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">10.821</t>
+    <t xml:space="preserve">10.825</t>
   </si>
   <si>
     <t xml:space="preserve">US type of raw score for Drinking Water Non-Compliance EJ Index</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">State type of raw score for Particulate Matter EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">71.549</t>
+    <t xml:space="preserve">110.472</t>
   </si>
   <si>
     <t xml:space="preserve">State type of raw score for Ozone EJ Index</t>
@@ -3161,7 +3161,7 @@
     <t xml:space="preserve">State type of raw score for Lead Paint EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">143.981</t>
+    <t xml:space="preserve">143.983</t>
   </si>
   <si>
     <t xml:space="preserve">State type of raw score for Superfund Proximity EJ Index</t>
@@ -3191,7 +3191,7 @@
     <t xml:space="preserve">State type of raw score for Wastewater Discharge EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">12.69</t>
+    <t xml:space="preserve">12.691</t>
   </si>
   <si>
     <t xml:space="preserve">State type of raw score for Drinking Water Non-Compliance EJ Index</t>
@@ -3203,7 +3203,7 @@
     <t xml:space="preserve">US type of raw score for Particulate Matter Supplemental EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">103.974</t>
+    <t xml:space="preserve">122.523</t>
   </si>
   <si>
     <t xml:space="preserve">US type of raw score for Ozone Supplemental EJ Index</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">US type of raw score for Wastewater Discharge Supplemental EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">14.408</t>
+    <t xml:space="preserve">14.414</t>
   </si>
   <si>
     <t xml:space="preserve">US type of raw score for Drinking Water Non-Compliance Supplemental EJ Index</t>
@@ -3281,7 +3281,7 @@
     <t xml:space="preserve">State type of raw score for Particulate Matter Supplemental EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">63.229</t>
+    <t xml:space="preserve">100.312</t>
   </si>
   <si>
     <t xml:space="preserve">State type of raw score for Ozone Supplemental EJ Index</t>
@@ -3317,7 +3317,7 @@
     <t xml:space="preserve">State type of raw score for Lead Paint Supplemental EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">128.182</t>
+    <t xml:space="preserve">128.183</t>
   </si>
   <si>
     <t xml:space="preserve">State type of raw score for Superfund Proximity Supplemental EJ Index</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">State type of raw score for Wastewater Discharge Supplemental EJ Index</t>
   </si>
   <si>
-    <t xml:space="preserve">14.285</t>
+    <t xml:space="preserve">14.286</t>
   </si>
   <si>
     <t xml:space="preserve">State type of raw score for Drinking Water Non-Compliance Supplemental EJ Index</t>
@@ -4739,10 +4739,10 @@
         <v>727</v>
       </c>
       <c r="FV1" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="FW1" s="12" t="s">
         <v>729</v>
-      </c>
-      <c r="FW1" s="12" t="s">
-        <v>730</v>
       </c>
       <c r="FX1" s="12" t="s">
         <v>731</v>
@@ -4787,244 +4787,244 @@
         <v>749</v>
       </c>
       <c r="GL1" s="8" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="GM1" s="8" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="GN1" s="8" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="GO1" s="8" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="GP1" s="8" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="GQ1" s="8" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="GR1" s="8" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="GS1" s="8" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="GT1" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="GU1" s="8" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="GV1" s="13" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="GW1" s="13" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="GX1" s="13" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="GY1" s="13" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="GZ1" s="13" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="HA1" s="13" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="HB1" s="13" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="HC1" s="13" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="HD1" s="13" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="HE1" s="13" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="HF1" s="13" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="HG1" s="13" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="HH1" s="13" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="HI1" s="14" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="HJ1" s="14" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="HK1" s="14" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="HL1" s="14" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="HM1" s="14" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="HN1" s="14" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="HO1" s="14" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="HP1" s="14" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="HQ1" s="14" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="HR1" s="14" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="HS1" s="14" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="HT1" s="14" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="HU1" s="14" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="HV1" s="15" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="HW1" s="15" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="HX1" s="15" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="HY1" s="15" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="HZ1" s="15" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="IA1" s="15" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="IB1" s="15" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="IC1" s="15" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="ID1" s="15" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="IE1" s="15" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="IF1" s="15" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="IG1" s="15" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="IH1" s="15" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="II1" s="16" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="IJ1" s="16" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="IK1" s="16" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="IL1" s="16" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="IM1" s="16" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="IN1" s="16" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="IO1" s="16" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="IP1" s="16" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="IQ1" s="16" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="IR1" s="16" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="IS1" s="16" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="IT1" s="16" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="IU1" s="16" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="IV1" s="15" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="IW1" s="15" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="IX1" s="15" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="IY1" s="15" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="IZ1" s="15" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="JA1" s="15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="JB1" s="15" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="JC1" s="15" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="JD1" s="15" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="JE1" s="15" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="JF1" s="15" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="JG1" s="15" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="JH1" s="15" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="JI1" s="17" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="JJ1" s="17" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="JK1" s="17" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="JL1" s="17" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="JM1" s="17" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="JN1" s="17" t="s">
         <v>876</v>
@@ -5033,34 +5033,34 @@
         <v>878</v>
       </c>
       <c r="JP1" s="17" t="s">
+        <v>879</v>
+      </c>
+      <c r="JQ1" s="17" t="s">
         <v>880</v>
       </c>
-      <c r="JQ1" s="17" t="s">
+      <c r="JR1" s="17" t="s">
         <v>881</v>
       </c>
-      <c r="JR1" s="17" t="s">
+      <c r="JS1" s="17" t="s">
         <v>882</v>
       </c>
-      <c r="JS1" s="17" t="s">
+      <c r="JT1" s="17" t="s">
         <v>883</v>
       </c>
-      <c r="JT1" s="17" t="s">
+      <c r="JU1" s="17" t="s">
         <v>884</v>
       </c>
-      <c r="JU1" s="17" t="s">
-        <v>885</v>
-      </c>
       <c r="JV1" s="17" t="s">
+        <v>886</v>
+      </c>
+      <c r="JW1" s="17" t="s">
         <v>887</v>
       </c>
-      <c r="JW1" s="17" t="s">
+      <c r="JX1" s="17" t="s">
         <v>888</v>
       </c>
-      <c r="JX1" s="17" t="s">
-        <v>889</v>
-      </c>
       <c r="JY1" s="17" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="JZ1" s="17" t="s">
         <v>892</v>
@@ -6191,10 +6191,10 @@
         <v>0</v>
       </c>
       <c r="IR2" s="27" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="IS2" s="27" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="IT2" s="27" t="n">
         <v>10</v>
@@ -6243,7 +6243,7 @@
         <v>65</v>
       </c>
       <c r="JJ2" s="27" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="JK2" s="27" t="n">
         <v>45</v>
@@ -6282,7 +6282,7 @@
         <v>61</v>
       </c>
       <c r="JW2" s="27" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="JX2" s="27" t="n">
         <v>35</v>
@@ -6531,7 +6531,7 @@
         <v>76.952104370838</v>
       </c>
       <c r="NB2" s="23" t="n">
-        <v>7.10327117269274</v>
+        <v>22.4936920468603</v>
       </c>
       <c r="NC2" s="23" t="n">
         <v>40.0868661456388</v>
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="NJ2" s="23" t="n">
-        <v>0.11220260640833</v>
+        <v>0.112202606408331</v>
       </c>
       <c r="NK2" s="23" t="n">
         <v>69.4594241523752</v>
@@ -6570,7 +6570,7 @@
         <v>32.5272085203054</v>
       </c>
       <c r="NO2" s="23" t="n">
-        <v>4.64674407432935</v>
+        <v>48.7908127804582</v>
       </c>
       <c r="NP2" s="23" t="n">
         <v>67.1034011881344</v>
@@ -6609,7 +6609,7 @@
         <v>88.2876496374691</v>
       </c>
       <c r="OB2" s="23" t="n">
-        <v>8.14962919730484</v>
+        <v>25.8071591247987</v>
       </c>
       <c r="OC2" s="23" t="n">
         <v>45.5515987340029</v>
@@ -6648,7 +6648,7 @@
         <v>29.6120790719457</v>
       </c>
       <c r="OO2" s="23" t="n">
-        <v>4.23029701027796</v>
+        <v>44.4181186079186</v>
       </c>
       <c r="OP2" s="23" t="n">
         <v>60.5340087444893</v>
@@ -7209,13 +7209,13 @@
         <v>82</v>
       </c>
       <c r="FV3" s="27" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="FW3" s="27" t="n">
         <v>0</v>
       </c>
       <c r="FX3" s="27" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="FY3" s="27" t="n">
         <v>61</v>
@@ -7424,13 +7424,13 @@
         <v>0</v>
       </c>
       <c r="IQ3" s="27" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="IR3" s="27" t="n">
         <v>0</v>
       </c>
       <c r="IS3" s="27" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="IT3" s="27" t="n">
         <v>65</v>
@@ -7479,7 +7479,7 @@
         <v>78</v>
       </c>
       <c r="JJ3" s="27" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="JK3" s="27" t="n">
         <v>54</v>
@@ -7518,7 +7518,7 @@
         <v>83</v>
       </c>
       <c r="JW3" s="27" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="JX3" s="27" t="n">
         <v>48</v>
@@ -7767,7 +7767,7 @@
         <v>117.323328112055</v>
       </c>
       <c r="NB3" s="23" t="n">
-        <v>17.011654439911</v>
+        <v>3.14198123056293</v>
       </c>
       <c r="NC3" s="23" t="n">
         <v>55.4040107256464</v>
@@ -7806,7 +7806,7 @@
         <v>100.1875317907</v>
       </c>
       <c r="NO3" s="23" t="n">
-        <v>21.6245670015017</v>
+        <v>9.08260253494678</v>
       </c>
       <c r="NP3" s="23" t="n">
         <v>107.773014854969</v>
@@ -7845,7 +7845,7 @@
         <v>137.704563137612</v>
       </c>
       <c r="OB3" s="23" t="n">
-        <v>19.9724899609038</v>
+        <v>3.69086287583923</v>
       </c>
       <c r="OC3" s="23" t="n">
         <v>63.8425278565321</v>
@@ -7884,7 +7884,7 @@
         <v>116.075166654765</v>
       </c>
       <c r="OO3" s="23" t="n">
-        <v>24.9473534986623</v>
+        <v>10.5269105847758</v>
       </c>
       <c r="OP3" s="23" t="n">
         <v>123.809912115067</v>
@@ -8657,7 +8657,7 @@
         <v>32</v>
       </c>
       <c r="IP4" s="27" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="IQ4" s="27" t="n">
         <v>15</v>
@@ -8666,7 +8666,7 @@
         <v>55</v>
       </c>
       <c r="IS4" s="27" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="IT4" s="27" t="n">
         <v>21</v>
@@ -8715,7 +8715,7 @@
         <v>49</v>
       </c>
       <c r="JJ4" s="27" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="JK4" s="27" t="n">
         <v>45</v>
@@ -8754,7 +8754,7 @@
         <v>55</v>
       </c>
       <c r="JW4" s="27" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="JX4" s="27" t="n">
         <v>51</v>
@@ -9003,7 +9003,7 @@
         <v>46.2569024602887</v>
       </c>
       <c r="NB4" s="23" t="n">
-        <v>53.1939097284581</v>
+        <v>57.7881992700524</v>
       </c>
       <c r="NC4" s="23" t="n">
         <v>40.6174315726002</v>
@@ -9015,7 +9015,7 @@
         <v>50.5458394252474</v>
       </c>
       <c r="NF4" s="23" t="n">
-        <v>25.6727508551648</v>
+        <v>25.6727508551649</v>
       </c>
       <c r="NG4" s="23" t="n">
         <v>32.4640947364053</v>
@@ -9042,7 +9042,7 @@
         <v>28.9204926360807</v>
       </c>
       <c r="NO4" s="23" t="n">
-        <v>32.4176693416491</v>
+        <v>30.1242536215768</v>
       </c>
       <c r="NP4" s="23" t="n">
         <v>25.5731126250819</v>
@@ -9081,13 +9081,13 @@
         <v>78.7006513591159</v>
       </c>
       <c r="OB4" s="23" t="n">
-        <v>90.4794216105559</v>
+        <v>98.2919233098529</v>
       </c>
       <c r="OC4" s="23" t="n">
         <v>68.6958772623984</v>
       </c>
       <c r="OD4" s="23" t="n">
-        <v>62.53628278916</v>
+        <v>62.5362827891599</v>
       </c>
       <c r="OE4" s="23" t="n">
         <v>85.95796252536</v>
@@ -9099,7 +9099,7 @@
         <v>54.3079386002305</v>
       </c>
       <c r="OH4" s="23" t="n">
-        <v>0.340712220215133</v>
+        <v>0.340712220215132</v>
       </c>
       <c r="OI4" s="23" t="n">
         <v>44.7075980646423</v>
@@ -9120,7 +9120,7 @@
         <v>40.0105653644774</v>
       </c>
       <c r="OO4" s="23" t="n">
-        <v>44.7470796119325</v>
+        <v>41.5311198776367</v>
       </c>
       <c r="OP4" s="23" t="n">
         <v>35.036702621778</v>
@@ -9681,13 +9681,13 @@
         <v>74</v>
       </c>
       <c r="FV5" s="27" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="FW5" s="27" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="FX5" s="27" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="FY5" s="27" t="n">
         <v>82</v>
@@ -9893,10 +9893,10 @@
         <v>54</v>
       </c>
       <c r="IP5" s="27" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="IQ5" s="27" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="IR5" s="27" t="n">
         <v>89</v>
@@ -9951,7 +9951,7 @@
         <v>68</v>
       </c>
       <c r="JJ5" s="27" t="n">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="JK5" s="27" t="n">
         <v>64</v>
@@ -9990,7 +9990,7 @@
         <v>56</v>
       </c>
       <c r="JW5" s="27" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="JX5" s="27" t="n">
         <v>53</v>
@@ -10239,7 +10239,7 @@
         <v>85.7940962185773</v>
       </c>
       <c r="NB5" s="23" t="n">
-        <v>37.3024409358371</v>
+        <v>78.1608849503045</v>
       </c>
       <c r="NC5" s="23" t="n">
         <v>77.9065108076848</v>
@@ -10278,7 +10278,7 @@
         <v>58.3104575189475</v>
       </c>
       <c r="NO5" s="23" t="n">
-        <v>24.285683048698</v>
+        <v>39.3662659394878</v>
       </c>
       <c r="NP5" s="23" t="n">
         <v>83.7855642707251</v>
@@ -10314,10 +10314,10 @@
         <v>0</v>
       </c>
       <c r="OA5" s="23" t="n">
-        <v>79.2572403521155</v>
+        <v>79.2572403521154</v>
       </c>
       <c r="OB5" s="23" t="n">
-        <v>34.4713706018905</v>
+        <v>72.1947359100883</v>
       </c>
       <c r="OC5" s="23" t="n">
         <v>71.9788398868712</v>
@@ -10356,7 +10356,7 @@
         <v>41.0599362977923</v>
       </c>
       <c r="OO5" s="23" t="n">
-        <v>17.0860637170125</v>
+        <v>27.7031552536311</v>
       </c>
       <c r="OP5" s="23" t="n">
         <v>59.061514477926</v>
@@ -10920,7 +10920,7 @@
         <v>84</v>
       </c>
       <c r="FW6" s="27" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="FX6" s="27" t="n">
         <v>83</v>
@@ -11129,7 +11129,7 @@
         <v>87</v>
       </c>
       <c r="IP6" s="27" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="IQ6" s="27" t="n">
         <v>99</v>
@@ -11187,7 +11187,7 @@
         <v>99</v>
       </c>
       <c r="JJ6" s="27" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="JK6" s="27" t="n">
         <v>98</v>
@@ -11475,7 +11475,7 @@
         <v>281.358733659431</v>
       </c>
       <c r="NB6" s="23" t="n">
-        <v>262.406396881789</v>
+        <v>282.909022125377</v>
       </c>
       <c r="NC6" s="23" t="n">
         <v>274.812565316584</v>
@@ -11514,7 +11514,7 @@
         <v>247.397482759081</v>
       </c>
       <c r="NO6" s="23" t="n">
-        <v>197.755366389805</v>
+        <v>240.32600179043</v>
       </c>
       <c r="NP6" s="23" t="n">
         <v>318.831826463656</v>
@@ -11553,7 +11553,7 @@
         <v>253.679355736826</v>
       </c>
       <c r="OB6" s="23" t="n">
-        <v>236.501124771856</v>
+        <v>254.985590802148</v>
       </c>
       <c r="OC6" s="23" t="n">
         <v>247.683878413021</v>
@@ -11592,7 +11592,7 @@
         <v>184.897571963874</v>
       </c>
       <c r="OO6" s="23" t="n">
-        <v>147.672115001314</v>
+        <v>179.344973662782</v>
       </c>
       <c r="OP6" s="23" t="n">
         <v>238.072938604179</v>
@@ -12153,13 +12153,13 @@
         <v>52</v>
       </c>
       <c r="FV7" s="27" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="FW7" s="27" t="n">
         <v>0</v>
       </c>
       <c r="FX7" s="27" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="FY7" s="27" t="n">
         <v>82</v>
@@ -12365,10 +12365,10 @@
         <v>31</v>
       </c>
       <c r="IP7" s="27" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="IQ7" s="27" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="IR7" s="27" t="n">
         <v>93</v>
@@ -12423,7 +12423,7 @@
         <v>79</v>
       </c>
       <c r="JJ7" s="27" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="JK7" s="27" t="n">
         <v>94</v>
@@ -12462,7 +12462,7 @@
         <v>79</v>
       </c>
       <c r="JW7" s="27" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="JX7" s="27" t="n">
         <v>96</v>
@@ -12711,7 +12711,7 @@
         <v>119.342934038794</v>
       </c>
       <c r="NB7" s="23" t="n">
-        <v>120.693151951277</v>
+        <v>140.47556642207</v>
       </c>
       <c r="NC7" s="23" t="n">
         <v>226.881109944851</v>
@@ -12750,7 +12750,7 @@
         <v>214.490657324609</v>
       </c>
       <c r="NO7" s="23" t="n">
-        <v>82.2969344855926</v>
+        <v>166.375481097491</v>
       </c>
       <c r="NP7" s="23" t="n">
         <v>225.534652280655</v>
@@ -12789,7 +12789,7 @@
         <v>127.628782669497</v>
       </c>
       <c r="OB7" s="23" t="n">
-        <v>128.905833428549</v>
+        <v>150.258028876184</v>
       </c>
       <c r="OC7" s="23" t="n">
         <v>242.29122138924</v>
@@ -12828,7 +12828,7 @@
         <v>217.968064111516</v>
       </c>
       <c r="OO7" s="23" t="n">
-        <v>83.5408998486035</v>
+        <v>169.56437602125</v>
       </c>
       <c r="OP7" s="23" t="n">
         <v>228.543558431621</v>
@@ -13601,7 +13601,7 @@
         <v>25</v>
       </c>
       <c r="IP8" s="27" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="IQ8" s="27" t="n">
         <v>93</v>
@@ -13659,7 +13659,7 @@
         <v>92</v>
       </c>
       <c r="JJ8" s="27" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="JK8" s="27" t="n">
         <v>74</v>
@@ -13698,7 +13698,7 @@
         <v>90</v>
       </c>
       <c r="JW8" s="27" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="JX8" s="27" t="n">
         <v>67</v>
@@ -13947,7 +13947,7 @@
         <v>191.205018898703</v>
       </c>
       <c r="NB8" s="23" t="n">
-        <v>171.69430268455</v>
+        <v>165.841087820304</v>
       </c>
       <c r="NC8" s="23" t="n">
         <v>109.078326055277</v>
@@ -13986,7 +13986,7 @@
         <v>188.475055226975</v>
       </c>
       <c r="NO8" s="23" t="n">
-        <v>119.830003902458</v>
+        <v>81.9311902905521</v>
       </c>
       <c r="NP8" s="23" t="n">
         <v>81.229156086671</v>
@@ -14025,7 +14025,7 @@
         <v>167.951669108002</v>
       </c>
       <c r="OB8" s="23" t="n">
-        <v>150.813743688819</v>
+        <v>145.672366063063</v>
       </c>
       <c r="OC8" s="23" t="n">
         <v>99.0898348698581</v>
@@ -14064,7 +14064,7 @@
         <v>134.005453297153</v>
       </c>
       <c r="OO8" s="23" t="n">
-        <v>85.2020911262495</v>
+        <v>58.2491742039815</v>
       </c>
       <c r="OP8" s="23" t="n">
         <v>61.4445824420369</v>
@@ -14895,7 +14895,7 @@
         <v>27</v>
       </c>
       <c r="JJ9" s="27" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="JK9" s="27" t="n">
         <v>45</v>
@@ -14934,7 +14934,7 @@
         <v>30</v>
       </c>
       <c r="JW9" s="27" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="JX9" s="27" t="n">
         <v>57</v>
@@ -15183,7 +15183,7 @@
         <v>20.8338240073862</v>
       </c>
       <c r="NB9" s="23" t="n">
-        <v>16.2577007736515</v>
+        <v>13.6192087208813</v>
       </c>
       <c r="NC9" s="23" t="n">
         <v>41.5031106420557</v>
@@ -15216,13 +15216,13 @@
         <v>45.8075326573284</v>
       </c>
       <c r="NM9" s="23" t="n">
-        <v>54.3401515905647</v>
+        <v>54.4287172669241</v>
       </c>
       <c r="NN9" s="23" t="n">
         <v>76.8200246924354</v>
       </c>
       <c r="NO9" s="23" t="n">
-        <v>35.0423787864745</v>
+        <v>26.3966354599835</v>
       </c>
       <c r="NP9" s="23" t="n">
         <v>45.7650865975849</v>
@@ -15255,13 +15255,13 @@
         <v>83.4038301585497</v>
       </c>
       <c r="NZ9" s="23" t="n">
-        <v>76.027772567431</v>
+        <v>76.0498181113261</v>
       </c>
       <c r="OA9" s="23" t="n">
         <v>40.4442430955068</v>
       </c>
       <c r="OB9" s="23" t="n">
-        <v>31.4279734183963</v>
+        <v>26.2845715001041</v>
       </c>
       <c r="OC9" s="23" t="n">
         <v>78.3111587834872</v>
@@ -15294,13 +15294,13 @@
         <v>87.848543965725</v>
       </c>
       <c r="OM9" s="23" t="n">
-        <v>103.836739761746</v>
+        <v>103.948171527145</v>
       </c>
       <c r="ON9" s="23" t="n">
         <v>116.478675223817</v>
       </c>
       <c r="OO9" s="23" t="n">
-        <v>52.0940114253976</v>
+        <v>39.326312655874</v>
       </c>
       <c r="OP9" s="23" t="n">
         <v>67.140584360414</v>
@@ -15333,7 +15333,7 @@
         <v>125.494524497692</v>
       </c>
       <c r="OZ9" s="23" t="n">
-        <v>111.953235707364</v>
+        <v>111.986479534127</v>
       </c>
     </row>
     <row r="10">
@@ -16131,7 +16131,7 @@
         <v>40</v>
       </c>
       <c r="JJ10" s="27" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="JK10" s="27" t="n">
         <v>58</v>
@@ -16170,7 +16170,7 @@
         <v>32</v>
       </c>
       <c r="JW10" s="27" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="JX10" s="27" t="n">
         <v>57</v>
@@ -16419,7 +16419,7 @@
         <v>34.8367384887128</v>
       </c>
       <c r="NB10" s="23" t="n">
-        <v>95.4344294722853</v>
+        <v>91.7717841289426</v>
       </c>
       <c r="NC10" s="23" t="n">
         <v>63.5086082415396</v>
@@ -16431,7 +16431,7 @@
         <v>64.6306849495215</v>
       </c>
       <c r="NF10" s="23" t="n">
-        <v>56.9191126054963</v>
+        <v>56.9191126054964</v>
       </c>
       <c r="NG10" s="23" t="n">
         <v>65.9516507044135</v>
@@ -16452,13 +16452,13 @@
         <v>92.4504852183565</v>
       </c>
       <c r="NM10" s="23" t="n">
-        <v>32.127364837001</v>
+        <v>32.1273648370011</v>
       </c>
       <c r="NN10" s="23" t="n">
         <v>61.5902989919776</v>
       </c>
       <c r="NO10" s="23" t="n">
-        <v>46.2678173554966</v>
+        <v>100.32684917476</v>
       </c>
       <c r="NP10" s="23" t="n">
         <v>83.5823939937704</v>
@@ -16497,7 +16497,7 @@
         <v>43.3702089976161</v>
       </c>
       <c r="OB10" s="23" t="n">
-        <v>119.179945169641</v>
+        <v>114.544771853045</v>
       </c>
       <c r="OC10" s="23" t="n">
         <v>78.6296145938071</v>
@@ -16536,7 +16536,7 @@
         <v>52.5782117517509</v>
       </c>
       <c r="OO10" s="23" t="n">
-        <v>39.3051110813093</v>
+        <v>85.404451684061</v>
       </c>
       <c r="OP10" s="23" t="n">
         <v>71.0640541730264</v>
@@ -17309,7 +17309,7 @@
         <v>49</v>
       </c>
       <c r="IP11" s="27" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="IQ11" s="27" t="n">
         <v>0</v>
@@ -17367,7 +17367,7 @@
         <v>17</v>
       </c>
       <c r="JJ11" s="27" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="JK11" s="27" t="n">
         <v>23</v>
@@ -17406,7 +17406,7 @@
         <v>16</v>
       </c>
       <c r="JW11" s="27" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="JX11" s="27" t="n">
         <v>23</v>
@@ -17655,13 +17655,13 @@
         <v>11.4719784442551</v>
       </c>
       <c r="NB11" s="23" t="n">
-        <v>23.2810038753656</v>
+        <v>18.4020240303908</v>
       </c>
       <c r="NC11" s="23" t="n">
         <v>15.8294281365048</v>
       </c>
       <c r="ND11" s="23" t="n">
-        <v>27.2152039828163</v>
+        <v>27.2152039828164</v>
       </c>
       <c r="NE11" s="23" t="n">
         <v>22.7679456305678</v>
@@ -17670,7 +17670,7 @@
         <v>16.1729271888802</v>
       </c>
       <c r="NG11" s="23" t="n">
-        <v>30.8399700593177</v>
+        <v>30.8399700593178</v>
       </c>
       <c r="NH11" s="23" t="n">
         <v>12.8527927032356</v>
@@ -17682,10 +17682,10 @@
         <v>13.5146949461143</v>
       </c>
       <c r="NK11" s="23" t="n">
-        <v>33.3544873713657</v>
+        <v>33.3544873713658</v>
       </c>
       <c r="NL11" s="23" t="n">
-        <v>33.5890640983317</v>
+        <v>33.5890640983318</v>
       </c>
       <c r="NM11" s="23" t="n">
         <v>0</v>
@@ -17694,7 +17694,7 @@
         <v>11.2713427288303</v>
       </c>
       <c r="NO11" s="23" t="n">
-        <v>14.6021639810745</v>
+        <v>4.98471721830082</v>
       </c>
       <c r="NP11" s="23" t="n">
         <v>14.811463835389</v>
@@ -17712,7 +17712,7 @@
         <v>23.8865001827917</v>
       </c>
       <c r="NU11" s="23" t="n">
-        <v>2.12321394730008</v>
+        <v>2.17222936511013</v>
       </c>
       <c r="NV11" s="23" t="n">
         <v>0</v>
@@ -17733,7 +17733,7 @@
         <v>21.501400215027</v>
       </c>
       <c r="OB11" s="23" t="n">
-        <v>43.6582934703797</v>
+        <v>34.4809184087645</v>
       </c>
       <c r="OC11" s="23" t="n">
         <v>29.6242163063856</v>
@@ -17772,7 +17772,7 @@
         <v>16.8355873424264</v>
       </c>
       <c r="OO11" s="23" t="n">
-        <v>21.6983442716179</v>
+        <v>7.43027680185661</v>
       </c>
       <c r="OP11" s="23" t="n">
         <v>21.9720961019736</v>
@@ -17790,7 +17790,7 @@
         <v>35.6567565348414</v>
       </c>
       <c r="OU11" s="23" t="n">
-        <v>2.91339148915049</v>
+        <v>2.96472008395307</v>
       </c>
       <c r="OV11" s="23" t="n">
         <v>0</v>
@@ -18671,10 +18671,10 @@
         <v>727</v>
       </c>
       <c r="FT1" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="FU1" s="12" t="s">
         <v>729</v>
-      </c>
-      <c r="FU1" s="12" t="s">
-        <v>730</v>
       </c>
       <c r="FV1" s="12" t="s">
         <v>731</v>
@@ -18719,244 +18719,244 @@
         <v>749</v>
       </c>
       <c r="GJ1" s="8" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="GK1" s="8" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="GL1" s="8" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="GM1" s="8" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="GN1" s="8" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="GO1" s="8" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="GP1" s="8" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="GQ1" s="8" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="GR1" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="GS1" s="8" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="GT1" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="GU1" s="8" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="GV1" s="13" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="GW1" s="13" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="GX1" s="13" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="GY1" s="13" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="GZ1" s="13" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="HA1" s="13" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="HB1" s="13" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="HC1" s="13" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="HD1" s="13" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="HE1" s="13" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="HF1" s="13" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="HG1" s="13" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="HH1" s="13" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="HI1" s="14" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="HJ1" s="14" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="HK1" s="14" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="HL1" s="14" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="HM1" s="14" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="HN1" s="14" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="HO1" s="14" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="HP1" s="14" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="HQ1" s="14" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="HR1" s="14" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="HS1" s="14" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="HT1" s="14" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="HU1" s="14" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="HV1" s="15" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="HW1" s="15" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="HX1" s="15" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="HY1" s="15" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="HZ1" s="15" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="IA1" s="15" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="IB1" s="15" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="IC1" s="15" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="ID1" s="15" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="IE1" s="15" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="IF1" s="15" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="IG1" s="15" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="IH1" s="15" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="II1" s="16" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="IJ1" s="16" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="IK1" s="16" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="IL1" s="16" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="IM1" s="16" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="IN1" s="16" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="IO1" s="16" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="IP1" s="16" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="IQ1" s="16" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="IR1" s="16" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="IS1" s="16" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="IT1" s="16" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="IU1" s="16" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="IV1" s="15" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="IW1" s="15" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="IX1" s="15" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="IY1" s="15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="IZ1" s="15" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="JA1" s="15" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="JB1" s="15" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="JC1" s="15" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="JD1" s="15" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="JE1" s="15" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="JF1" s="15" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="JG1" s="15" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="JH1" s="15" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="JI1" s="17" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="JJ1" s="17" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="JK1" s="17" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="JL1" s="17" t="s">
         <v>876</v>
@@ -18965,34 +18965,34 @@
         <v>878</v>
       </c>
       <c r="JN1" s="17" t="s">
+        <v>879</v>
+      </c>
+      <c r="JO1" s="17" t="s">
         <v>880</v>
       </c>
-      <c r="JO1" s="17" t="s">
+      <c r="JP1" s="17" t="s">
         <v>881</v>
       </c>
-      <c r="JP1" s="17" t="s">
+      <c r="JQ1" s="17" t="s">
         <v>882</v>
       </c>
-      <c r="JQ1" s="17" t="s">
+      <c r="JR1" s="17" t="s">
         <v>883</v>
       </c>
-      <c r="JR1" s="17" t="s">
+      <c r="JS1" s="17" t="s">
         <v>884</v>
       </c>
-      <c r="JS1" s="17" t="s">
-        <v>885</v>
-      </c>
       <c r="JT1" s="17" t="s">
+        <v>886</v>
+      </c>
+      <c r="JU1" s="17" t="s">
         <v>887</v>
       </c>
-      <c r="JU1" s="17" t="s">
+      <c r="JV1" s="17" t="s">
         <v>888</v>
       </c>
-      <c r="JV1" s="17" t="s">
-        <v>889</v>
-      </c>
       <c r="JW1" s="17" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="JX1" s="17" t="s">
         <v>892</v>
@@ -19903,13 +19903,13 @@
         <v>57.6216050626212</v>
       </c>
       <c r="FV2" s="27" t="n">
-        <v>26.0844119852241</v>
+        <v>84.9423601169581</v>
       </c>
       <c r="FW2" s="27" t="n">
-        <v>5.02618445096331</v>
+        <v>37.931634588221</v>
       </c>
       <c r="FX2" s="27" t="n">
-        <v>26.3473274981435</v>
+        <v>85.612347469941</v>
       </c>
       <c r="FY2" s="27" t="n">
         <v>68.8657580521925</v>
@@ -20115,16 +20115,16 @@
         <v>46.4249874543021</v>
       </c>
       <c r="IP2" s="27" t="n">
-        <v>3.76963833822248</v>
+        <v>69.7121730817598</v>
       </c>
       <c r="IQ2" s="27" t="n">
-        <v>26.6169908681623</v>
+        <v>82.3314591272486</v>
       </c>
       <c r="IR2" s="27" t="n">
-        <v>78.9323777941743</v>
+        <v>79.1870584420925</v>
       </c>
       <c r="IS2" s="27" t="n">
-        <v>43.5815947161454</v>
+        <v>47.1976415279885</v>
       </c>
       <c r="IT2" s="27" t="n">
         <v>60.1564576670604</v>
@@ -20173,7 +20173,7 @@
         <v>78</v>
       </c>
       <c r="JJ2" s="27" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="JK2" s="27" t="n">
         <v>83</v>
@@ -20212,7 +20212,7 @@
         <v>75</v>
       </c>
       <c r="JW2" s="27" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="JX2" s="27" t="n">
         <v>85</v>
@@ -20461,7 +20461,7 @@
         <v>117.312116899188</v>
       </c>
       <c r="NB2" s="23" t="n">
-        <v>102.211035118237</v>
+        <v>121.440843085412</v>
       </c>
       <c r="NC2" s="23" t="n">
         <v>147.749566513762</v>
@@ -20494,13 +20494,13 @@
         <v>109.501365093349</v>
       </c>
       <c r="NM2" s="23" t="n">
-        <v>10.8213053345218</v>
+        <v>10.8253658009493</v>
       </c>
       <c r="NN2" s="23" t="n">
         <v>142.891623579944</v>
       </c>
       <c r="NO2" s="23" t="n">
-        <v>71.5487559652744</v>
+        <v>110.471533216608</v>
       </c>
       <c r="NP2" s="23" t="n">
         <v>154.348158200293</v>
@@ -20518,7 +20518,7 @@
         <v>85.5078660379096</v>
       </c>
       <c r="NU2" s="23" t="n">
-        <v>143.981425622932</v>
+        <v>143.982618644189</v>
       </c>
       <c r="NV2" s="23" t="n">
         <v>162.213263447858</v>
@@ -20533,13 +20533,13 @@
         <v>108.36046751482</v>
       </c>
       <c r="NZ2" s="23" t="n">
-        <v>12.6896214220852</v>
+        <v>12.6906321431065</v>
       </c>
       <c r="OA2" s="23" t="n">
         <v>117.153378985886</v>
       </c>
       <c r="OB2" s="23" t="n">
-        <v>103.973930253546</v>
+        <v>122.523033390055</v>
       </c>
       <c r="OC2" s="23" t="n">
         <v>152.100205832046</v>
@@ -20554,7 +20554,7 @@
         <v>144.477633800058</v>
       </c>
       <c r="OG2" s="23" t="n">
-        <v>95.2776509351118</v>
+        <v>95.2776509351119</v>
       </c>
       <c r="OH2" s="23" t="n">
         <v>147.302056163125</v>
@@ -20572,13 +20572,13 @@
         <v>114.040127496428</v>
       </c>
       <c r="OM2" s="23" t="n">
-        <v>14.4084025793826</v>
+        <v>14.4135113863263</v>
       </c>
       <c r="ON2" s="23" t="n">
         <v>131.089527021018</v>
       </c>
       <c r="OO2" s="23" t="n">
-        <v>63.2289343780677</v>
+        <v>100.311668071496</v>
       </c>
       <c r="OP2" s="23" t="n">
         <v>139.762065830411</v>
@@ -20596,7 +20596,7 @@
         <v>74.1512036392973</v>
       </c>
       <c r="OU2" s="23" t="n">
-        <v>128.181612175162</v>
+        <v>128.182861498486</v>
       </c>
       <c r="OV2" s="23" t="n">
         <v>144.944179701337</v>
@@ -20611,7 +20611,7 @@
         <v>100.185422723694</v>
       </c>
       <c r="OZ2" s="23" t="n">
-        <v>14.2846356089992</v>
+        <v>14.2861597371721</v>
       </c>
     </row>
   </sheetData>
@@ -22175,23 +22175,23 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
+        <v>673</v>
+      </c>
+      <c r="B179" t="s">
         <v>728</v>
-      </c>
-      <c r="B179" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>593</v>
+        <v>682</v>
       </c>
       <c r="B180" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B181" t="s">
         <v>731</v>
@@ -22303,10 +22303,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>728</v>
+        <v>750</v>
       </c>
       <c r="B195" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="196">
@@ -22314,7 +22314,7 @@
         <v>588</v>
       </c>
       <c r="B196" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="197">
@@ -22322,7 +22322,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="198">
@@ -22330,7 +22330,7 @@
         <v>522</v>
       </c>
       <c r="B198" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="199">
@@ -22338,7 +22338,7 @@
         <v>522</v>
       </c>
       <c r="B199" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="200">
@@ -22346,7 +22346,7 @@
         <v>7</v>
       </c>
       <c r="B200" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="201">
@@ -22354,7 +22354,7 @@
         <v>704</v>
       </c>
       <c r="B201" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="202">
@@ -22362,15 +22362,15 @@
         <v>646</v>
       </c>
       <c r="B202" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B203" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="204">
@@ -22378,71 +22378,71 @@
         <v>638</v>
       </c>
       <c r="B204" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B205" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B206" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B207" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B208" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B209" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B210" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B211" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B212" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="213">
@@ -22450,37 +22450,37 @@
         <v>531</v>
       </c>
       <c r="B213" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B214" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B215" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B216" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="217">
       <c r="A217"/>
       <c r="B217" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="218">
@@ -22488,31 +22488,31 @@
         <v>659</v>
       </c>
       <c r="B218" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B219" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B220" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B221" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="222">
@@ -22520,7 +22520,7 @@
         <v>654</v>
       </c>
       <c r="B222" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="223">
@@ -22528,15 +22528,15 @@
         <v>659</v>
       </c>
       <c r="B223" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B224" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="225">
@@ -22544,7 +22544,7 @@
         <v>677</v>
       </c>
       <c r="B225" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="226">
@@ -22552,7 +22552,7 @@
         <v>677</v>
       </c>
       <c r="B226" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="227">
@@ -22560,15 +22560,15 @@
         <v>675</v>
       </c>
       <c r="B227" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B228" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="229">
@@ -22576,61 +22576,61 @@
         <v>649</v>
       </c>
       <c r="B229" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="230">
       <c r="A230"/>
       <c r="B230" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B231" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B232" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B233" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B234" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B235" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B236" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="237">
@@ -22638,23 +22638,23 @@
         <v>543</v>
       </c>
       <c r="B237" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B238" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B239" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="240">
@@ -22662,23 +22662,23 @@
         <v>516</v>
       </c>
       <c r="B240" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B241" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B242" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="243">
@@ -22686,7 +22686,7 @@
         <v>507</v>
       </c>
       <c r="B243" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="244">
@@ -22694,15 +22694,15 @@
         <v>654</v>
       </c>
       <c r="B244" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B245" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="246">
@@ -22710,15 +22710,15 @@
         <v>642</v>
       </c>
       <c r="B246" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B247" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="248">
@@ -22726,7 +22726,7 @@
         <v>642</v>
       </c>
       <c r="B248" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="249">
@@ -22734,47 +22734,47 @@
         <v>654</v>
       </c>
       <c r="B249" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B250" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>514</v>
+        <v>654</v>
       </c>
       <c r="B251" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>604</v>
+        <v>837</v>
       </c>
       <c r="B252" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B253" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B254" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="255">
@@ -22782,117 +22782,117 @@
         <v>706</v>
       </c>
       <c r="B255" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="256">
       <c r="A256"/>
       <c r="B256" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B257" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B258" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B259" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B260" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B261" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B262" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B263" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B264" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B265" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B266" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B267" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B268" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B269" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="270">
@@ -22900,15 +22900,15 @@
         <v>649</v>
       </c>
       <c r="B270" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>869</v>
+        <v>668</v>
       </c>
       <c r="B271" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="272">
@@ -22916,7 +22916,7 @@
         <v>671</v>
       </c>
       <c r="B272" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="273">
@@ -22924,20 +22924,20 @@
         <v>673</v>
       </c>
       <c r="B273" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B274" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>875</v>
+        <v>837</v>
       </c>
       <c r="B275" t="s">
         <v>876</v>
@@ -22953,10 +22953,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
+        <v>730</v>
+      </c>
+      <c r="B277" t="s">
         <v>879</v>
-      </c>
-      <c r="B277" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="278">
@@ -22964,7 +22964,7 @@
         <v>671</v>
       </c>
       <c r="B278" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="279">
@@ -22972,7 +22972,7 @@
         <v>673</v>
       </c>
       <c r="B279" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="280">
@@ -22980,7 +22980,7 @@
         <v>877</v>
       </c>
       <c r="B280" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="281">
@@ -22988,7 +22988,7 @@
         <v>642</v>
       </c>
       <c r="B281" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="282">
@@ -22996,23 +22996,23 @@
         <v>666</v>
       </c>
       <c r="B282" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
+        <v>885</v>
+      </c>
+      <c r="B283" t="s">
         <v>886</v>
-      </c>
-      <c r="B283" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>877</v>
+        <v>787</v>
       </c>
       <c r="B284" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="285">
@@ -23020,20 +23020,20 @@
         <v>673</v>
       </c>
       <c r="B285" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
+        <v>889</v>
+      </c>
+      <c r="B286" t="s">
         <v>890</v>
-      </c>
-      <c r="B286" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>869</v>
+        <v>891</v>
       </c>
       <c r="B287" t="s">
         <v>892</v>
@@ -23057,7 +23057,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>879</v>
+        <v>730</v>
       </c>
       <c r="B290" t="s">
         <v>896</v>
@@ -23065,7 +23065,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>875</v>
+        <v>837</v>
       </c>
       <c r="B291" t="s">
         <v>897</v>
@@ -23073,7 +23073,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>879</v>
+        <v>730</v>
       </c>
       <c r="B292" t="s">
         <v>898</v>
@@ -23401,7 +23401,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B333" t="s">
         <v>954</v>

--- a/inst/testdata/examples_of_output/testoutput_ejamit_10pts_1miles.xlsx
+++ b/inst/testdata/examples_of_output/testoutput_ejamit_10pts_1miles.xlsx
@@ -2207,72 +2207,75 @@
     <t xml:space="preserve">State percentile for % Asian (non-Hispanic, single race)</t>
   </si>
   <si>
+    <t xml:space="preserve">State percentile for % American Indian and Alaska Native (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % Native Hawaiian and Other Pacific Islander (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % Other race (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % Two or more races (non-Hispanic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % White (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % with Disabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for %Low life expectancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Demographic Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Supplemental EJ Index for Supplemental Demographic Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % Low Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % in limited English-speaking Households</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % Unemployed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % with Less Than High School Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % under Age 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % over Age 64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % People of Color</t>
+  </si>
+  <si>
     <t xml:space="preserve">26</t>
   </si>
   <si>
-    <t xml:space="preserve">State percentile for % American Indian and Alaska Native (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % Native Hawaiian and Other Pacific Islander (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % Other race (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % Two or more races (non-Hispanic)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % White (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % with Disabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for %Low life expectancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average for Demographic Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average for Supplemental EJ Index for Supplemental Demographic Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average for % Low Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average for % in limited English-speaking Households</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average for % Unemployed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average for % with Less Than High School Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average for % under Age 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average for % over Age 64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average for % People of Color</t>
-  </si>
-  <si>
     <t xml:space="preserve">State Average for % Hispanic or Latino</t>
   </si>
   <si>
@@ -2531,13 +2534,16 @@
     <t xml:space="preserve">State percentile for Superfund Proximity (site count/km distance)</t>
   </si>
   <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
     <t xml:space="preserve">State percentile for RMP Proximity (facility count/km distance)</t>
   </si>
   <si>
     <t xml:space="preserve">State percentile for Hazardous Waste Proximity (facility count/km distance)</t>
   </si>
   <si>
-    <t xml:space="preserve">44</t>
+    <t xml:space="preserve">47</t>
   </si>
   <si>
     <t xml:space="preserve">State percentile for Underground Storage Tanks (UST) indicator</t>
@@ -2645,9 +2651,6 @@
     <t xml:space="preserve">US percentile for EJ Index for Toxic Releases to Air</t>
   </si>
   <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
     <t xml:space="preserve">US percentile for EJ Index for Traffic Proximity and Volume</t>
   </si>
   <si>
@@ -2655,9 +2658,6 @@
   </si>
   <si>
     <t xml:space="preserve">US percentile for EJ Index for Lead Paint Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
   </si>
   <si>
     <t xml:space="preserve">US percentile for EJ Index for Superfund Proximity</t>
@@ -4739,10 +4739,10 @@
         <v>727</v>
       </c>
       <c r="FV1" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="FW1" s="12" t="s">
         <v>729</v>
-      </c>
-      <c r="FW1" s="12" t="s">
-        <v>730</v>
       </c>
       <c r="FX1" s="12" t="s">
         <v>731</v>
@@ -4787,250 +4787,250 @@
         <v>749</v>
       </c>
       <c r="GL1" s="8" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="GM1" s="8" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="GN1" s="8" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="GO1" s="8" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="GP1" s="8" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="GQ1" s="8" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="GR1" s="8" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="GS1" s="8" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="GT1" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="GU1" s="8" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="GV1" s="13" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="GW1" s="13" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="GX1" s="13" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="GY1" s="13" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="GZ1" s="13" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="HA1" s="13" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="HB1" s="13" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="HC1" s="13" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="HD1" s="13" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="HE1" s="13" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="HF1" s="13" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="HG1" s="13" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="HH1" s="13" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="HI1" s="14" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="HJ1" s="14" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="HK1" s="14" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="HL1" s="14" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="HM1" s="14" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="HN1" s="14" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="HO1" s="14" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="HP1" s="14" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="HQ1" s="14" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="HR1" s="14" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="HS1" s="14" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="HT1" s="14" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="HU1" s="14" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="HV1" s="15" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="HW1" s="15" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="HX1" s="15" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="HY1" s="15" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="HZ1" s="15" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="IA1" s="15" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="IB1" s="15" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="IC1" s="15" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="ID1" s="15" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="IE1" s="15" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="IF1" s="15" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="IG1" s="15" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="IH1" s="15" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="II1" s="16" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="IJ1" s="16" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="IK1" s="16" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="IL1" s="16" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="IM1" s="16" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="IN1" s="16" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="IO1" s="16" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="IP1" s="16" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="IQ1" s="16" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="IR1" s="16" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="IS1" s="16" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="IT1" s="16" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="IU1" s="16" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="IV1" s="15" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="IW1" s="15" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="IX1" s="15" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="IY1" s="15" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="IZ1" s="15" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="JA1" s="15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="JB1" s="15" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="JC1" s="15" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="JD1" s="15" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="JE1" s="15" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="JF1" s="15" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="JG1" s="15" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="JH1" s="15" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="JI1" s="17" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="JJ1" s="17" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="JK1" s="17" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="JL1" s="17" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="JM1" s="17" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="JN1" s="17" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="JO1" s="17" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="JP1" s="17" t="s">
         <v>879</v>
@@ -6191,10 +6191,10 @@
         <v>0</v>
       </c>
       <c r="IR2" s="27" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="IS2" s="27" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="IT2" s="27" t="n">
         <v>10</v>
@@ -7209,13 +7209,13 @@
         <v>82</v>
       </c>
       <c r="FV3" s="27" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="FW3" s="27" t="n">
         <v>0</v>
       </c>
       <c r="FX3" s="27" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="FY3" s="27" t="n">
         <v>61</v>
@@ -7424,13 +7424,13 @@
         <v>0</v>
       </c>
       <c r="IQ3" s="27" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="IR3" s="27" t="n">
         <v>0</v>
       </c>
       <c r="IS3" s="27" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="IT3" s="27" t="n">
         <v>65</v>
@@ -8657,7 +8657,7 @@
         <v>32</v>
       </c>
       <c r="IP4" s="27" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="IQ4" s="27" t="n">
         <v>15</v>
@@ -8666,7 +8666,7 @@
         <v>55</v>
       </c>
       <c r="IS4" s="27" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="IT4" s="27" t="n">
         <v>21</v>
@@ -9681,13 +9681,13 @@
         <v>74</v>
       </c>
       <c r="FV5" s="27" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="FW5" s="27" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="FX5" s="27" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="FY5" s="27" t="n">
         <v>82</v>
@@ -9893,10 +9893,10 @@
         <v>54</v>
       </c>
       <c r="IP5" s="27" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="IQ5" s="27" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="IR5" s="27" t="n">
         <v>89</v>
@@ -10920,7 +10920,7 @@
         <v>84</v>
       </c>
       <c r="FW6" s="27" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="FX6" s="27" t="n">
         <v>83</v>
@@ -11129,7 +11129,7 @@
         <v>87</v>
       </c>
       <c r="IP6" s="27" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="IQ6" s="27" t="n">
         <v>99</v>
@@ -12153,13 +12153,13 @@
         <v>52</v>
       </c>
       <c r="FV7" s="27" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="FW7" s="27" t="n">
         <v>0</v>
       </c>
       <c r="FX7" s="27" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="FY7" s="27" t="n">
         <v>82</v>
@@ -12365,10 +12365,10 @@
         <v>31</v>
       </c>
       <c r="IP7" s="27" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="IQ7" s="27" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="IR7" s="27" t="n">
         <v>93</v>
@@ -13601,7 +13601,7 @@
         <v>25</v>
       </c>
       <c r="IP8" s="27" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="IQ8" s="27" t="n">
         <v>93</v>
@@ -17309,7 +17309,7 @@
         <v>49</v>
       </c>
       <c r="IP11" s="27" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="IQ11" s="27" t="n">
         <v>0</v>
@@ -18671,10 +18671,10 @@
         <v>727</v>
       </c>
       <c r="FT1" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="FU1" s="12" t="s">
         <v>729</v>
-      </c>
-      <c r="FU1" s="12" t="s">
-        <v>730</v>
       </c>
       <c r="FV1" s="12" t="s">
         <v>731</v>
@@ -18719,250 +18719,250 @@
         <v>749</v>
       </c>
       <c r="GJ1" s="8" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="GK1" s="8" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="GL1" s="8" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="GM1" s="8" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="GN1" s="8" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="GO1" s="8" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="GP1" s="8" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="GQ1" s="8" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="GR1" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="GS1" s="8" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="GT1" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="GU1" s="8" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="GV1" s="13" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="GW1" s="13" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="GX1" s="13" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="GY1" s="13" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="GZ1" s="13" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="HA1" s="13" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="HB1" s="13" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="HC1" s="13" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="HD1" s="13" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="HE1" s="13" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="HF1" s="13" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="HG1" s="13" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="HH1" s="13" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="HI1" s="14" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="HJ1" s="14" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="HK1" s="14" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="HL1" s="14" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="HM1" s="14" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="HN1" s="14" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="HO1" s="14" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="HP1" s="14" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="HQ1" s="14" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="HR1" s="14" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="HS1" s="14" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="HT1" s="14" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="HU1" s="14" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="HV1" s="15" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="HW1" s="15" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="HX1" s="15" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="HY1" s="15" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="HZ1" s="15" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="IA1" s="15" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="IB1" s="15" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="IC1" s="15" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="ID1" s="15" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="IE1" s="15" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="IF1" s="15" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="IG1" s="15" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="IH1" s="15" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="II1" s="16" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="IJ1" s="16" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="IK1" s="16" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="IL1" s="16" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="IM1" s="16" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="IN1" s="16" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="IO1" s="16" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="IP1" s="16" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="IQ1" s="16" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="IR1" s="16" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="IS1" s="16" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="IT1" s="16" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="IU1" s="16" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="IV1" s="15" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="IW1" s="15" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="IX1" s="15" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="IY1" s="15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="IZ1" s="15" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="JA1" s="15" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="JB1" s="15" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="JC1" s="15" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="JD1" s="15" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="JE1" s="15" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="JF1" s="15" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="JG1" s="15" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="JH1" s="15" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="JI1" s="17" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="JJ1" s="17" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="JK1" s="17" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="JL1" s="17" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="JM1" s="17" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="JN1" s="17" t="s">
         <v>879</v>
@@ -19903,13 +19903,13 @@
         <v>57.6216050626212</v>
       </c>
       <c r="FV2" s="27" t="n">
-        <v>26.0844119852241</v>
+        <v>84.9423601169581</v>
       </c>
       <c r="FW2" s="27" t="n">
-        <v>5.02618445096331</v>
+        <v>37.931634588221</v>
       </c>
       <c r="FX2" s="27" t="n">
-        <v>26.3473274981435</v>
+        <v>85.612347469941</v>
       </c>
       <c r="FY2" s="27" t="n">
         <v>68.8657580521925</v>
@@ -20115,16 +20115,16 @@
         <v>46.4249874543021</v>
       </c>
       <c r="IP2" s="27" t="n">
-        <v>3.76963833822248</v>
+        <v>69.7121730817598</v>
       </c>
       <c r="IQ2" s="27" t="n">
-        <v>26.6169908681623</v>
+        <v>82.3314591272486</v>
       </c>
       <c r="IR2" s="27" t="n">
-        <v>78.9323777941743</v>
+        <v>79.1870584420925</v>
       </c>
       <c r="IS2" s="27" t="n">
-        <v>43.5815947161454</v>
+        <v>47.1976415279885</v>
       </c>
       <c r="IT2" s="27" t="n">
         <v>60.1564576670604</v>
@@ -22175,23 +22175,23 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
+        <v>673</v>
+      </c>
+      <c r="B179" t="s">
         <v>728</v>
-      </c>
-      <c r="B179" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>593</v>
+        <v>682</v>
       </c>
       <c r="B180" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B181" t="s">
         <v>731</v>
@@ -22303,10 +22303,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>728</v>
+        <v>750</v>
       </c>
       <c r="B195" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="196">
@@ -22314,7 +22314,7 @@
         <v>588</v>
       </c>
       <c r="B196" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="197">
@@ -22322,7 +22322,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="198">
@@ -22330,7 +22330,7 @@
         <v>522</v>
       </c>
       <c r="B198" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="199">
@@ -22338,7 +22338,7 @@
         <v>522</v>
       </c>
       <c r="B199" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="200">
@@ -22346,7 +22346,7 @@
         <v>7</v>
       </c>
       <c r="B200" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="201">
@@ -22354,7 +22354,7 @@
         <v>704</v>
       </c>
       <c r="B201" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="202">
@@ -22362,15 +22362,15 @@
         <v>646</v>
       </c>
       <c r="B202" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B203" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="204">
@@ -22378,71 +22378,71 @@
         <v>638</v>
       </c>
       <c r="B204" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B205" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B206" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B207" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B208" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B209" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B210" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B211" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B212" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="213">
@@ -22450,37 +22450,37 @@
         <v>531</v>
       </c>
       <c r="B213" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B214" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B215" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B216" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="217">
       <c r="A217"/>
       <c r="B217" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="218">
@@ -22488,31 +22488,31 @@
         <v>659</v>
       </c>
       <c r="B218" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B219" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B220" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B221" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="222">
@@ -22520,7 +22520,7 @@
         <v>654</v>
       </c>
       <c r="B222" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="223">
@@ -22528,15 +22528,15 @@
         <v>659</v>
       </c>
       <c r="B223" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B224" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="225">
@@ -22544,7 +22544,7 @@
         <v>677</v>
       </c>
       <c r="B225" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="226">
@@ -22552,7 +22552,7 @@
         <v>677</v>
       </c>
       <c r="B226" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="227">
@@ -22560,15 +22560,15 @@
         <v>675</v>
       </c>
       <c r="B227" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B228" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="229">
@@ -22576,61 +22576,61 @@
         <v>649</v>
       </c>
       <c r="B229" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="230">
       <c r="A230"/>
       <c r="B230" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B231" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B232" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B233" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B234" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B235" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B236" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="237">
@@ -22638,23 +22638,23 @@
         <v>543</v>
       </c>
       <c r="B237" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B238" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B239" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="240">
@@ -22662,23 +22662,23 @@
         <v>516</v>
       </c>
       <c r="B240" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B241" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B242" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="243">
@@ -22686,7 +22686,7 @@
         <v>507</v>
       </c>
       <c r="B243" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="244">
@@ -22694,15 +22694,15 @@
         <v>654</v>
       </c>
       <c r="B244" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B245" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="246">
@@ -22710,15 +22710,15 @@
         <v>642</v>
       </c>
       <c r="B246" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B247" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="248">
@@ -22726,7 +22726,7 @@
         <v>642</v>
       </c>
       <c r="B248" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="249">
@@ -22734,47 +22734,47 @@
         <v>654</v>
       </c>
       <c r="B249" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B250" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>514</v>
+        <v>654</v>
       </c>
       <c r="B251" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>604</v>
+        <v>837</v>
       </c>
       <c r="B252" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B253" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B254" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="255">
@@ -22782,117 +22782,117 @@
         <v>706</v>
       </c>
       <c r="B255" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="256">
       <c r="A256"/>
       <c r="B256" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B257" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B258" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B259" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B260" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B261" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B262" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B263" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B264" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B265" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B266" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B267" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B268" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B269" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="270">
@@ -22900,7 +22900,7 @@
         <v>649</v>
       </c>
       <c r="B270" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="271">
@@ -22908,7 +22908,7 @@
         <v>668</v>
       </c>
       <c r="B271" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="272">
@@ -22916,7 +22916,7 @@
         <v>671</v>
       </c>
       <c r="B272" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="273">
@@ -22924,36 +22924,36 @@
         <v>673</v>
       </c>
       <c r="B273" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B274" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>874</v>
+        <v>837</v>
       </c>
       <c r="B275" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B276" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>878</v>
+        <v>730</v>
       </c>
       <c r="B277" t="s">
         <v>879</v>
@@ -22977,7 +22977,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B280" t="s">
         <v>882</v>
@@ -23009,7 +23009,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B284" t="s">
         <v>887</v>
@@ -23057,7 +23057,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>878</v>
+        <v>730</v>
       </c>
       <c r="B290" t="s">
         <v>896</v>
@@ -23065,7 +23065,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>874</v>
+        <v>837</v>
       </c>
       <c r="B291" t="s">
         <v>897</v>
@@ -23073,7 +23073,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>878</v>
+        <v>730</v>
       </c>
       <c r="B292" t="s">
         <v>898</v>
@@ -23401,7 +23401,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B333" t="s">
         <v>954</v>
